--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,15 @@
     <t>['20', '27']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['34', '84']</t>
+  </si>
+  <si>
+    <t>['57', '79']</t>
+  </si>
+  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -616,9 +625,6 @@
     <t>['13', '27', '50', '80', '90+3']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['44', '59']</t>
   </si>
   <si>
@@ -686,6 +692,18 @@
   </si>
   <si>
     <t>['3', '90+1', '90+4']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['44', '49']</t>
+  </si>
+  <si>
+    <t>['14', '52', '54', '85']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT2">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1482,7 +1500,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1572,7 +1590,7 @@
         <v>1.57</v>
       </c>
       <c r="AT3">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1673,7 +1691,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1864,7 +1882,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1951,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT5">
         <v>0.57</v>
@@ -2145,7 +2163,7 @@
         <v>1.71</v>
       </c>
       <c r="AT6">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2333,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT7">
         <v>1.43</v>
@@ -2527,7 +2545,7 @@
         <v>2.33</v>
       </c>
       <c r="AT8">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2628,7 +2646,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2715,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT9">
         <v>0.71</v>
@@ -2819,7 +2837,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3010,7 +3028,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3291,7 +3309,7 @@
         <v>0.14</v>
       </c>
       <c r="AT12">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3392,7 +3410,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3583,7 +3601,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3670,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT14">
         <v>1</v>
@@ -3774,7 +3792,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4052,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT16">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4156,7 +4174,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4347,7 +4365,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4434,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT18">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU18">
         <v>1.74</v>
@@ -4538,7 +4556,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4729,7 +4747,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4819,7 +4837,7 @@
         <v>1.86</v>
       </c>
       <c r="AT20">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU20">
         <v>1.86</v>
@@ -5007,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT21">
         <v>2.29</v>
@@ -5111,7 +5129,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5198,10 +5216,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT22">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU22">
         <v>1.96</v>
@@ -5771,10 +5789,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT25">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU25">
         <v>2.6</v>
@@ -5875,7 +5893,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5962,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT26">
         <v>0.86</v>
@@ -6066,7 +6084,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6257,7 +6275,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6344,7 +6362,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT28">
         <v>1.17</v>
@@ -6448,7 +6466,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6639,7 +6657,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6729,7 +6747,7 @@
         <v>1.43</v>
       </c>
       <c r="AT30">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>0.91</v>
@@ -6830,7 +6848,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7021,7 +7039,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7212,7 +7230,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7302,7 +7320,7 @@
         <v>0.14</v>
       </c>
       <c r="AT33">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU33">
         <v>1.72</v>
@@ -7403,7 +7421,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7490,10 +7508,10 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT34">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU34">
         <v>2.04</v>
@@ -7872,10 +7890,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU36">
         <v>2.23</v>
@@ -7976,7 +7994,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8066,7 +8084,7 @@
         <v>1.86</v>
       </c>
       <c r="AT37">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU37">
         <v>1.52</v>
@@ -8167,7 +8185,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8254,7 +8272,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT38">
         <v>0.71</v>
@@ -8358,7 +8376,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8445,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT39">
         <v>1.43</v>
@@ -8549,7 +8567,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8636,10 +8654,10 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>2.12</v>
@@ -8931,7 +8949,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9209,10 +9227,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT43">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>2.14</v>
@@ -9313,7 +9331,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9504,7 +9522,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9782,7 +9800,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT46">
         <v>2.29</v>
@@ -10077,7 +10095,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10167,7 +10185,7 @@
         <v>2.33</v>
       </c>
       <c r="AT48">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU48">
         <v>1.91</v>
@@ -10268,7 +10286,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10358,7 +10376,7 @@
         <v>2.29</v>
       </c>
       <c r="AT49">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU49">
         <v>1.79</v>
@@ -10546,7 +10564,7 @@
         <v>1.67</v>
       </c>
       <c r="AS50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT50">
         <v>1.57</v>
@@ -10650,7 +10668,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11122,7 +11140,7 @@
         <v>1.71</v>
       </c>
       <c r="AT53">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11223,7 +11241,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11414,7 +11432,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>13</v>
@@ -11501,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT55">
         <v>0.86</v>
@@ -11605,7 +11623,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11692,10 +11710,10 @@
         <v>1.67</v>
       </c>
       <c r="AS56">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT56">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU56">
         <v>2.16</v>
@@ -11796,7 +11814,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11987,7 +12005,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="Q58">
         <v>3</v>
@@ -12077,7 +12095,7 @@
         <v>1.43</v>
       </c>
       <c r="AT58">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU58">
         <v>1.21</v>
@@ -12178,7 +12196,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12265,7 +12283,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT59">
         <v>1.17</v>
@@ -12456,7 +12474,7 @@
         <v>0.33</v>
       </c>
       <c r="AS60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT60">
         <v>0.29</v>
@@ -12650,7 +12668,7 @@
         <v>2.29</v>
       </c>
       <c r="AT61">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU61">
         <v>1.89</v>
@@ -12751,7 +12769,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12841,7 +12859,7 @@
         <v>1.43</v>
       </c>
       <c r="AT62">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -12942,7 +12960,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13223,7 +13241,7 @@
         <v>2.33</v>
       </c>
       <c r="AT64">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU64">
         <v>1.72</v>
@@ -13411,7 +13429,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT65">
         <v>1.86</v>
@@ -13602,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT66">
         <v>0.86</v>
@@ -13706,7 +13724,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13897,7 +13915,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>12</v>
@@ -14088,7 +14106,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14661,7 +14679,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14939,10 +14957,10 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU73">
         <v>2.03</v>
@@ -15130,10 +15148,10 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT74">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU74">
         <v>1.43</v>
@@ -15425,7 +15443,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15515,7 +15533,7 @@
         <v>1.57</v>
       </c>
       <c r="AT76">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU76">
         <v>1.34</v>
@@ -15616,7 +15634,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15703,7 +15721,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT77">
         <v>1.86</v>
@@ -15807,7 +15825,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -15998,7 +16016,7 @@
         <v>87</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16088,7 +16106,7 @@
         <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU79">
         <v>1.69</v>
@@ -16276,7 +16294,7 @@
         <v>0.25</v>
       </c>
       <c r="AS80">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT80">
         <v>0.57</v>
@@ -16470,7 +16488,7 @@
         <v>1.43</v>
       </c>
       <c r="AT81">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU81">
         <v>1.65</v>
@@ -16658,7 +16676,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -16762,7 +16780,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16852,7 +16870,7 @@
         <v>1.71</v>
       </c>
       <c r="AT83">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -16953,7 +16971,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17144,7 +17162,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17234,7 +17252,7 @@
         <v>0.14</v>
       </c>
       <c r="AT85">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU85">
         <v>1.39</v>
@@ -17335,7 +17353,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17425,7 +17443,7 @@
         <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU86">
         <v>1.66</v>
@@ -17526,7 +17544,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17616,7 +17634,7 @@
         <v>1.43</v>
       </c>
       <c r="AT87">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU87">
         <v>1.87</v>
@@ -17717,7 +17735,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17804,7 +17822,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT88">
         <v>1.57</v>
@@ -18099,7 +18117,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18189,7 +18207,7 @@
         <v>1.43</v>
       </c>
       <c r="AT90">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AU90">
         <v>1.49</v>
@@ -18377,7 +18395,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT91">
         <v>1</v>
@@ -18571,7 +18589,7 @@
         <v>1</v>
       </c>
       <c r="AT92">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -18672,7 +18690,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18759,7 +18777,7 @@
         <v>0.2</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AT93">
         <v>0.57</v>
@@ -19141,7 +19159,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT95">
         <v>1.43</v>
@@ -19245,7 +19263,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19332,7 +19350,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT96">
         <v>0.86</v>
@@ -19523,7 +19541,7 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT97">
         <v>1.86</v>
@@ -19627,7 +19645,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19717,7 +19735,7 @@
         <v>1.43</v>
       </c>
       <c r="AT98">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU98">
         <v>1.91</v>
@@ -19818,7 +19836,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -19905,7 +19923,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT99">
         <v>1.86</v>
@@ -20099,7 +20117,7 @@
         <v>1.57</v>
       </c>
       <c r="AT100">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AU100">
         <v>1.33</v>
@@ -20391,7 +20409,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20582,7 +20600,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20672,7 +20690,7 @@
         <v>0.14</v>
       </c>
       <c r="AT103">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU103">
         <v>1.38</v>
@@ -21051,10 +21069,10 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AT105">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AU105">
         <v>1.46</v>
@@ -21155,7 +21173,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21433,7 +21451,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT107">
         <v>0.86</v>
@@ -21624,7 +21642,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT108">
         <v>0.29</v>
@@ -21919,7 +21937,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22110,7 +22128,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22252,6 +22270,1152 @@
       </c>
       <c r="BK111">
         <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2593389</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44864.27083333334</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>72</v>
+      </c>
+      <c r="H112" t="s">
+        <v>67</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>164</v>
+      </c>
+      <c r="P112" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q112">
+        <v>4</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>6</v>
+      </c>
+      <c r="T112">
+        <v>2.75</v>
+      </c>
+      <c r="U112">
+        <v>2.2</v>
+      </c>
+      <c r="V112">
+        <v>3.4</v>
+      </c>
+      <c r="W112">
+        <v>1.35</v>
+      </c>
+      <c r="X112">
+        <v>2.95</v>
+      </c>
+      <c r="Y112">
+        <v>2.5</v>
+      </c>
+      <c r="Z112">
+        <v>1.47</v>
+      </c>
+      <c r="AA112">
+        <v>5.95</v>
+      </c>
+      <c r="AB112">
+        <v>1.1</v>
+      </c>
+      <c r="AC112">
+        <v>2.2</v>
+      </c>
+      <c r="AD112">
+        <v>3.25</v>
+      </c>
+      <c r="AE112">
+        <v>2.85</v>
+      </c>
+      <c r="AF112">
+        <v>1.04</v>
+      </c>
+      <c r="AG112">
+        <v>10</v>
+      </c>
+      <c r="AH112">
+        <v>1.22</v>
+      </c>
+      <c r="AI112">
+        <v>4</v>
+      </c>
+      <c r="AJ112">
+        <v>1.71</v>
+      </c>
+      <c r="AK112">
+        <v>2.08</v>
+      </c>
+      <c r="AL112">
+        <v>1.62</v>
+      </c>
+      <c r="AM112">
+        <v>2.2</v>
+      </c>
+      <c r="AN112">
+        <v>1.35</v>
+      </c>
+      <c r="AO112">
+        <v>1.25</v>
+      </c>
+      <c r="AP112">
+        <v>1.57</v>
+      </c>
+      <c r="AQ112">
+        <v>1.67</v>
+      </c>
+      <c r="AR112">
+        <v>2.17</v>
+      </c>
+      <c r="AS112">
+        <v>1.57</v>
+      </c>
+      <c r="AT112">
+        <v>2</v>
+      </c>
+      <c r="AU112">
+        <v>1.39</v>
+      </c>
+      <c r="AV112">
+        <v>1.81</v>
+      </c>
+      <c r="AW112">
+        <v>3.2</v>
+      </c>
+      <c r="AX112">
+        <v>1.74</v>
+      </c>
+      <c r="AY112">
+        <v>6</v>
+      </c>
+      <c r="AZ112">
+        <v>2.45</v>
+      </c>
+      <c r="BA112">
+        <v>1.22</v>
+      </c>
+      <c r="BB112">
+        <v>1.43</v>
+      </c>
+      <c r="BC112">
+        <v>2.2</v>
+      </c>
+      <c r="BD112">
+        <v>2.21</v>
+      </c>
+      <c r="BE112">
+        <v>2.98</v>
+      </c>
+      <c r="BF112">
+        <v>2</v>
+      </c>
+      <c r="BG112">
+        <v>5</v>
+      </c>
+      <c r="BH112">
+        <v>8</v>
+      </c>
+      <c r="BI112">
+        <v>5</v>
+      </c>
+      <c r="BJ112">
+        <v>10</v>
+      </c>
+      <c r="BK112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2593395</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44864.35416666666</v>
+      </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
+      <c r="G113" t="s">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>87</v>
+      </c>
+      <c r="P113" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q113">
+        <v>6</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>6</v>
+      </c>
+      <c r="T113">
+        <v>1.73</v>
+      </c>
+      <c r="U113">
+        <v>2.75</v>
+      </c>
+      <c r="V113">
+        <v>6</v>
+      </c>
+      <c r="W113">
+        <v>1.25</v>
+      </c>
+      <c r="X113">
+        <v>3.75</v>
+      </c>
+      <c r="Y113">
+        <v>2.1</v>
+      </c>
+      <c r="Z113">
+        <v>1.67</v>
+      </c>
+      <c r="AA113">
+        <v>4.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.18</v>
+      </c>
+      <c r="AC113">
+        <v>1.33</v>
+      </c>
+      <c r="AD113">
+        <v>5.5</v>
+      </c>
+      <c r="AE113">
+        <v>8</v>
+      </c>
+      <c r="AF113">
+        <v>1.01</v>
+      </c>
+      <c r="AG113">
+        <v>18</v>
+      </c>
+      <c r="AH113">
+        <v>1.11</v>
+      </c>
+      <c r="AI113">
+        <v>6.64</v>
+      </c>
+      <c r="AJ113">
+        <v>1.4</v>
+      </c>
+      <c r="AK113">
+        <v>2.88</v>
+      </c>
+      <c r="AL113">
+        <v>1.73</v>
+      </c>
+      <c r="AM113">
+        <v>2</v>
+      </c>
+      <c r="AN113">
+        <v>1.07</v>
+      </c>
+      <c r="AO113">
+        <v>1.13</v>
+      </c>
+      <c r="AP113">
+        <v>3.5</v>
+      </c>
+      <c r="AQ113">
+        <v>1.14</v>
+      </c>
+      <c r="AR113">
+        <v>0.33</v>
+      </c>
+      <c r="AS113">
+        <v>1</v>
+      </c>
+      <c r="AT113">
+        <v>0.71</v>
+      </c>
+      <c r="AU113">
+        <v>1.99</v>
+      </c>
+      <c r="AV113">
+        <v>1.31</v>
+      </c>
+      <c r="AW113">
+        <v>3.3</v>
+      </c>
+      <c r="AX113">
+        <v>1.22</v>
+      </c>
+      <c r="AY113">
+        <v>10.75</v>
+      </c>
+      <c r="AZ113">
+        <v>5.5</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>0</v>
+      </c>
+      <c r="BC113">
+        <v>2</v>
+      </c>
+      <c r="BD113">
+        <v>1.99</v>
+      </c>
+      <c r="BE113">
+        <v>2.51</v>
+      </c>
+      <c r="BF113">
+        <v>6</v>
+      </c>
+      <c r="BG113">
+        <v>4</v>
+      </c>
+      <c r="BH113">
+        <v>13</v>
+      </c>
+      <c r="BI113">
+        <v>5</v>
+      </c>
+      <c r="BJ113">
+        <v>19</v>
+      </c>
+      <c r="BK113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2593401</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44869.59027777778</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H114" t="s">
+        <v>72</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>165</v>
+      </c>
+      <c r="P114" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q114">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>1</v>
+      </c>
+      <c r="S114">
+        <v>4</v>
+      </c>
+      <c r="T114">
+        <v>2.6</v>
+      </c>
+      <c r="U114">
+        <v>2.2</v>
+      </c>
+      <c r="V114">
+        <v>3.75</v>
+      </c>
+      <c r="W114">
+        <v>1.3</v>
+      </c>
+      <c r="X114">
+        <v>3.4</v>
+      </c>
+      <c r="Y114">
+        <v>2.38</v>
+      </c>
+      <c r="Z114">
+        <v>1.53</v>
+      </c>
+      <c r="AA114">
+        <v>5.5</v>
+      </c>
+      <c r="AB114">
+        <v>1.12</v>
+      </c>
+      <c r="AC114">
+        <v>2</v>
+      </c>
+      <c r="AD114">
+        <v>3.75</v>
+      </c>
+      <c r="AE114">
+        <v>3.5</v>
+      </c>
+      <c r="AF114">
+        <v>1.04</v>
+      </c>
+      <c r="AG114">
+        <v>10</v>
+      </c>
+      <c r="AH114">
+        <v>1.22</v>
+      </c>
+      <c r="AI114">
+        <v>4</v>
+      </c>
+      <c r="AJ114">
+        <v>1.85</v>
+      </c>
+      <c r="AK114">
+        <v>1.95</v>
+      </c>
+      <c r="AL114">
+        <v>1.73</v>
+      </c>
+      <c r="AM114">
+        <v>2</v>
+      </c>
+      <c r="AN114">
+        <v>1.3</v>
+      </c>
+      <c r="AO114">
+        <v>1.25</v>
+      </c>
+      <c r="AP114">
+        <v>1.73</v>
+      </c>
+      <c r="AQ114">
+        <v>1.43</v>
+      </c>
+      <c r="AR114">
+        <v>1.29</v>
+      </c>
+      <c r="AS114">
+        <v>1.63</v>
+      </c>
+      <c r="AT114">
+        <v>1.13</v>
+      </c>
+      <c r="AU114">
+        <v>1.73</v>
+      </c>
+      <c r="AV114">
+        <v>1.63</v>
+      </c>
+      <c r="AW114">
+        <v>3.36</v>
+      </c>
+      <c r="AX114">
+        <v>1.8</v>
+      </c>
+      <c r="AY114">
+        <v>5.75</v>
+      </c>
+      <c r="AZ114">
+        <v>2.35</v>
+      </c>
+      <c r="BA114">
+        <v>1.24</v>
+      </c>
+      <c r="BB114">
+        <v>1.51</v>
+      </c>
+      <c r="BC114">
+        <v>2.1</v>
+      </c>
+      <c r="BD114">
+        <v>2.34</v>
+      </c>
+      <c r="BE114">
+        <v>3.2</v>
+      </c>
+      <c r="BF114">
+        <v>6</v>
+      </c>
+      <c r="BG114">
+        <v>3</v>
+      </c>
+      <c r="BH114">
+        <v>7</v>
+      </c>
+      <c r="BI114">
+        <v>6</v>
+      </c>
+      <c r="BJ114">
+        <v>13</v>
+      </c>
+      <c r="BK114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2593403</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44869.59027777778</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>65</v>
+      </c>
+      <c r="H115" t="s">
+        <v>73</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>4</v>
+      </c>
+      <c r="O115" t="s">
+        <v>166</v>
+      </c>
+      <c r="P115" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q115">
+        <v>4</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>6</v>
+      </c>
+      <c r="T115">
+        <v>2.75</v>
+      </c>
+      <c r="U115">
+        <v>2.25</v>
+      </c>
+      <c r="V115">
+        <v>3.4</v>
+      </c>
+      <c r="W115">
+        <v>1.33</v>
+      </c>
+      <c r="X115">
+        <v>3.25</v>
+      </c>
+      <c r="Y115">
+        <v>2.5</v>
+      </c>
+      <c r="Z115">
+        <v>1.5</v>
+      </c>
+      <c r="AA115">
+        <v>5.5</v>
+      </c>
+      <c r="AB115">
+        <v>1.12</v>
+      </c>
+      <c r="AC115">
+        <v>2.2</v>
+      </c>
+      <c r="AD115">
+        <v>3.75</v>
+      </c>
+      <c r="AE115">
+        <v>3</v>
+      </c>
+      <c r="AF115">
+        <v>1.04</v>
+      </c>
+      <c r="AG115">
+        <v>10</v>
+      </c>
+      <c r="AH115">
+        <v>1.25</v>
+      </c>
+      <c r="AI115">
+        <v>3.75</v>
+      </c>
+      <c r="AJ115">
+        <v>1.7</v>
+      </c>
+      <c r="AK115">
+        <v>2.1</v>
+      </c>
+      <c r="AL115">
+        <v>1.62</v>
+      </c>
+      <c r="AM115">
+        <v>2.2</v>
+      </c>
+      <c r="AN115">
+        <v>1.22</v>
+      </c>
+      <c r="AO115">
+        <v>1.29</v>
+      </c>
+      <c r="AP115">
+        <v>1.85</v>
+      </c>
+      <c r="AQ115">
+        <v>2</v>
+      </c>
+      <c r="AR115">
+        <v>0.86</v>
+      </c>
+      <c r="AS115">
+        <v>1.88</v>
+      </c>
+      <c r="AT115">
+        <v>0.88</v>
+      </c>
+      <c r="AU115">
+        <v>1.49</v>
+      </c>
+      <c r="AV115">
+        <v>1.38</v>
+      </c>
+      <c r="AW115">
+        <v>2.87</v>
+      </c>
+      <c r="AX115">
+        <v>1.44</v>
+      </c>
+      <c r="AY115">
+        <v>6.5</v>
+      </c>
+      <c r="AZ115">
+        <v>3.3</v>
+      </c>
+      <c r="BA115">
+        <v>1.21</v>
+      </c>
+      <c r="BB115">
+        <v>1.35</v>
+      </c>
+      <c r="BC115">
+        <v>2.38</v>
+      </c>
+      <c r="BD115">
+        <v>2.09</v>
+      </c>
+      <c r="BE115">
+        <v>2.76</v>
+      </c>
+      <c r="BF115">
+        <v>4</v>
+      </c>
+      <c r="BG115">
+        <v>7</v>
+      </c>
+      <c r="BH115">
+        <v>7</v>
+      </c>
+      <c r="BI115">
+        <v>8</v>
+      </c>
+      <c r="BJ115">
+        <v>11</v>
+      </c>
+      <c r="BK115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2593396</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44869.59027777778</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>68</v>
+      </c>
+      <c r="H116" t="s">
+        <v>78</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116" t="s">
+        <v>87</v>
+      </c>
+      <c r="P116" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>3</v>
+      </c>
+      <c r="S116">
+        <v>6</v>
+      </c>
+      <c r="T116">
+        <v>4</v>
+      </c>
+      <c r="U116">
+        <v>2.3</v>
+      </c>
+      <c r="V116">
+        <v>2.4</v>
+      </c>
+      <c r="W116">
+        <v>1.33</v>
+      </c>
+      <c r="X116">
+        <v>3.25</v>
+      </c>
+      <c r="Y116">
+        <v>2.5</v>
+      </c>
+      <c r="Z116">
+        <v>1.5</v>
+      </c>
+      <c r="AA116">
+        <v>6</v>
+      </c>
+      <c r="AB116">
+        <v>1.11</v>
+      </c>
+      <c r="AC116">
+        <v>4</v>
+      </c>
+      <c r="AD116">
+        <v>3.75</v>
+      </c>
+      <c r="AE116">
+        <v>1.85</v>
+      </c>
+      <c r="AF116">
+        <v>1.05</v>
+      </c>
+      <c r="AG116">
+        <v>9</v>
+      </c>
+      <c r="AH116">
+        <v>1.25</v>
+      </c>
+      <c r="AI116">
+        <v>3.75</v>
+      </c>
+      <c r="AJ116">
+        <v>1.73</v>
+      </c>
+      <c r="AK116">
+        <v>2.08</v>
+      </c>
+      <c r="AL116">
+        <v>1.62</v>
+      </c>
+      <c r="AM116">
+        <v>2.2</v>
+      </c>
+      <c r="AN116">
+        <v>1.75</v>
+      </c>
+      <c r="AO116">
+        <v>1.29</v>
+      </c>
+      <c r="AP116">
+        <v>1.25</v>
+      </c>
+      <c r="AQ116">
+        <v>1.14</v>
+      </c>
+      <c r="AR116">
+        <v>1.86</v>
+      </c>
+      <c r="AS116">
+        <v>1.13</v>
+      </c>
+      <c r="AT116">
+        <v>1.75</v>
+      </c>
+      <c r="AU116">
+        <v>1.81</v>
+      </c>
+      <c r="AV116">
+        <v>1.39</v>
+      </c>
+      <c r="AW116">
+        <v>3.2</v>
+      </c>
+      <c r="AX116">
+        <v>2.45</v>
+      </c>
+      <c r="AY116">
+        <v>6</v>
+      </c>
+      <c r="AZ116">
+        <v>1.71</v>
+      </c>
+      <c r="BA116">
+        <v>1.21</v>
+      </c>
+      <c r="BB116">
+        <v>1.42</v>
+      </c>
+      <c r="BC116">
+        <v>2.2</v>
+      </c>
+      <c r="BD116">
+        <v>2.2</v>
+      </c>
+      <c r="BE116">
+        <v>2.98</v>
+      </c>
+      <c r="BF116">
+        <v>4</v>
+      </c>
+      <c r="BG116">
+        <v>3</v>
+      </c>
+      <c r="BH116">
+        <v>8</v>
+      </c>
+      <c r="BI116">
+        <v>3</v>
+      </c>
+      <c r="BJ116">
+        <v>12</v>
+      </c>
+      <c r="BK116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2593402</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44869.6875</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>77</v>
+      </c>
+      <c r="H117" t="s">
+        <v>76</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>4</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117" t="s">
+        <v>87</v>
+      </c>
+      <c r="P117" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q117">
+        <v>5</v>
+      </c>
+      <c r="R117">
+        <v>6</v>
+      </c>
+      <c r="S117">
+        <v>11</v>
+      </c>
+      <c r="T117">
+        <v>4.75</v>
+      </c>
+      <c r="U117">
+        <v>2.3</v>
+      </c>
+      <c r="V117">
+        <v>2.1</v>
+      </c>
+      <c r="W117">
+        <v>1.33</v>
+      </c>
+      <c r="X117">
+        <v>3.25</v>
+      </c>
+      <c r="Y117">
+        <v>2.5</v>
+      </c>
+      <c r="Z117">
+        <v>1.5</v>
+      </c>
+      <c r="AA117">
+        <v>5.5</v>
+      </c>
+      <c r="AB117">
+        <v>1.12</v>
+      </c>
+      <c r="AC117">
+        <v>5</v>
+      </c>
+      <c r="AD117">
+        <v>4.2</v>
+      </c>
+      <c r="AE117">
+        <v>1.65</v>
+      </c>
+      <c r="AF117">
+        <v>1.04</v>
+      </c>
+      <c r="AG117">
+        <v>10</v>
+      </c>
+      <c r="AH117">
+        <v>1.22</v>
+      </c>
+      <c r="AI117">
+        <v>4</v>
+      </c>
+      <c r="AJ117">
+        <v>1.67</v>
+      </c>
+      <c r="AK117">
+        <v>2.15</v>
+      </c>
+      <c r="AL117">
+        <v>1.73</v>
+      </c>
+      <c r="AM117">
+        <v>2</v>
+      </c>
+      <c r="AN117">
+        <v>1.91</v>
+      </c>
+      <c r="AO117">
+        <v>1.25</v>
+      </c>
+      <c r="AP117">
+        <v>1.22</v>
+      </c>
+      <c r="AQ117">
+        <v>2.29</v>
+      </c>
+      <c r="AR117">
+        <v>1.29</v>
+      </c>
+      <c r="AS117">
+        <v>2</v>
+      </c>
+      <c r="AT117">
+        <v>1.5</v>
+      </c>
+      <c r="AU117">
+        <v>1.53</v>
+      </c>
+      <c r="AV117">
+        <v>1.95</v>
+      </c>
+      <c r="AW117">
+        <v>3.48</v>
+      </c>
+      <c r="AX117">
+        <v>3.2</v>
+      </c>
+      <c r="AY117">
+        <v>8.1</v>
+      </c>
+      <c r="AZ117">
+        <v>1.52</v>
+      </c>
+      <c r="BA117">
+        <v>1.23</v>
+      </c>
+      <c r="BB117">
+        <v>1.5</v>
+      </c>
+      <c r="BC117">
+        <v>2.2</v>
+      </c>
+      <c r="BD117">
+        <v>2.27</v>
+      </c>
+      <c r="BE117">
+        <v>3.08</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>10</v>
+      </c>
+      <c r="BH117">
+        <v>7</v>
+      </c>
+      <c r="BI117">
+        <v>10</v>
+      </c>
+      <c r="BJ117">
+        <v>7</v>
+      </c>
+      <c r="BK117">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,36 @@
     <t>['57', '79']</t>
   </si>
   <si>
+    <t>['32', '90+3']</t>
+  </si>
+  <si>
+    <t>['14', '70', '73']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['14', '53']</t>
+  </si>
+  <si>
+    <t>['20', '31']</t>
+  </si>
+  <si>
+    <t>['31', '45', '49', '51', '70']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['18', '46', '85']</t>
+  </si>
+  <si>
+    <t>['13', '30', '78']</t>
+  </si>
+  <si>
+    <t>['6', '40']</t>
+  </si>
+  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -551,9 +581,6 @@
   </si>
   <si>
     <t>['59']</t>
-  </si>
-  <si>
-    <t>['33']</t>
   </si>
   <si>
     <t>['21', '74', '79', '90+5']</t>
@@ -608,9 +635,6 @@
   </si>
   <si>
     <t>['53']</t>
-  </si>
-  <si>
-    <t>['52']</t>
   </si>
   <si>
     <t>['18']</t>
@@ -704,6 +728,21 @@
   </si>
   <si>
     <t>['14', '52', '54', '85']</t>
+  </si>
+  <si>
+    <t>['11', '65']</t>
+  </si>
+  <si>
+    <t>['27', '80', '90+1']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['83', '86']</t>
+  </si>
+  <si>
+    <t>['6', '14', '21', '51']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,7 +1539,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1587,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT3">
         <v>0.88</v>
@@ -1691,7 +1730,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1778,10 +1817,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT4">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1882,7 +1921,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -1972,7 +2011,7 @@
         <v>1.13</v>
       </c>
       <c r="AT5">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2160,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2354,7 +2393,7 @@
         <v>1.63</v>
       </c>
       <c r="AT7">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2542,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
         <v>1.75</v>
@@ -2646,7 +2685,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2733,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT9">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2837,7 +2876,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2924,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT10">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3028,7 +3067,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3115,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT11">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3306,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3410,7 +3449,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3497,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT13">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3601,7 +3640,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3792,7 +3831,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3879,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT15">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4174,7 +4213,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4261,10 +4300,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT17">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4365,7 +4404,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4455,7 +4494,7 @@
         <v>1.13</v>
       </c>
       <c r="AT18">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU18">
         <v>1.74</v>
@@ -4556,7 +4595,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4643,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU19">
         <v>1.54</v>
@@ -4747,7 +4786,7 @@
         <v>97</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4834,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT20">
         <v>1.5</v>
@@ -5028,7 +5067,7 @@
         <v>1.88</v>
       </c>
       <c r="AT21">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU21">
         <v>0.8100000000000001</v>
@@ -5129,7 +5168,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5216,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT22">
         <v>1.75</v>
@@ -5407,10 +5446,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT23">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU23">
         <v>1.4</v>
@@ -5598,10 +5637,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT24">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>1.45</v>
@@ -5893,7 +5932,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -5983,7 +6022,7 @@
         <v>2</v>
       </c>
       <c r="AT26">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU26">
         <v>1.7</v>
@@ -6084,7 +6123,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6171,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT27">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU27">
         <v>1.24</v>
@@ -6275,7 +6314,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6365,7 +6404,7 @@
         <v>1.63</v>
       </c>
       <c r="AT28">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU28">
         <v>2.89</v>
@@ -6466,7 +6505,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6553,10 +6592,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT29">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6657,7 +6696,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6744,10 +6783,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU30">
         <v>0.91</v>
@@ -6848,7 +6887,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6935,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -7039,7 +7078,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7126,10 +7165,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT32">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU32">
         <v>1.08</v>
@@ -7230,7 +7269,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7317,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT33">
         <v>1.13</v>
@@ -7421,7 +7460,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7699,10 +7738,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU35">
         <v>1.69</v>
@@ -7893,7 +7932,7 @@
         <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU36">
         <v>2.23</v>
@@ -7994,7 +8033,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8081,7 +8120,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT37">
         <v>1.75</v>
@@ -8185,7 +8224,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8275,7 +8314,7 @@
         <v>1.88</v>
       </c>
       <c r="AT38">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU38">
         <v>0.97</v>
@@ -8376,7 +8415,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8463,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU39">
         <v>1.49</v>
@@ -8567,7 +8606,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8845,7 +8884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -8949,7 +8988,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9036,10 +9075,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT42">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU42">
         <v>1.72</v>
@@ -9230,7 +9269,7 @@
         <v>1.13</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU43">
         <v>2.14</v>
@@ -9331,7 +9370,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9418,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT44">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU44">
         <v>1.3</v>
@@ -9522,7 +9561,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9609,10 +9648,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT45">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU45">
         <v>1.66</v>
@@ -9803,7 +9842,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU46">
         <v>1.71</v>
@@ -9991,10 +10030,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT47">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU47">
         <v>1.05</v>
@@ -10095,7 +10134,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10182,7 +10221,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT48">
         <v>1.13</v>
@@ -10286,7 +10325,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10373,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT49">
         <v>0.88</v>
@@ -10564,10 +10603,10 @@
         <v>1.67</v>
       </c>
       <c r="AS50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT50">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU50">
         <v>1.66</v>
@@ -10668,7 +10707,7 @@
         <v>123</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -10755,10 +10794,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT51">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU51">
         <v>1.59</v>
@@ -10946,10 +10985,10 @@
         <v>0.67</v>
       </c>
       <c r="AS52">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT52">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU52">
         <v>1.4</v>
@@ -11137,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT53">
         <v>1.5</v>
@@ -11241,7 +11280,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11328,10 +11367,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT54">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU54">
         <v>1.09</v>
@@ -11432,7 +11471,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>13</v>
@@ -11522,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU55">
         <v>1.94</v>
@@ -11623,7 +11662,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11814,7 +11853,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11901,7 +11940,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT57">
         <v>1</v>
@@ -12092,10 +12131,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT58">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU58">
         <v>1.21</v>
@@ -12196,7 +12235,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12286,7 +12325,7 @@
         <v>2</v>
       </c>
       <c r="AT59">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU59">
         <v>1.48</v>
@@ -12477,7 +12516,7 @@
         <v>1.13</v>
       </c>
       <c r="AT60">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU60">
         <v>1.96</v>
@@ -12665,7 +12704,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT61">
         <v>1.13</v>
@@ -12769,7 +12808,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12856,7 +12895,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT62">
         <v>0.88</v>
@@ -12960,7 +12999,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13047,10 +13086,10 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU63">
         <v>1.81</v>
@@ -13238,10 +13277,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU64">
         <v>1.72</v>
@@ -13432,7 +13471,7 @@
         <v>1.88</v>
       </c>
       <c r="AT65">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU65">
         <v>1.21</v>
@@ -13620,10 +13659,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU66">
         <v>1.56</v>
@@ -13724,7 +13763,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13811,10 +13850,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT67">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU67">
         <v>1.83</v>
@@ -13915,7 +13954,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>12</v>
@@ -14002,10 +14041,10 @@
         <v>1.25</v>
       </c>
       <c r="AS68">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT68">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU68">
         <v>1.53</v>
@@ -14106,7 +14145,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14193,10 +14232,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT69">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU69">
         <v>1.63</v>
@@ -14384,10 +14423,10 @@
         <v>0.25</v>
       </c>
       <c r="AS70">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT70">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU70">
         <v>1.71</v>
@@ -14575,7 +14614,7 @@
         <v>1.25</v>
       </c>
       <c r="AS71">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -14679,7 +14718,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14766,10 +14805,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT72">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU72">
         <v>1.86</v>
@@ -15151,7 +15190,7 @@
         <v>1.88</v>
       </c>
       <c r="AT74">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU74">
         <v>1.43</v>
@@ -15339,10 +15378,10 @@
         <v>0.75</v>
       </c>
       <c r="AS75">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT75">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU75">
         <v>1.45</v>
@@ -15443,7 +15482,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15530,10 +15569,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU76">
         <v>1.34</v>
@@ -15634,7 +15673,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15724,7 +15763,7 @@
         <v>1.63</v>
       </c>
       <c r="AT77">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU77">
         <v>1.92</v>
@@ -15825,7 +15864,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -15912,10 +15951,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT78">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU78">
         <v>1.72</v>
@@ -16016,7 +16055,7 @@
         <v>87</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16103,7 +16142,7 @@
         <v>0.75</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT79">
         <v>1.13</v>
@@ -16297,7 +16336,7 @@
         <v>2</v>
       </c>
       <c r="AT80">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU80">
         <v>1.37</v>
@@ -16485,7 +16524,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT81">
         <v>1.5</v>
@@ -16780,7 +16819,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16867,7 +16906,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT83">
         <v>1.13</v>
@@ -16971,7 +17010,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17058,10 +17097,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT84">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU84">
         <v>1.27</v>
@@ -17162,7 +17201,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17249,7 +17288,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT85">
         <v>0.88</v>
@@ -17353,7 +17392,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17440,7 +17479,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT86">
         <v>1.5</v>
@@ -17544,7 +17583,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17631,7 +17670,7 @@
         <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT87">
         <v>1.75</v>
@@ -17735,7 +17774,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17825,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="AT88">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU88">
         <v>1.91</v>
@@ -18013,10 +18052,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT89">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU89">
         <v>1.6</v>
@@ -18117,7 +18156,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18204,10 +18243,10 @@
         <v>0.2</v>
       </c>
       <c r="AS90">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT90">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU90">
         <v>1.49</v>
@@ -18586,10 +18625,10 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -18690,7 +18729,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18777,10 +18816,10 @@
         <v>0.2</v>
       </c>
       <c r="AS93">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT93">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU93">
         <v>1.5</v>
@@ -18968,10 +19007,10 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT94">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU94">
         <v>1.92</v>
@@ -19162,7 +19201,7 @@
         <v>2</v>
       </c>
       <c r="AT95">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU95">
         <v>1.34</v>
@@ -19263,7 +19302,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19353,7 +19392,7 @@
         <v>1.88</v>
       </c>
       <c r="AT96">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU96">
         <v>1.47</v>
@@ -19544,7 +19583,7 @@
         <v>1</v>
       </c>
       <c r="AT97">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU97">
         <v>1.92</v>
@@ -19645,7 +19684,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19732,7 +19771,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT98">
         <v>0.88</v>
@@ -19836,7 +19875,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -19926,7 +19965,7 @@
         <v>1.13</v>
       </c>
       <c r="AT99">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU99">
         <v>1.84</v>
@@ -20114,7 +20153,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AT100">
         <v>1.13</v>
@@ -20305,10 +20344,10 @@
         <v>1.4</v>
       </c>
       <c r="AS101">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AU101">
         <v>1.51</v>
@@ -20409,7 +20448,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20496,10 +20535,10 @@
         <v>2.17</v>
       </c>
       <c r="AS102">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT102">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU102">
         <v>1.58</v>
@@ -20600,7 +20639,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20687,7 +20726,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AT103">
         <v>1.5</v>
@@ -20878,10 +20917,10 @@
         <v>1.83</v>
       </c>
       <c r="AS104">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT104">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU104">
         <v>1.59</v>
@@ -21173,7 +21212,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21260,7 +21299,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT106">
         <v>1</v>
@@ -21454,7 +21493,7 @@
         <v>1.63</v>
       </c>
       <c r="AT107">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU107">
         <v>1.77</v>
@@ -21645,7 +21684,7 @@
         <v>1.88</v>
       </c>
       <c r="AT108">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AU108">
         <v>1.43</v>
@@ -21833,10 +21872,10 @@
         <v>0.67</v>
       </c>
       <c r="AS109">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT109">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU109">
         <v>2.04</v>
@@ -21937,7 +21976,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22024,10 +22063,10 @@
         <v>1.17</v>
       </c>
       <c r="AS110">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT110">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU110">
         <v>1.48</v>
@@ -22128,7 +22167,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22215,10 +22254,10 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT111">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU111">
         <v>1.57</v>
@@ -22319,7 +22358,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22406,10 +22445,10 @@
         <v>2.17</v>
       </c>
       <c r="AS112">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT112">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU112">
         <v>1.39</v>
@@ -22510,7 +22549,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22600,7 +22639,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -22701,7 +22740,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22892,7 +22931,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23274,7 +23313,7 @@
         <v>87</v>
       </c>
       <c r="P117" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23416,6 +23455,2298 @@
       </c>
       <c r="BK117">
         <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2593399</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44870.4375</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>71</v>
+      </c>
+      <c r="H118" t="s">
+        <v>74</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>167</v>
+      </c>
+      <c r="P118" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+      <c r="S118">
+        <v>8</v>
+      </c>
+      <c r="T118">
+        <v>2.1</v>
+      </c>
+      <c r="U118">
+        <v>2.4</v>
+      </c>
+      <c r="V118">
+        <v>4.75</v>
+      </c>
+      <c r="W118">
+        <v>1.3</v>
+      </c>
+      <c r="X118">
+        <v>3.4</v>
+      </c>
+      <c r="Y118">
+        <v>2.5</v>
+      </c>
+      <c r="Z118">
+        <v>1.5</v>
+      </c>
+      <c r="AA118">
+        <v>6</v>
+      </c>
+      <c r="AB118">
+        <v>1.13</v>
+      </c>
+      <c r="AC118">
+        <v>1.62</v>
+      </c>
+      <c r="AD118">
+        <v>4.33</v>
+      </c>
+      <c r="AE118">
+        <v>4.5</v>
+      </c>
+      <c r="AF118">
+        <v>1.03</v>
+      </c>
+      <c r="AG118">
+        <v>11</v>
+      </c>
+      <c r="AH118">
+        <v>1.18</v>
+      </c>
+      <c r="AI118">
+        <v>4.3</v>
+      </c>
+      <c r="AJ118">
+        <v>1.6</v>
+      </c>
+      <c r="AK118">
+        <v>2.3</v>
+      </c>
+      <c r="AL118">
+        <v>1.67</v>
+      </c>
+      <c r="AM118">
+        <v>2.1</v>
+      </c>
+      <c r="AN118">
+        <v>1.12</v>
+      </c>
+      <c r="AO118">
+        <v>1.18</v>
+      </c>
+      <c r="AP118">
+        <v>2.3</v>
+      </c>
+      <c r="AQ118">
+        <v>2.33</v>
+      </c>
+      <c r="AR118">
+        <v>1.43</v>
+      </c>
+      <c r="AS118">
+        <v>2.5</v>
+      </c>
+      <c r="AT118">
+        <v>1.25</v>
+      </c>
+      <c r="AU118">
+        <v>1.54</v>
+      </c>
+      <c r="AV118">
+        <v>1.37</v>
+      </c>
+      <c r="AW118">
+        <v>2.91</v>
+      </c>
+      <c r="AX118">
+        <v>1.23</v>
+      </c>
+      <c r="AY118">
+        <v>7.75</v>
+      </c>
+      <c r="AZ118">
+        <v>5</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>1.27</v>
+      </c>
+      <c r="BC118">
+        <v>1.91</v>
+      </c>
+      <c r="BD118">
+        <v>1.93</v>
+      </c>
+      <c r="BE118">
+        <v>2.38</v>
+      </c>
+      <c r="BF118">
+        <v>5</v>
+      </c>
+      <c r="BG118">
+        <v>2</v>
+      </c>
+      <c r="BH118">
+        <v>10</v>
+      </c>
+      <c r="BI118">
+        <v>4</v>
+      </c>
+      <c r="BJ118">
+        <v>15</v>
+      </c>
+      <c r="BK118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2593400</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44870.4375</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>75</v>
+      </c>
+      <c r="H119" t="s">
+        <v>80</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119" t="s">
+        <v>168</v>
+      </c>
+      <c r="P119" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>12</v>
+      </c>
+      <c r="S119">
+        <v>15</v>
+      </c>
+      <c r="T119">
+        <v>3.75</v>
+      </c>
+      <c r="U119">
+        <v>2.5</v>
+      </c>
+      <c r="V119">
+        <v>2.3</v>
+      </c>
+      <c r="W119">
+        <v>1.28</v>
+      </c>
+      <c r="X119">
+        <v>3.4</v>
+      </c>
+      <c r="Y119">
+        <v>2.24</v>
+      </c>
+      <c r="Z119">
+        <v>1.59</v>
+      </c>
+      <c r="AA119">
+        <v>4.95</v>
+      </c>
+      <c r="AB119">
+        <v>1.14</v>
+      </c>
+      <c r="AC119">
+        <v>4</v>
+      </c>
+      <c r="AD119">
+        <v>4</v>
+      </c>
+      <c r="AE119">
+        <v>1.83</v>
+      </c>
+      <c r="AF119">
+        <v>1.03</v>
+      </c>
+      <c r="AG119">
+        <v>11</v>
+      </c>
+      <c r="AH119">
+        <v>1.18</v>
+      </c>
+      <c r="AI119">
+        <v>4.5</v>
+      </c>
+      <c r="AJ119">
+        <v>1.5</v>
+      </c>
+      <c r="AK119">
+        <v>2.5</v>
+      </c>
+      <c r="AL119">
+        <v>1.5</v>
+      </c>
+      <c r="AM119">
+        <v>2.5</v>
+      </c>
+      <c r="AN119">
+        <v>2</v>
+      </c>
+      <c r="AO119">
+        <v>1.2</v>
+      </c>
+      <c r="AP119">
+        <v>1.22</v>
+      </c>
+      <c r="AQ119">
+        <v>0.14</v>
+      </c>
+      <c r="AR119">
+        <v>0.57</v>
+      </c>
+      <c r="AS119">
+        <v>0.5</v>
+      </c>
+      <c r="AT119">
+        <v>0.5</v>
+      </c>
+      <c r="AU119">
+        <v>1.28</v>
+      </c>
+      <c r="AV119">
+        <v>1.53</v>
+      </c>
+      <c r="AW119">
+        <v>2.81</v>
+      </c>
+      <c r="AX119">
+        <v>3.05</v>
+      </c>
+      <c r="AY119">
+        <v>6.5</v>
+      </c>
+      <c r="AZ119">
+        <v>1.48</v>
+      </c>
+      <c r="BA119">
+        <v>1.21</v>
+      </c>
+      <c r="BB119">
+        <v>1.36</v>
+      </c>
+      <c r="BC119">
+        <v>1.91</v>
+      </c>
+      <c r="BD119">
+        <v>2.18</v>
+      </c>
+      <c r="BE119">
+        <v>2.72</v>
+      </c>
+      <c r="BF119">
+        <v>5</v>
+      </c>
+      <c r="BG119">
+        <v>6</v>
+      </c>
+      <c r="BH119">
+        <v>4</v>
+      </c>
+      <c r="BI119">
+        <v>7</v>
+      </c>
+      <c r="BJ119">
+        <v>9</v>
+      </c>
+      <c r="BK119">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2593397</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44870.4375</v>
+      </c>
+      <c r="F120">
+        <v>15</v>
+      </c>
+      <c r="G120" t="s">
+        <v>66</v>
+      </c>
+      <c r="H120" t="s">
+        <v>79</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>169</v>
+      </c>
+      <c r="P120" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q120">
+        <v>8</v>
+      </c>
+      <c r="R120">
+        <v>5</v>
+      </c>
+      <c r="S120">
+        <v>13</v>
+      </c>
+      <c r="T120">
+        <v>4.33</v>
+      </c>
+      <c r="U120">
+        <v>2.3</v>
+      </c>
+      <c r="V120">
+        <v>2.2</v>
+      </c>
+      <c r="W120">
+        <v>1.3</v>
+      </c>
+      <c r="X120">
+        <v>3.4</v>
+      </c>
+      <c r="Y120">
+        <v>2.5</v>
+      </c>
+      <c r="Z120">
+        <v>1.5</v>
+      </c>
+      <c r="AA120">
+        <v>6</v>
+      </c>
+      <c r="AB120">
+        <v>1.13</v>
+      </c>
+      <c r="AC120">
+        <v>4.5</v>
+      </c>
+      <c r="AD120">
+        <v>4</v>
+      </c>
+      <c r="AE120">
+        <v>1.7</v>
+      </c>
+      <c r="AF120">
+        <v>1.02</v>
+      </c>
+      <c r="AG120">
+        <v>18</v>
+      </c>
+      <c r="AH120">
+        <v>1.2</v>
+      </c>
+      <c r="AI120">
+        <v>4</v>
+      </c>
+      <c r="AJ120">
+        <v>1.65</v>
+      </c>
+      <c r="AK120">
+        <v>2.2</v>
+      </c>
+      <c r="AL120">
+        <v>1.67</v>
+      </c>
+      <c r="AM120">
+        <v>2.1</v>
+      </c>
+      <c r="AN120">
+        <v>2.1</v>
+      </c>
+      <c r="AO120">
+        <v>1.25</v>
+      </c>
+      <c r="AP120">
+        <v>1.22</v>
+      </c>
+      <c r="AQ120">
+        <v>1.57</v>
+      </c>
+      <c r="AR120">
+        <v>1.17</v>
+      </c>
+      <c r="AS120">
+        <v>1.38</v>
+      </c>
+      <c r="AT120">
+        <v>1.25</v>
+      </c>
+      <c r="AU120">
+        <v>1.33</v>
+      </c>
+      <c r="AV120">
+        <v>1.88</v>
+      </c>
+      <c r="AW120">
+        <v>3.21</v>
+      </c>
+      <c r="AX120">
+        <v>3.35</v>
+      </c>
+      <c r="AY120">
+        <v>6.5</v>
+      </c>
+      <c r="AZ120">
+        <v>1.43</v>
+      </c>
+      <c r="BA120">
+        <v>1.21</v>
+      </c>
+      <c r="BB120">
+        <v>1.41</v>
+      </c>
+      <c r="BC120">
+        <v>2.1</v>
+      </c>
+      <c r="BD120">
+        <v>2.16</v>
+      </c>
+      <c r="BE120">
+        <v>2.79</v>
+      </c>
+      <c r="BF120">
+        <v>4</v>
+      </c>
+      <c r="BG120">
+        <v>5</v>
+      </c>
+      <c r="BH120">
+        <v>7</v>
+      </c>
+      <c r="BI120">
+        <v>5</v>
+      </c>
+      <c r="BJ120">
+        <v>11</v>
+      </c>
+      <c r="BK120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2593398</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44871.27083333334</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>67</v>
+      </c>
+      <c r="H121" t="s">
+        <v>69</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>170</v>
+      </c>
+      <c r="P121" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q121">
+        <v>6</v>
+      </c>
+      <c r="R121">
+        <v>5</v>
+      </c>
+      <c r="S121">
+        <v>11</v>
+      </c>
+      <c r="T121">
+        <v>2.75</v>
+      </c>
+      <c r="U121">
+        <v>2.25</v>
+      </c>
+      <c r="V121">
+        <v>3.2</v>
+      </c>
+      <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>3.25</v>
+      </c>
+      <c r="Y121">
+        <v>2.5</v>
+      </c>
+      <c r="Z121">
+        <v>1.5</v>
+      </c>
+      <c r="AA121">
+        <v>6</v>
+      </c>
+      <c r="AB121">
+        <v>1.13</v>
+      </c>
+      <c r="AC121">
+        <v>2.17</v>
+      </c>
+      <c r="AD121">
+        <v>3.28</v>
+      </c>
+      <c r="AE121">
+        <v>2.82</v>
+      </c>
+      <c r="AF121">
+        <v>1.04</v>
+      </c>
+      <c r="AG121">
+        <v>10</v>
+      </c>
+      <c r="AH121">
+        <v>1.2</v>
+      </c>
+      <c r="AI121">
+        <v>4.2</v>
+      </c>
+      <c r="AJ121">
+        <v>1.6</v>
+      </c>
+      <c r="AK121">
+        <v>2.2</v>
+      </c>
+      <c r="AL121">
+        <v>1.57</v>
+      </c>
+      <c r="AM121">
+        <v>2.25</v>
+      </c>
+      <c r="AN121">
+        <v>1.35</v>
+      </c>
+      <c r="AO121">
+        <v>1.25</v>
+      </c>
+      <c r="AP121">
+        <v>1.57</v>
+      </c>
+      <c r="AQ121">
+        <v>1.86</v>
+      </c>
+      <c r="AR121">
+        <v>1.86</v>
+      </c>
+      <c r="AS121">
+        <v>2</v>
+      </c>
+      <c r="AT121">
+        <v>1.63</v>
+      </c>
+      <c r="AU121">
+        <v>1.55</v>
+      </c>
+      <c r="AV121">
+        <v>1.69</v>
+      </c>
+      <c r="AW121">
+        <v>3.24</v>
+      </c>
+      <c r="AX121">
+        <v>1.71</v>
+      </c>
+      <c r="AY121">
+        <v>6</v>
+      </c>
+      <c r="AZ121">
+        <v>2.4</v>
+      </c>
+      <c r="BA121">
+        <v>1.17</v>
+      </c>
+      <c r="BB121">
+        <v>1.3</v>
+      </c>
+      <c r="BC121">
+        <v>1.6</v>
+      </c>
+      <c r="BD121">
+        <v>1.96</v>
+      </c>
+      <c r="BE121">
+        <v>2.43</v>
+      </c>
+      <c r="BF121">
+        <v>7</v>
+      </c>
+      <c r="BG121">
+        <v>3</v>
+      </c>
+      <c r="BH121">
+        <v>7</v>
+      </c>
+      <c r="BI121">
+        <v>1</v>
+      </c>
+      <c r="BJ121">
+        <v>14</v>
+      </c>
+      <c r="BK121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2593409</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44876.59027777778</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" t="s">
+        <v>67</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>171</v>
+      </c>
+      <c r="P122" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q122">
+        <v>7</v>
+      </c>
+      <c r="R122">
+        <v>7</v>
+      </c>
+      <c r="S122">
+        <v>14</v>
+      </c>
+      <c r="T122">
+        <v>3.25</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>3.25</v>
+      </c>
+      <c r="W122">
+        <v>1.37</v>
+      </c>
+      <c r="X122">
+        <v>2.85</v>
+      </c>
+      <c r="Y122">
+        <v>2.65</v>
+      </c>
+      <c r="Z122">
+        <v>1.42</v>
+      </c>
+      <c r="AA122">
+        <v>6.45</v>
+      </c>
+      <c r="AB122">
+        <v>1.09</v>
+      </c>
+      <c r="AC122">
+        <v>2.63</v>
+      </c>
+      <c r="AD122">
+        <v>3.25</v>
+      </c>
+      <c r="AE122">
+        <v>2.7</v>
+      </c>
+      <c r="AF122">
+        <v>1.05</v>
+      </c>
+      <c r="AG122">
+        <v>9</v>
+      </c>
+      <c r="AH122">
+        <v>1.25</v>
+      </c>
+      <c r="AI122">
+        <v>3.6</v>
+      </c>
+      <c r="AJ122">
+        <v>2.15</v>
+      </c>
+      <c r="AK122">
+        <v>1.67</v>
+      </c>
+      <c r="AL122">
+        <v>1.91</v>
+      </c>
+      <c r="AM122">
+        <v>1.8</v>
+      </c>
+      <c r="AN122">
+        <v>1.3</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>1.63</v>
+      </c>
+      <c r="AQ122">
+        <v>1.43</v>
+      </c>
+      <c r="AR122">
+        <v>2</v>
+      </c>
+      <c r="AS122">
+        <v>1.63</v>
+      </c>
+      <c r="AT122">
+        <v>1.75</v>
+      </c>
+      <c r="AU122">
+        <v>1.5</v>
+      </c>
+      <c r="AV122">
+        <v>1.75</v>
+      </c>
+      <c r="AW122">
+        <v>3.25</v>
+      </c>
+      <c r="AX122">
+        <v>1.76</v>
+      </c>
+      <c r="AY122">
+        <v>7.7</v>
+      </c>
+      <c r="AZ122">
+        <v>2.53</v>
+      </c>
+      <c r="BA122">
+        <v>1.21</v>
+      </c>
+      <c r="BB122">
+        <v>1.42</v>
+      </c>
+      <c r="BC122">
+        <v>2.38</v>
+      </c>
+      <c r="BD122">
+        <v>2.23</v>
+      </c>
+      <c r="BE122">
+        <v>2.98</v>
+      </c>
+      <c r="BF122">
+        <v>6</v>
+      </c>
+      <c r="BG122">
+        <v>5</v>
+      </c>
+      <c r="BH122">
+        <v>4</v>
+      </c>
+      <c r="BI122">
+        <v>5</v>
+      </c>
+      <c r="BJ122">
+        <v>10</v>
+      </c>
+      <c r="BK122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2593408</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44876.59027777778</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>74</v>
+      </c>
+      <c r="H123" t="s">
+        <v>66</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>87</v>
+      </c>
+      <c r="P123" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q123">
+        <v>7</v>
+      </c>
+      <c r="R123">
+        <v>6</v>
+      </c>
+      <c r="S123">
+        <v>13</v>
+      </c>
+      <c r="T123">
+        <v>2.63</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>3.75</v>
+      </c>
+      <c r="W123">
+        <v>1.32</v>
+      </c>
+      <c r="X123">
+        <v>3.15</v>
+      </c>
+      <c r="Y123">
+        <v>2.45</v>
+      </c>
+      <c r="Z123">
+        <v>1.49</v>
+      </c>
+      <c r="AA123">
+        <v>5.45</v>
+      </c>
+      <c r="AB123">
+        <v>1.12</v>
+      </c>
+      <c r="AC123">
+        <v>2.05</v>
+      </c>
+      <c r="AD123">
+        <v>4</v>
+      </c>
+      <c r="AE123">
+        <v>3.2</v>
+      </c>
+      <c r="AF123">
+        <v>1.04</v>
+      </c>
+      <c r="AG123">
+        <v>10</v>
+      </c>
+      <c r="AH123">
+        <v>1.22</v>
+      </c>
+      <c r="AI123">
+        <v>4</v>
+      </c>
+      <c r="AJ123">
+        <v>1.75</v>
+      </c>
+      <c r="AK123">
+        <v>2.05</v>
+      </c>
+      <c r="AL123">
+        <v>1.73</v>
+      </c>
+      <c r="AM123">
+        <v>2</v>
+      </c>
+      <c r="AN123">
+        <v>1.33</v>
+      </c>
+      <c r="AO123">
+        <v>1.22</v>
+      </c>
+      <c r="AP123">
+        <v>1.65</v>
+      </c>
+      <c r="AQ123">
+        <v>1.43</v>
+      </c>
+      <c r="AR123">
+        <v>0.29</v>
+      </c>
+      <c r="AS123">
+        <v>1.25</v>
+      </c>
+      <c r="AT123">
+        <v>0.63</v>
+      </c>
+      <c r="AU123">
+        <v>1.49</v>
+      </c>
+      <c r="AV123">
+        <v>1.3</v>
+      </c>
+      <c r="AW123">
+        <v>2.79</v>
+      </c>
+      <c r="AX123">
+        <v>2.05</v>
+      </c>
+      <c r="AY123">
+        <v>5.75</v>
+      </c>
+      <c r="AZ123">
+        <v>2</v>
+      </c>
+      <c r="BA123">
+        <v>1.19</v>
+      </c>
+      <c r="BB123">
+        <v>1.39</v>
+      </c>
+      <c r="BC123">
+        <v>2.1</v>
+      </c>
+      <c r="BD123">
+        <v>2.18</v>
+      </c>
+      <c r="BE123">
+        <v>2.45</v>
+      </c>
+      <c r="BF123">
+        <v>9</v>
+      </c>
+      <c r="BG123">
+        <v>6</v>
+      </c>
+      <c r="BH123">
+        <v>7</v>
+      </c>
+      <c r="BI123">
+        <v>7</v>
+      </c>
+      <c r="BJ123">
+        <v>16</v>
+      </c>
+      <c r="BK123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2593406</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44876.59027777778</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" t="s">
+        <v>79</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>5</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124" t="s">
+        <v>172</v>
+      </c>
+      <c r="P124" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q124">
+        <v>8</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>8</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>2.25</v>
+      </c>
+      <c r="V124">
+        <v>3</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>3.25</v>
+      </c>
+      <c r="Y124">
+        <v>2.5</v>
+      </c>
+      <c r="Z124">
+        <v>1.5</v>
+      </c>
+      <c r="AA124">
+        <v>6</v>
+      </c>
+      <c r="AB124">
+        <v>1.13</v>
+      </c>
+      <c r="AC124">
+        <v>2.55</v>
+      </c>
+      <c r="AD124">
+        <v>4</v>
+      </c>
+      <c r="AE124">
+        <v>2.5</v>
+      </c>
+      <c r="AF124">
+        <v>1.01</v>
+      </c>
+      <c r="AG124">
+        <v>17</v>
+      </c>
+      <c r="AH124">
+        <v>1.22</v>
+      </c>
+      <c r="AI124">
+        <v>4.3</v>
+      </c>
+      <c r="AJ124">
+        <v>1.67</v>
+      </c>
+      <c r="AK124">
+        <v>2.15</v>
+      </c>
+      <c r="AL124">
+        <v>1.62</v>
+      </c>
+      <c r="AM124">
+        <v>2.2</v>
+      </c>
+      <c r="AN124">
+        <v>1.5</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>1.53</v>
+      </c>
+      <c r="AQ124">
+        <v>1.57</v>
+      </c>
+      <c r="AR124">
+        <v>1.43</v>
+      </c>
+      <c r="AS124">
+        <v>1.75</v>
+      </c>
+      <c r="AT124">
+        <v>1.25</v>
+      </c>
+      <c r="AU124">
+        <v>1.37</v>
+      </c>
+      <c r="AV124">
+        <v>1.82</v>
+      </c>
+      <c r="AW124">
+        <v>3.19</v>
+      </c>
+      <c r="AX124">
+        <v>2.3</v>
+      </c>
+      <c r="AY124">
+        <v>5.5</v>
+      </c>
+      <c r="AZ124">
+        <v>1.83</v>
+      </c>
+      <c r="BA124">
+        <v>1.27</v>
+      </c>
+      <c r="BB124">
+        <v>1.57</v>
+      </c>
+      <c r="BC124">
+        <v>2</v>
+      </c>
+      <c r="BD124">
+        <v>2.48</v>
+      </c>
+      <c r="BE124">
+        <v>3.42</v>
+      </c>
+      <c r="BF124">
+        <v>13</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>9</v>
+      </c>
+      <c r="BI124">
+        <v>2</v>
+      </c>
+      <c r="BJ124">
+        <v>22</v>
+      </c>
+      <c r="BK124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2593404</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44876.59027777778</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>80</v>
+      </c>
+      <c r="H125" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>173</v>
+      </c>
+      <c r="P125" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q125">
+        <v>5</v>
+      </c>
+      <c r="R125">
+        <v>5</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125">
+        <v>2.63</v>
+      </c>
+      <c r="U125">
+        <v>2.4</v>
+      </c>
+      <c r="V125">
+        <v>3.2</v>
+      </c>
+      <c r="W125">
+        <v>1.27</v>
+      </c>
+      <c r="X125">
+        <v>3.45</v>
+      </c>
+      <c r="Y125">
+        <v>2.29</v>
+      </c>
+      <c r="Z125">
+        <v>1.56</v>
+      </c>
+      <c r="AA125">
+        <v>4.95</v>
+      </c>
+      <c r="AB125">
+        <v>1.14</v>
+      </c>
+      <c r="AC125">
+        <v>2.15</v>
+      </c>
+      <c r="AD125">
+        <v>4.33</v>
+      </c>
+      <c r="AE125">
+        <v>2.8</v>
+      </c>
+      <c r="AF125">
+        <v>1.03</v>
+      </c>
+      <c r="AG125">
+        <v>11</v>
+      </c>
+      <c r="AH125">
+        <v>1.17</v>
+      </c>
+      <c r="AI125">
+        <v>4.75</v>
+      </c>
+      <c r="AJ125">
+        <v>1.5</v>
+      </c>
+      <c r="AK125">
+        <v>2.5</v>
+      </c>
+      <c r="AL125">
+        <v>1.5</v>
+      </c>
+      <c r="AM125">
+        <v>2.5</v>
+      </c>
+      <c r="AN125">
+        <v>1.42</v>
+      </c>
+      <c r="AO125">
+        <v>1.22</v>
+      </c>
+      <c r="AP125">
+        <v>1.55</v>
+      </c>
+      <c r="AQ125">
+        <v>1.43</v>
+      </c>
+      <c r="AR125">
+        <v>0.71</v>
+      </c>
+      <c r="AS125">
+        <v>1.63</v>
+      </c>
+      <c r="AT125">
+        <v>0.63</v>
+      </c>
+      <c r="AU125">
+        <v>1.88</v>
+      </c>
+      <c r="AV125">
+        <v>1.28</v>
+      </c>
+      <c r="AW125">
+        <v>3.16</v>
+      </c>
+      <c r="AX125">
+        <v>1.97</v>
+      </c>
+      <c r="AY125">
+        <v>7.8</v>
+      </c>
+      <c r="AZ125">
+        <v>2.19</v>
+      </c>
+      <c r="BA125">
+        <v>1.23</v>
+      </c>
+      <c r="BB125">
+        <v>1.35</v>
+      </c>
+      <c r="BC125">
+        <v>2.1</v>
+      </c>
+      <c r="BD125">
+        <v>2.11</v>
+      </c>
+      <c r="BE125">
+        <v>2.76</v>
+      </c>
+      <c r="BF125">
+        <v>6</v>
+      </c>
+      <c r="BG125">
+        <v>3</v>
+      </c>
+      <c r="BH125">
+        <v>8</v>
+      </c>
+      <c r="BI125">
+        <v>10</v>
+      </c>
+      <c r="BJ125">
+        <v>14</v>
+      </c>
+      <c r="BK125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2593405</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44876.6875</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>69</v>
+      </c>
+      <c r="H126" t="s">
+        <v>70</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>87</v>
+      </c>
+      <c r="P126" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>7</v>
+      </c>
+      <c r="T126">
+        <v>3.4</v>
+      </c>
+      <c r="U126">
+        <v>2.25</v>
+      </c>
+      <c r="V126">
+        <v>2.75</v>
+      </c>
+      <c r="W126">
+        <v>1.32</v>
+      </c>
+      <c r="X126">
+        <v>3.15</v>
+      </c>
+      <c r="Y126">
+        <v>2.4</v>
+      </c>
+      <c r="Z126">
+        <v>1.51</v>
+      </c>
+      <c r="AA126">
+        <v>5.45</v>
+      </c>
+      <c r="AB126">
+        <v>1.12</v>
+      </c>
+      <c r="AC126">
+        <v>3</v>
+      </c>
+      <c r="AD126">
+        <v>4</v>
+      </c>
+      <c r="AE126">
+        <v>2.15</v>
+      </c>
+      <c r="AF126">
+        <v>1.04</v>
+      </c>
+      <c r="AG126">
+        <v>10</v>
+      </c>
+      <c r="AH126">
+        <v>1.2</v>
+      </c>
+      <c r="AI126">
+        <v>4.2</v>
+      </c>
+      <c r="AJ126">
+        <v>1.73</v>
+      </c>
+      <c r="AK126">
+        <v>2.08</v>
+      </c>
+      <c r="AL126">
+        <v>1.67</v>
+      </c>
+      <c r="AM126">
+        <v>2.1</v>
+      </c>
+      <c r="AN126">
+        <v>1.52</v>
+      </c>
+      <c r="AO126">
+        <v>1.22</v>
+      </c>
+      <c r="AP126">
+        <v>1.42</v>
+      </c>
+      <c r="AQ126">
+        <v>1.71</v>
+      </c>
+      <c r="AR126">
+        <v>2.29</v>
+      </c>
+      <c r="AS126">
+        <v>1.5</v>
+      </c>
+      <c r="AT126">
+        <v>2.38</v>
+      </c>
+      <c r="AU126">
+        <v>1.54</v>
+      </c>
+      <c r="AV126">
+        <v>1.67</v>
+      </c>
+      <c r="AW126">
+        <v>3.21</v>
+      </c>
+      <c r="AX126">
+        <v>2.22</v>
+      </c>
+      <c r="AY126">
+        <v>7.9</v>
+      </c>
+      <c r="AZ126">
+        <v>1.94</v>
+      </c>
+      <c r="BA126">
+        <v>1.17</v>
+      </c>
+      <c r="BB126">
+        <v>1.27</v>
+      </c>
+      <c r="BC126">
+        <v>1.83</v>
+      </c>
+      <c r="BD126">
+        <v>1.91</v>
+      </c>
+      <c r="BE126">
+        <v>2.36</v>
+      </c>
+      <c r="BF126">
+        <v>2</v>
+      </c>
+      <c r="BG126">
+        <v>7</v>
+      </c>
+      <c r="BH126">
+        <v>2</v>
+      </c>
+      <c r="BI126">
+        <v>6</v>
+      </c>
+      <c r="BJ126">
+        <v>4</v>
+      </c>
+      <c r="BK126">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2593407</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44877.4375</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" t="s">
+        <v>65</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>174</v>
+      </c>
+      <c r="P127" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q127">
+        <v>3</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>5</v>
+      </c>
+      <c r="T127">
+        <v>1.95</v>
+      </c>
+      <c r="U127">
+        <v>2.38</v>
+      </c>
+      <c r="V127">
+        <v>5.5</v>
+      </c>
+      <c r="W127">
+        <v>1.3</v>
+      </c>
+      <c r="X127">
+        <v>3.4</v>
+      </c>
+      <c r="Y127">
+        <v>2.38</v>
+      </c>
+      <c r="Z127">
+        <v>1.53</v>
+      </c>
+      <c r="AA127">
+        <v>5.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.14</v>
+      </c>
+      <c r="AC127">
+        <v>1.4</v>
+      </c>
+      <c r="AD127">
+        <v>4.75</v>
+      </c>
+      <c r="AE127">
+        <v>7.5</v>
+      </c>
+      <c r="AF127">
+        <v>1.03</v>
+      </c>
+      <c r="AG127">
+        <v>13</v>
+      </c>
+      <c r="AH127">
+        <v>1.18</v>
+      </c>
+      <c r="AI127">
+        <v>4.5</v>
+      </c>
+      <c r="AJ127">
+        <v>1.65</v>
+      </c>
+      <c r="AK127">
+        <v>2.2</v>
+      </c>
+      <c r="AL127">
+        <v>1.83</v>
+      </c>
+      <c r="AM127">
+        <v>1.83</v>
+      </c>
+      <c r="AN127">
+        <v>1.06</v>
+      </c>
+      <c r="AO127">
+        <v>1.15</v>
+      </c>
+      <c r="AP127">
+        <v>2.75</v>
+      </c>
+      <c r="AQ127">
+        <v>2.29</v>
+      </c>
+      <c r="AR127">
+        <v>1.57</v>
+      </c>
+      <c r="AS127">
+        <v>2.38</v>
+      </c>
+      <c r="AT127">
+        <v>1.38</v>
+      </c>
+      <c r="AU127">
+        <v>2.08</v>
+      </c>
+      <c r="AV127">
+        <v>1.33</v>
+      </c>
+      <c r="AW127">
+        <v>3.41</v>
+      </c>
+      <c r="AX127">
+        <v>1.27</v>
+      </c>
+      <c r="AY127">
+        <v>7</v>
+      </c>
+      <c r="AZ127">
+        <v>4.5</v>
+      </c>
+      <c r="BA127">
+        <v>1.2</v>
+      </c>
+      <c r="BB127">
+        <v>1.4</v>
+      </c>
+      <c r="BC127">
+        <v>2.1</v>
+      </c>
+      <c r="BD127">
+        <v>2.1</v>
+      </c>
+      <c r="BE127">
+        <v>2.93</v>
+      </c>
+      <c r="BF127">
+        <v>8</v>
+      </c>
+      <c r="BG127">
+        <v>6</v>
+      </c>
+      <c r="BH127">
+        <v>7</v>
+      </c>
+      <c r="BI127">
+        <v>4</v>
+      </c>
+      <c r="BJ127">
+        <v>15</v>
+      </c>
+      <c r="BK127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2593410</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44877.4375</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>71</v>
+      </c>
+      <c r="H128" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>3</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>175</v>
+      </c>
+      <c r="P128" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q128">
+        <v>8</v>
+      </c>
+      <c r="R128">
+        <v>5</v>
+      </c>
+      <c r="S128">
+        <v>13</v>
+      </c>
+      <c r="T128">
+        <v>1.91</v>
+      </c>
+      <c r="U128">
+        <v>2.5</v>
+      </c>
+      <c r="V128">
+        <v>5.5</v>
+      </c>
+      <c r="W128">
+        <v>1.25</v>
+      </c>
+      <c r="X128">
+        <v>3.75</v>
+      </c>
+      <c r="Y128">
+        <v>2.2</v>
+      </c>
+      <c r="Z128">
+        <v>1.62</v>
+      </c>
+      <c r="AA128">
+        <v>5</v>
+      </c>
+      <c r="AB128">
+        <v>1.17</v>
+      </c>
+      <c r="AC128">
+        <v>1.44</v>
+      </c>
+      <c r="AD128">
+        <v>5</v>
+      </c>
+      <c r="AE128">
+        <v>6</v>
+      </c>
+      <c r="AF128">
+        <v>1.02</v>
+      </c>
+      <c r="AG128">
+        <v>12</v>
+      </c>
+      <c r="AH128">
+        <v>1.12</v>
+      </c>
+      <c r="AI128">
+        <v>5</v>
+      </c>
+      <c r="AJ128">
+        <v>1.57</v>
+      </c>
+      <c r="AK128">
+        <v>2.35</v>
+      </c>
+      <c r="AL128">
+        <v>1.8</v>
+      </c>
+      <c r="AM128">
+        <v>1.91</v>
+      </c>
+      <c r="AN128">
+        <v>1.04</v>
+      </c>
+      <c r="AO128">
+        <v>1.12</v>
+      </c>
+      <c r="AP128">
+        <v>2.75</v>
+      </c>
+      <c r="AQ128">
+        <v>2.43</v>
+      </c>
+      <c r="AR128">
+        <v>0.71</v>
+      </c>
+      <c r="AS128">
+        <v>2.5</v>
+      </c>
+      <c r="AT128">
+        <v>0.63</v>
+      </c>
+      <c r="AU128">
+        <v>1.61</v>
+      </c>
+      <c r="AV128">
+        <v>1.29</v>
+      </c>
+      <c r="AW128">
+        <v>2.9</v>
+      </c>
+      <c r="AX128">
+        <v>1.17</v>
+      </c>
+      <c r="AY128">
+        <v>8.75</v>
+      </c>
+      <c r="AZ128">
+        <v>6.25</v>
+      </c>
+      <c r="BA128">
+        <v>1.22</v>
+      </c>
+      <c r="BB128">
+        <v>1.33</v>
+      </c>
+      <c r="BC128">
+        <v>2.2</v>
+      </c>
+      <c r="BD128">
+        <v>2.09</v>
+      </c>
+      <c r="BE128">
+        <v>2.65</v>
+      </c>
+      <c r="BF128">
+        <v>8</v>
+      </c>
+      <c r="BG128">
+        <v>5</v>
+      </c>
+      <c r="BH128">
+        <v>11</v>
+      </c>
+      <c r="BI128">
+        <v>3</v>
+      </c>
+      <c r="BJ128">
+        <v>19</v>
+      </c>
+      <c r="BK128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2593411</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44878.27083333334</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" t="s">
+        <v>68</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>176</v>
+      </c>
+      <c r="P129" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q129">
+        <v>8</v>
+      </c>
+      <c r="R129">
+        <v>4</v>
+      </c>
+      <c r="S129">
+        <v>12</v>
+      </c>
+      <c r="T129">
+        <v>2.4</v>
+      </c>
+      <c r="U129">
+        <v>2.4</v>
+      </c>
+      <c r="V129">
+        <v>3.6</v>
+      </c>
+      <c r="W129">
+        <v>1.29</v>
+      </c>
+      <c r="X129">
+        <v>3.5</v>
+      </c>
+      <c r="Y129">
+        <v>2.25</v>
+      </c>
+      <c r="Z129">
+        <v>1.57</v>
+      </c>
+      <c r="AA129">
+        <v>5.5</v>
+      </c>
+      <c r="AB129">
+        <v>1.14</v>
+      </c>
+      <c r="AC129">
+        <v>1.83</v>
+      </c>
+      <c r="AD129">
+        <v>3.6</v>
+      </c>
+      <c r="AE129">
+        <v>3.75</v>
+      </c>
+      <c r="AF129">
+        <v>1.03</v>
+      </c>
+      <c r="AG129">
+        <v>11</v>
+      </c>
+      <c r="AH129">
+        <v>1.17</v>
+      </c>
+      <c r="AI129">
+        <v>4.5</v>
+      </c>
+      <c r="AJ129">
+        <v>1.6</v>
+      </c>
+      <c r="AK129">
+        <v>2.1</v>
+      </c>
+      <c r="AL129">
+        <v>1.5</v>
+      </c>
+      <c r="AM129">
+        <v>2.5</v>
+      </c>
+      <c r="AN129">
+        <v>1.32</v>
+      </c>
+      <c r="AO129">
+        <v>1.22</v>
+      </c>
+      <c r="AP129">
+        <v>1.75</v>
+      </c>
+      <c r="AQ129">
+        <v>1</v>
+      </c>
+      <c r="AR129">
+        <v>0.86</v>
+      </c>
+      <c r="AS129">
+        <v>1.25</v>
+      </c>
+      <c r="AT129">
+        <v>0.75</v>
+      </c>
+      <c r="AU129">
+        <v>1.75</v>
+      </c>
+      <c r="AV129">
+        <v>1.35</v>
+      </c>
+      <c r="AW129">
+        <v>3.1</v>
+      </c>
+      <c r="AX129">
+        <v>1.64</v>
+      </c>
+      <c r="AY129">
+        <v>5.75</v>
+      </c>
+      <c r="AZ129">
+        <v>2.55</v>
+      </c>
+      <c r="BA129">
+        <v>1.25</v>
+      </c>
+      <c r="BB129">
+        <v>1.56</v>
+      </c>
+      <c r="BC129">
+        <v>2.25</v>
+      </c>
+      <c r="BD129">
+        <v>2.45</v>
+      </c>
+      <c r="BE129">
+        <v>3.28</v>
+      </c>
+      <c r="BF129">
+        <v>7</v>
+      </c>
+      <c r="BG129">
+        <v>0</v>
+      </c>
+      <c r="BH129">
+        <v>7</v>
+      </c>
+      <c r="BI129">
+        <v>4</v>
+      </c>
+      <c r="BJ129">
+        <v>14</v>
+      </c>
+      <c r="BK129">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,15 @@
     <t>['6', '40']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['61', '72']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -614,9 +623,6 @@
   </si>
   <si>
     <t>['50']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
   </si>
   <si>
     <t>['5', '6']</t>
@@ -743,6 +749,18 @@
   </si>
   <si>
     <t>['6', '14', '21', '51']</t>
+  </si>
+  <si>
+    <t>['73', '90+5']</t>
+  </si>
+  <si>
+    <t>['69', '78']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['4', '37', '42', '83']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1539,7 +1557,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1626,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT3">
         <v>0.88</v>
@@ -1730,7 +1748,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1817,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT4">
         <v>1.25</v>
@@ -1921,7 +1939,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2011,7 +2029,7 @@
         <v>1.13</v>
       </c>
       <c r="AT5">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2584,7 +2602,7 @@
         <v>2.5</v>
       </c>
       <c r="AT8">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2685,7 +2703,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2876,7 +2894,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2963,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT10">
         <v>2.38</v>
@@ -3067,7 +3085,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3449,7 +3467,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3640,7 +3658,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3727,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3831,7 +3849,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4112,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="AT16">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4213,7 +4231,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4404,7 +4422,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4595,7 +4613,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4873,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT20">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU20">
         <v>1.86</v>
@@ -5064,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT21">
         <v>2.38</v>
@@ -5168,7 +5186,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5258,7 +5276,7 @@
         <v>1.75</v>
       </c>
       <c r="AT22">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU22">
         <v>1.96</v>
@@ -5446,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT23">
         <v>1.25</v>
@@ -5640,7 +5658,7 @@
         <v>2.5</v>
       </c>
       <c r="AT24">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU24">
         <v>1.45</v>
@@ -5932,7 +5950,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6019,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT26">
         <v>0.75</v>
@@ -6123,7 +6141,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6314,7 +6332,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6505,7 +6523,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6696,7 +6714,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6887,7 +6905,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -6977,7 +6995,7 @@
         <v>2.38</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU31">
         <v>2.17</v>
@@ -7078,7 +7096,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7165,7 +7183,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT32">
         <v>1.63</v>
@@ -7269,7 +7287,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7359,7 +7377,7 @@
         <v>0.5</v>
       </c>
       <c r="AT33">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU33">
         <v>1.72</v>
@@ -7460,7 +7478,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7741,7 +7759,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU35">
         <v>1.69</v>
@@ -8033,7 +8051,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8120,10 +8138,10 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT37">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU37">
         <v>1.52</v>
@@ -8224,7 +8242,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8311,7 +8329,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT38">
         <v>0.63</v>
@@ -8415,7 +8433,7 @@
         <v>113</v>
       </c>
       <c r="P39" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="Q39">
         <v>7</v>
@@ -8606,7 +8624,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8696,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU40">
         <v>2.12</v>
@@ -8884,10 +8902,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU41">
         <v>1.51</v>
@@ -8988,7 +9006,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9370,7 +9388,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9561,7 +9579,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9839,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT46">
         <v>2.38</v>
@@ -10134,7 +10152,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10224,7 +10242,7 @@
         <v>2.5</v>
       </c>
       <c r="AT48">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU48">
         <v>1.91</v>
@@ -10325,7 +10343,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10794,10 +10812,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT51">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU51">
         <v>1.59</v>
@@ -10985,7 +11003,7 @@
         <v>0.67</v>
       </c>
       <c r="AS52">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT52">
         <v>0.63</v>
@@ -11179,7 +11197,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11280,7 +11298,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11367,7 +11385,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
         <v>1.25</v>
@@ -11471,7 +11489,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>13</v>
@@ -11662,7 +11680,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11752,7 +11770,7 @@
         <v>1.63</v>
       </c>
       <c r="AT56">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU56">
         <v>2.16</v>
@@ -11853,7 +11871,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11943,7 +11961,7 @@
         <v>0.5</v>
       </c>
       <c r="AT57">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU57">
         <v>1.55</v>
@@ -12235,7 +12253,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12322,7 +12340,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT59">
         <v>1.25</v>
@@ -12707,7 +12725,7 @@
         <v>2.38</v>
       </c>
       <c r="AT61">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.89</v>
@@ -12808,7 +12826,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12999,7 +13017,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13468,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT65">
         <v>1.63</v>
@@ -13763,7 +13781,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13954,7 +13972,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>12</v>
@@ -14041,7 +14059,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT68">
         <v>1.38</v>
@@ -14145,7 +14163,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14614,10 +14632,10 @@
         <v>1.25</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -14718,7 +14736,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14999,7 +15017,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU73">
         <v>2.03</v>
@@ -15187,7 +15205,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
         <v>0.63</v>
@@ -15482,7 +15500,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15569,7 +15587,7 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT76">
         <v>1.75</v>
@@ -15673,7 +15691,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15864,7 +15882,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -16055,7 +16073,7 @@
         <v>87</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16142,10 +16160,10 @@
         <v>0.75</v>
       </c>
       <c r="AS79">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT79">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU79">
         <v>1.69</v>
@@ -16333,10 +16351,10 @@
         <v>0.25</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT80">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU80">
         <v>1.37</v>
@@ -16527,7 +16545,7 @@
         <v>1.63</v>
       </c>
       <c r="AT81">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU81">
         <v>1.65</v>
@@ -16718,7 +16736,7 @@
         <v>1.13</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -16819,7 +16837,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16909,7 +16927,7 @@
         <v>1.5</v>
       </c>
       <c r="AT83">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -17010,7 +17028,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17097,7 +17115,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT84">
         <v>2.38</v>
@@ -17201,7 +17219,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17392,7 +17410,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17482,7 +17500,7 @@
         <v>1.25</v>
       </c>
       <c r="AT86">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU86">
         <v>1.66</v>
@@ -17583,7 +17601,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17673,7 +17691,7 @@
         <v>1.63</v>
       </c>
       <c r="AT87">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU87">
         <v>1.87</v>
@@ -17774,7 +17792,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18052,7 +18070,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT89">
         <v>0.63</v>
@@ -18156,7 +18174,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18437,7 +18455,7 @@
         <v>1.63</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU91">
         <v>1.91</v>
@@ -18625,7 +18643,7 @@
         <v>2</v>
       </c>
       <c r="AS92">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT92">
         <v>1.75</v>
@@ -18729,7 +18747,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18819,7 +18837,7 @@
         <v>1.75</v>
       </c>
       <c r="AT93">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU93">
         <v>1.5</v>
@@ -19198,7 +19216,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT95">
         <v>1.25</v>
@@ -19302,7 +19320,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19389,7 +19407,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT96">
         <v>0.75</v>
@@ -19684,7 +19702,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19875,7 +19893,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20153,10 +20171,10 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT100">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU100">
         <v>1.33</v>
@@ -20448,7 +20466,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20535,7 +20553,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT102">
         <v>2.38</v>
@@ -20639,7 +20657,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20729,7 +20747,7 @@
         <v>0.5</v>
       </c>
       <c r="AT103">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU103">
         <v>1.38</v>
@@ -21108,10 +21126,10 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT105">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU105">
         <v>1.46</v>
@@ -21212,7 +21230,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21302,7 +21320,7 @@
         <v>1.5</v>
       </c>
       <c r="AT106">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU106">
         <v>1.56</v>
@@ -21681,7 +21699,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT108">
         <v>0.63</v>
@@ -21875,7 +21893,7 @@
         <v>2.38</v>
       </c>
       <c r="AT109">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU109">
         <v>2.04</v>
@@ -21976,7 +21994,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22167,7 +22185,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22254,7 +22272,7 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT111">
         <v>0.63</v>
@@ -22358,7 +22376,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22549,7 +22567,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22740,7 +22758,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22830,7 +22848,7 @@
         <v>1.63</v>
       </c>
       <c r="AT114">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU114">
         <v>1.73</v>
@@ -22931,7 +22949,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23018,7 +23036,7 @@
         <v>0.86</v>
       </c>
       <c r="AS115">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT115">
         <v>0.88</v>
@@ -23212,7 +23230,7 @@
         <v>1.13</v>
       </c>
       <c r="AT116">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AU116">
         <v>1.81</v>
@@ -23313,7 +23331,7 @@
         <v>87</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23400,10 +23418,10 @@
         <v>1.29</v>
       </c>
       <c r="AS117">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AT117">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU117">
         <v>1.53</v>
@@ -23695,7 +23713,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23785,7 +23803,7 @@
         <v>0.5</v>
       </c>
       <c r="AT119">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AU119">
         <v>1.28</v>
@@ -23886,7 +23904,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -23973,7 +23991,7 @@
         <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT120">
         <v>1.25</v>
@@ -24077,7 +24095,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24164,7 +24182,7 @@
         <v>1.86</v>
       </c>
       <c r="AS121">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AT121">
         <v>1.63</v>
@@ -24268,7 +24286,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24459,7 +24477,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24650,7 +24668,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25032,7 +25050,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25692,7 +25710,7 @@
         <v>0.86</v>
       </c>
       <c r="AS129">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT129">
         <v>0.75</v>
@@ -25747,6 +25765,961 @@
       </c>
       <c r="BK129">
         <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>2593418</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>44981.59027777778</v>
+      </c>
+      <c r="F130">
+        <v>17</v>
+      </c>
+      <c r="G130" t="s">
+        <v>65</v>
+      </c>
+      <c r="H130" t="s">
+        <v>80</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>87</v>
+      </c>
+      <c r="P130" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q130">
+        <v>14</v>
+      </c>
+      <c r="R130">
+        <v>8</v>
+      </c>
+      <c r="S130">
+        <v>22</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>2.2</v>
+      </c>
+      <c r="V130">
+        <v>3.1</v>
+      </c>
+      <c r="W130">
+        <v>1.33</v>
+      </c>
+      <c r="X130">
+        <v>3.25</v>
+      </c>
+      <c r="Y130">
+        <v>2.5</v>
+      </c>
+      <c r="Z130">
+        <v>1.5</v>
+      </c>
+      <c r="AA130">
+        <v>6.5</v>
+      </c>
+      <c r="AB130">
+        <v>1.11</v>
+      </c>
+      <c r="AC130">
+        <v>2.55</v>
+      </c>
+      <c r="AD130">
+        <v>3.4</v>
+      </c>
+      <c r="AE130">
+        <v>2.63</v>
+      </c>
+      <c r="AF130">
+        <v>1.04</v>
+      </c>
+      <c r="AG130">
+        <v>10</v>
+      </c>
+      <c r="AH130">
+        <v>1.22</v>
+      </c>
+      <c r="AI130">
+        <v>4</v>
+      </c>
+      <c r="AJ130">
+        <v>1.75</v>
+      </c>
+      <c r="AK130">
+        <v>2.05</v>
+      </c>
+      <c r="AL130">
+        <v>1.62</v>
+      </c>
+      <c r="AM130">
+        <v>2.2</v>
+      </c>
+      <c r="AN130">
+        <v>1.28</v>
+      </c>
+      <c r="AO130">
+        <v>1.22</v>
+      </c>
+      <c r="AP130">
+        <v>1.72</v>
+      </c>
+      <c r="AQ130">
+        <v>1.88</v>
+      </c>
+      <c r="AR130">
+        <v>0.5</v>
+      </c>
+      <c r="AS130">
+        <v>1.67</v>
+      </c>
+      <c r="AT130">
+        <v>0.78</v>
+      </c>
+      <c r="AU130">
+        <v>1.49</v>
+      </c>
+      <c r="AV130">
+        <v>1.59</v>
+      </c>
+      <c r="AW130">
+        <v>3.08</v>
+      </c>
+      <c r="AX130">
+        <v>1.8</v>
+      </c>
+      <c r="AY130">
+        <v>7.1</v>
+      </c>
+      <c r="AZ130">
+        <v>2.48</v>
+      </c>
+      <c r="BA130">
+        <v>1.18</v>
+      </c>
+      <c r="BB130">
+        <v>1.35</v>
+      </c>
+      <c r="BC130">
+        <v>1.91</v>
+      </c>
+      <c r="BD130">
+        <v>2.02</v>
+      </c>
+      <c r="BE130">
+        <v>2.65</v>
+      </c>
+      <c r="BF130">
+        <v>4</v>
+      </c>
+      <c r="BG130">
+        <v>10</v>
+      </c>
+      <c r="BH130">
+        <v>6</v>
+      </c>
+      <c r="BI130">
+        <v>4</v>
+      </c>
+      <c r="BJ130">
+        <v>10</v>
+      </c>
+      <c r="BK130">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2593417</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44981.59027777778</v>
+      </c>
+      <c r="F131">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" t="s">
+        <v>72</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>177</v>
+      </c>
+      <c r="P131" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q131">
+        <v>5</v>
+      </c>
+      <c r="R131">
+        <v>4</v>
+      </c>
+      <c r="S131">
+        <v>9</v>
+      </c>
+      <c r="T131">
+        <v>3.2</v>
+      </c>
+      <c r="U131">
+        <v>2.1</v>
+      </c>
+      <c r="V131">
+        <v>3.1</v>
+      </c>
+      <c r="W131">
+        <v>1.33</v>
+      </c>
+      <c r="X131">
+        <v>3.25</v>
+      </c>
+      <c r="Y131">
+        <v>2.63</v>
+      </c>
+      <c r="Z131">
+        <v>1.44</v>
+      </c>
+      <c r="AA131">
+        <v>6.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.11</v>
+      </c>
+      <c r="AC131">
+        <v>2.75</v>
+      </c>
+      <c r="AD131">
+        <v>3.2</v>
+      </c>
+      <c r="AE131">
+        <v>2.7</v>
+      </c>
+      <c r="AF131">
+        <v>1.04</v>
+      </c>
+      <c r="AG131">
+        <v>10</v>
+      </c>
+      <c r="AH131">
+        <v>1.22</v>
+      </c>
+      <c r="AI131">
+        <v>4</v>
+      </c>
+      <c r="AJ131">
+        <v>1.95</v>
+      </c>
+      <c r="AK131">
+        <v>1.85</v>
+      </c>
+      <c r="AL131">
+        <v>1.73</v>
+      </c>
+      <c r="AM131">
+        <v>2</v>
+      </c>
+      <c r="AN131">
+        <v>1.42</v>
+      </c>
+      <c r="AO131">
+        <v>1.22</v>
+      </c>
+      <c r="AP131">
+        <v>1.57</v>
+      </c>
+      <c r="AQ131">
+        <v>2</v>
+      </c>
+      <c r="AR131">
+        <v>1.13</v>
+      </c>
+      <c r="AS131">
+        <v>1.78</v>
+      </c>
+      <c r="AT131">
+        <v>1.33</v>
+      </c>
+      <c r="AU131">
+        <v>1.44</v>
+      </c>
+      <c r="AV131">
+        <v>1.56</v>
+      </c>
+      <c r="AW131">
+        <v>3</v>
+      </c>
+      <c r="AX131">
+        <v>1.95</v>
+      </c>
+      <c r="AY131">
+        <v>6.5</v>
+      </c>
+      <c r="AZ131">
+        <v>2.25</v>
+      </c>
+      <c r="BA131">
+        <v>1.3</v>
+      </c>
+      <c r="BB131">
+        <v>1.6</v>
+      </c>
+      <c r="BC131">
+        <v>1.98</v>
+      </c>
+      <c r="BD131">
+        <v>2.49</v>
+      </c>
+      <c r="BE131">
+        <v>3.65</v>
+      </c>
+      <c r="BF131">
+        <v>4</v>
+      </c>
+      <c r="BG131">
+        <v>7</v>
+      </c>
+      <c r="BH131">
+        <v>6</v>
+      </c>
+      <c r="BI131">
+        <v>5</v>
+      </c>
+      <c r="BJ131">
+        <v>10</v>
+      </c>
+      <c r="BK131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2593414</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44981.59027777778</v>
+      </c>
+      <c r="F132">
+        <v>17</v>
+      </c>
+      <c r="G132" t="s">
+        <v>67</v>
+      </c>
+      <c r="H132" t="s">
+        <v>71</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>178</v>
+      </c>
+      <c r="P132" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q132">
+        <v>3</v>
+      </c>
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>3.25</v>
+      </c>
+      <c r="U132">
+        <v>2.1</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132">
+        <v>1.36</v>
+      </c>
+      <c r="X132">
+        <v>3</v>
+      </c>
+      <c r="Y132">
+        <v>2.63</v>
+      </c>
+      <c r="Z132">
+        <v>1.44</v>
+      </c>
+      <c r="AA132">
+        <v>7</v>
+      </c>
+      <c r="AB132">
+        <v>1.1</v>
+      </c>
+      <c r="AC132">
+        <v>2.88</v>
+      </c>
+      <c r="AD132">
+        <v>3.4</v>
+      </c>
+      <c r="AE132">
+        <v>2.45</v>
+      </c>
+      <c r="AF132">
+        <v>1.05</v>
+      </c>
+      <c r="AG132">
+        <v>9</v>
+      </c>
+      <c r="AH132">
+        <v>1.25</v>
+      </c>
+      <c r="AI132">
+        <v>3.75</v>
+      </c>
+      <c r="AJ132">
+        <v>1.95</v>
+      </c>
+      <c r="AK132">
+        <v>1.85</v>
+      </c>
+      <c r="AL132">
+        <v>1.73</v>
+      </c>
+      <c r="AM132">
+        <v>2</v>
+      </c>
+      <c r="AN132">
+        <v>1.47</v>
+      </c>
+      <c r="AO132">
+        <v>1.3</v>
+      </c>
+      <c r="AP132">
+        <v>1.4</v>
+      </c>
+      <c r="AQ132">
+        <v>2</v>
+      </c>
+      <c r="AR132">
+        <v>1</v>
+      </c>
+      <c r="AS132">
+        <v>2.11</v>
+      </c>
+      <c r="AT132">
+        <v>0.89</v>
+      </c>
+      <c r="AU132">
+        <v>1.61</v>
+      </c>
+      <c r="AV132">
+        <v>1.45</v>
+      </c>
+      <c r="AW132">
+        <v>3.06</v>
+      </c>
+      <c r="AX132">
+        <v>2.02</v>
+      </c>
+      <c r="AY132">
+        <v>6.7</v>
+      </c>
+      <c r="AZ132">
+        <v>2.14</v>
+      </c>
+      <c r="BA132">
+        <v>1.23</v>
+      </c>
+      <c r="BB132">
+        <v>1.42</v>
+      </c>
+      <c r="BC132">
+        <v>2.38</v>
+      </c>
+      <c r="BD132">
+        <v>2.19</v>
+      </c>
+      <c r="BE132">
+        <v>2.85</v>
+      </c>
+      <c r="BF132">
+        <v>6</v>
+      </c>
+      <c r="BG132">
+        <v>5</v>
+      </c>
+      <c r="BH132">
+        <v>8</v>
+      </c>
+      <c r="BI132">
+        <v>5</v>
+      </c>
+      <c r="BJ132">
+        <v>14</v>
+      </c>
+      <c r="BK132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2593416</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44981.59027777778</v>
+      </c>
+      <c r="F133">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>73</v>
+      </c>
+      <c r="H133" t="s">
+        <v>78</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>179</v>
+      </c>
+      <c r="P133" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q133">
+        <v>2</v>
+      </c>
+      <c r="R133">
+        <v>4</v>
+      </c>
+      <c r="S133">
+        <v>6</v>
+      </c>
+      <c r="T133">
+        <v>3.25</v>
+      </c>
+      <c r="U133">
+        <v>2.1</v>
+      </c>
+      <c r="V133">
+        <v>3.1</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>3.25</v>
+      </c>
+      <c r="Y133">
+        <v>2.63</v>
+      </c>
+      <c r="Z133">
+        <v>1.44</v>
+      </c>
+      <c r="AA133">
+        <v>6.5</v>
+      </c>
+      <c r="AB133">
+        <v>1.11</v>
+      </c>
+      <c r="AC133">
+        <v>2.75</v>
+      </c>
+      <c r="AD133">
+        <v>3.4</v>
+      </c>
+      <c r="AE133">
+        <v>2.55</v>
+      </c>
+      <c r="AF133">
+        <v>1.04</v>
+      </c>
+      <c r="AG133">
+        <v>10</v>
+      </c>
+      <c r="AH133">
+        <v>1.22</v>
+      </c>
+      <c r="AI133">
+        <v>4</v>
+      </c>
+      <c r="AJ133">
+        <v>1.95</v>
+      </c>
+      <c r="AK133">
+        <v>1.85</v>
+      </c>
+      <c r="AL133">
+        <v>1.73</v>
+      </c>
+      <c r="AM133">
+        <v>2</v>
+      </c>
+      <c r="AN133">
+        <v>1.61</v>
+      </c>
+      <c r="AO133">
+        <v>1.21</v>
+      </c>
+      <c r="AP133">
+        <v>1.29</v>
+      </c>
+      <c r="AQ133">
+        <v>1.25</v>
+      </c>
+      <c r="AR133">
+        <v>1.75</v>
+      </c>
+      <c r="AS133">
+        <v>1.44</v>
+      </c>
+      <c r="AT133">
+        <v>1.56</v>
+      </c>
+      <c r="AU133">
+        <v>1.74</v>
+      </c>
+      <c r="AV133">
+        <v>1.31</v>
+      </c>
+      <c r="AW133">
+        <v>3.05</v>
+      </c>
+      <c r="AX133">
+        <v>2.48</v>
+      </c>
+      <c r="AY133">
+        <v>6.8</v>
+      </c>
+      <c r="AZ133">
+        <v>1.82</v>
+      </c>
+      <c r="BA133">
+        <v>1.29</v>
+      </c>
+      <c r="BB133">
+        <v>1.58</v>
+      </c>
+      <c r="BC133">
+        <v>1.95</v>
+      </c>
+      <c r="BD133">
+        <v>2.45</v>
+      </c>
+      <c r="BE133">
+        <v>3.55</v>
+      </c>
+      <c r="BF133">
+        <v>4</v>
+      </c>
+      <c r="BG133">
+        <v>3</v>
+      </c>
+      <c r="BH133">
+        <v>7</v>
+      </c>
+      <c r="BI133">
+        <v>2</v>
+      </c>
+      <c r="BJ133">
+        <v>11</v>
+      </c>
+      <c r="BK133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2593413</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44981.6875</v>
+      </c>
+      <c r="F134">
+        <v>17</v>
+      </c>
+      <c r="G134" t="s">
+        <v>66</v>
+      </c>
+      <c r="H134" t="s">
+        <v>76</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>4</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>87</v>
+      </c>
+      <c r="P134" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>10</v>
+      </c>
+      <c r="S134">
+        <v>13</v>
+      </c>
+      <c r="T134">
+        <v>8</v>
+      </c>
+      <c r="U134">
+        <v>2.63</v>
+      </c>
+      <c r="V134">
+        <v>1.67</v>
+      </c>
+      <c r="W134">
+        <v>1.29</v>
+      </c>
+      <c r="X134">
+        <v>3.5</v>
+      </c>
+      <c r="Y134">
+        <v>2.25</v>
+      </c>
+      <c r="Z134">
+        <v>1.57</v>
+      </c>
+      <c r="AA134">
+        <v>5</v>
+      </c>
+      <c r="AB134">
+        <v>1.17</v>
+      </c>
+      <c r="AC134">
+        <v>5.32</v>
+      </c>
+      <c r="AD134">
+        <v>4.19</v>
+      </c>
+      <c r="AE134">
+        <v>1.35</v>
+      </c>
+      <c r="AF134">
+        <v>1.02</v>
+      </c>
+      <c r="AG134">
+        <v>12</v>
+      </c>
+      <c r="AH134">
+        <v>1.14</v>
+      </c>
+      <c r="AI134">
+        <v>5</v>
+      </c>
+      <c r="AJ134">
+        <v>1.48</v>
+      </c>
+      <c r="AK134">
+        <v>2.47</v>
+      </c>
+      <c r="AL134">
+        <v>2</v>
+      </c>
+      <c r="AM134">
+        <v>1.73</v>
+      </c>
+      <c r="AN134">
+        <v>3.1</v>
+      </c>
+      <c r="AO134">
+        <v>1.12</v>
+      </c>
+      <c r="AP134">
+        <v>1.04</v>
+      </c>
+      <c r="AQ134">
+        <v>1.38</v>
+      </c>
+      <c r="AR134">
+        <v>1.5</v>
+      </c>
+      <c r="AS134">
+        <v>1.22</v>
+      </c>
+      <c r="AT134">
+        <v>1.67</v>
+      </c>
+      <c r="AU134">
+        <v>1.35</v>
+      </c>
+      <c r="AV134">
+        <v>2.03</v>
+      </c>
+      <c r="AW134">
+        <v>3.38</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>8.5</v>
+      </c>
+      <c r="AZ134">
+        <v>1.19</v>
+      </c>
+      <c r="BA134">
+        <v>1.23</v>
+      </c>
+      <c r="BB134">
+        <v>1.42</v>
+      </c>
+      <c r="BC134">
+        <v>2.25</v>
+      </c>
+      <c r="BD134">
+        <v>2.19</v>
+      </c>
+      <c r="BE134">
+        <v>2.75</v>
+      </c>
+      <c r="BF134">
+        <v>2</v>
+      </c>
+      <c r="BG134">
+        <v>7</v>
+      </c>
+      <c r="BH134">
+        <v>6</v>
+      </c>
+      <c r="BI134">
+        <v>10</v>
+      </c>
+      <c r="BJ134">
+        <v>8</v>
+      </c>
+      <c r="BK134">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['32', '74', '90']</t>
+  </si>
+  <si>
+    <t>['20', '40', '64', '85']</t>
+  </si>
+  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -761,6 +767,12 @@
   </si>
   <si>
     <t>['4', '37', '42', '83']</t>
+  </si>
+  <si>
+    <t>['6', '36', '70']</t>
+  </si>
+  <si>
+    <t>['8', '88']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK134"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1569,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1748,7 +1760,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1939,7 +1951,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2217,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT6">
         <v>0.63</v>
@@ -2411,7 +2423,7 @@
         <v>1.63</v>
       </c>
       <c r="AT7">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2703,7 +2715,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2894,7 +2906,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3085,7 +3097,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3363,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT12">
         <v>1.75</v>
@@ -3467,7 +3479,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3557,7 +3569,7 @@
         <v>2.38</v>
       </c>
       <c r="AT13">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3658,7 +3670,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3849,7 +3861,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4231,7 +4243,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4422,7 +4434,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4613,7 +4625,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4700,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT19">
         <v>0.63</v>
@@ -5186,7 +5198,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5467,7 +5479,7 @@
         <v>1.22</v>
       </c>
       <c r="AT23">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU23">
         <v>1.4</v>
@@ -5950,7 +5962,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6040,7 +6052,7 @@
         <v>1.78</v>
       </c>
       <c r="AT26">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU26">
         <v>1.7</v>
@@ -6141,7 +6153,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6332,7 +6344,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6523,7 +6535,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6714,7 +6726,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6905,7 +6917,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7096,7 +7108,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7287,7 +7299,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7374,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT33">
         <v>1.33</v>
@@ -7478,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7756,7 +7768,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT35">
         <v>0.78</v>
@@ -8051,7 +8063,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8242,7 +8254,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8523,7 +8535,7 @@
         <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU39">
         <v>1.49</v>
@@ -8624,7 +8636,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9006,7 +9018,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9388,7 +9400,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9475,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT44">
         <v>0.63</v>
@@ -9579,7 +9591,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -10152,7 +10164,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10343,7 +10355,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -11194,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT53">
         <v>1.67</v>
@@ -11298,7 +11310,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11388,7 +11400,7 @@
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU54">
         <v>1.09</v>
@@ -11489,7 +11501,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>13</v>
@@ -11579,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="AT55">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU55">
         <v>1.94</v>
@@ -11680,7 +11692,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11871,7 +11883,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -11958,7 +11970,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT57">
         <v>0.89</v>
@@ -12253,7 +12265,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12826,7 +12838,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13017,7 +13029,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13680,7 +13692,7 @@
         <v>1.75</v>
       </c>
       <c r="AT66">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU66">
         <v>1.56</v>
@@ -13781,7 +13793,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13972,7 +13984,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>12</v>
@@ -14163,7 +14175,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14250,7 +14262,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT69">
         <v>0.63</v>
@@ -14441,7 +14453,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
         <v>0.63</v>
@@ -14736,7 +14748,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14826,7 +14838,7 @@
         <v>1.63</v>
       </c>
       <c r="AT72">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU72">
         <v>1.86</v>
@@ -15399,7 +15411,7 @@
         <v>1.25</v>
       </c>
       <c r="AT75">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU75">
         <v>1.45</v>
@@ -15500,7 +15512,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15691,7 +15703,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15882,7 +15894,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -16073,7 +16085,7 @@
         <v>87</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16837,7 +16849,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16924,7 +16936,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT83">
         <v>1.33</v>
@@ -17028,7 +17040,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17219,7 +17231,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17306,7 +17318,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT85">
         <v>0.88</v>
@@ -17410,7 +17422,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17601,7 +17613,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17792,7 +17804,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18174,7 +18186,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18747,7 +18759,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19219,7 +19231,7 @@
         <v>1.78</v>
       </c>
       <c r="AT95">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU95">
         <v>1.34</v>
@@ -19320,7 +19332,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19410,7 +19422,7 @@
         <v>1.67</v>
       </c>
       <c r="AT96">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU96">
         <v>1.47</v>
@@ -19702,7 +19714,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19893,7 +19905,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20466,7 +20478,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20657,7 +20669,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20744,7 +20756,7 @@
         <v>1</v>
       </c>
       <c r="AS103">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT103">
         <v>1.67</v>
@@ -21230,7 +21242,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21317,7 +21329,7 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT106">
         <v>0.89</v>
@@ -21511,7 +21523,7 @@
         <v>1.63</v>
       </c>
       <c r="AT107">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU107">
         <v>1.77</v>
@@ -21994,7 +22006,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22084,7 +22096,7 @@
         <v>1.63</v>
       </c>
       <c r="AT110">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU110">
         <v>1.48</v>
@@ -22185,7 +22197,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22376,7 +22388,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22567,7 +22579,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22758,7 +22770,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22949,7 +22961,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23331,7 +23343,7 @@
         <v>87</v>
       </c>
       <c r="P117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23612,7 +23624,7 @@
         <v>2.5</v>
       </c>
       <c r="AT118">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU118">
         <v>1.54</v>
@@ -23713,7 +23725,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23800,7 +23812,7 @@
         <v>0.57</v>
       </c>
       <c r="AS119">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AT119">
         <v>0.78</v>
@@ -23904,7 +23916,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -24095,7 +24107,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24286,7 +24298,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24477,7 +24489,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24668,7 +24680,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25050,7 +25062,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25137,7 +25149,7 @@
         <v>2.29</v>
       </c>
       <c r="AS126">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT126">
         <v>2.38</v>
@@ -25713,7 +25725,7 @@
         <v>1.44</v>
       </c>
       <c r="AT129">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU129">
         <v>1.75</v>
@@ -25814,7 +25826,7 @@
         <v>87</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>14</v>
@@ -26005,7 +26017,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26196,7 +26208,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26578,7 +26590,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26720,6 +26732,388 @@
       </c>
       <c r="BK134">
         <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2593412</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44982.4375</v>
+      </c>
+      <c r="F135">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>69</v>
+      </c>
+      <c r="H135" t="s">
+        <v>74</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>6</v>
+      </c>
+      <c r="O135" t="s">
+        <v>180</v>
+      </c>
+      <c r="P135" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q135">
+        <v>6</v>
+      </c>
+      <c r="R135">
+        <v>4</v>
+      </c>
+      <c r="S135">
+        <v>10</v>
+      </c>
+      <c r="T135">
+        <v>2.4</v>
+      </c>
+      <c r="U135">
+        <v>2.3</v>
+      </c>
+      <c r="V135">
+        <v>3.75</v>
+      </c>
+      <c r="W135">
+        <v>1.29</v>
+      </c>
+      <c r="X135">
+        <v>3.5</v>
+      </c>
+      <c r="Y135">
+        <v>2.25</v>
+      </c>
+      <c r="Z135">
+        <v>1.57</v>
+      </c>
+      <c r="AA135">
+        <v>5.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.14</v>
+      </c>
+      <c r="AC135">
+        <v>1.95</v>
+      </c>
+      <c r="AD135">
+        <v>4</v>
+      </c>
+      <c r="AE135">
+        <v>3.6</v>
+      </c>
+      <c r="AF135">
+        <v>1.03</v>
+      </c>
+      <c r="AG135">
+        <v>11</v>
+      </c>
+      <c r="AH135">
+        <v>1.17</v>
+      </c>
+      <c r="AI135">
+        <v>4.75</v>
+      </c>
+      <c r="AJ135">
+        <v>1.65</v>
+      </c>
+      <c r="AK135">
+        <v>2.2</v>
+      </c>
+      <c r="AL135">
+        <v>1.62</v>
+      </c>
+      <c r="AM135">
+        <v>2.2</v>
+      </c>
+      <c r="AN135">
+        <v>1.2</v>
+      </c>
+      <c r="AO135">
+        <v>1.18</v>
+      </c>
+      <c r="AP135">
+        <v>1.87</v>
+      </c>
+      <c r="AQ135">
+        <v>1.5</v>
+      </c>
+      <c r="AR135">
+        <v>1.25</v>
+      </c>
+      <c r="AS135">
+        <v>1.44</v>
+      </c>
+      <c r="AT135">
+        <v>1.22</v>
+      </c>
+      <c r="AU135">
+        <v>1.45</v>
+      </c>
+      <c r="AV135">
+        <v>1.32</v>
+      </c>
+      <c r="AW135">
+        <v>2.77</v>
+      </c>
+      <c r="AX135">
+        <v>1.42</v>
+      </c>
+      <c r="AY135">
+        <v>6.5</v>
+      </c>
+      <c r="AZ135">
+        <v>3.35</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>1.29</v>
+      </c>
+      <c r="BC135">
+        <v>1.61</v>
+      </c>
+      <c r="BD135">
+        <v>1.97</v>
+      </c>
+      <c r="BE135">
+        <v>2.46</v>
+      </c>
+      <c r="BF135">
+        <v>5</v>
+      </c>
+      <c r="BG135">
+        <v>4</v>
+      </c>
+      <c r="BH135">
+        <v>11</v>
+      </c>
+      <c r="BI135">
+        <v>3</v>
+      </c>
+      <c r="BJ135">
+        <v>16</v>
+      </c>
+      <c r="BK135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2593415</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44982.4375</v>
+      </c>
+      <c r="F136">
+        <v>17</v>
+      </c>
+      <c r="G136" t="s">
+        <v>75</v>
+      </c>
+      <c r="H136" t="s">
+        <v>68</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>6</v>
+      </c>
+      <c r="O136" t="s">
+        <v>181</v>
+      </c>
+      <c r="P136" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q136">
+        <v>5</v>
+      </c>
+      <c r="R136">
+        <v>6</v>
+      </c>
+      <c r="S136">
+        <v>11</v>
+      </c>
+      <c r="T136">
+        <v>3.1</v>
+      </c>
+      <c r="U136">
+        <v>2.25</v>
+      </c>
+      <c r="V136">
+        <v>2.88</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>3.25</v>
+      </c>
+      <c r="Y136">
+        <v>2.5</v>
+      </c>
+      <c r="Z136">
+        <v>1.5</v>
+      </c>
+      <c r="AA136">
+        <v>6</v>
+      </c>
+      <c r="AB136">
+        <v>1.13</v>
+      </c>
+      <c r="AC136">
+        <v>2.7</v>
+      </c>
+      <c r="AD136">
+        <v>3.6</v>
+      </c>
+      <c r="AE136">
+        <v>2.38</v>
+      </c>
+      <c r="AF136">
+        <v>1.03</v>
+      </c>
+      <c r="AG136">
+        <v>15</v>
+      </c>
+      <c r="AH136">
+        <v>1.21</v>
+      </c>
+      <c r="AI136">
+        <v>4.3</v>
+      </c>
+      <c r="AJ136">
+        <v>1.67</v>
+      </c>
+      <c r="AK136">
+        <v>2.15</v>
+      </c>
+      <c r="AL136">
+        <v>1.57</v>
+      </c>
+      <c r="AM136">
+        <v>2.25</v>
+      </c>
+      <c r="AN136">
+        <v>1.64</v>
+      </c>
+      <c r="AO136">
+        <v>1.21</v>
+      </c>
+      <c r="AP136">
+        <v>1.38</v>
+      </c>
+      <c r="AQ136">
+        <v>0.5</v>
+      </c>
+      <c r="AR136">
+        <v>0.75</v>
+      </c>
+      <c r="AS136">
+        <v>0.78</v>
+      </c>
+      <c r="AT136">
+        <v>0.67</v>
+      </c>
+      <c r="AU136">
+        <v>1.27</v>
+      </c>
+      <c r="AV136">
+        <v>1.26</v>
+      </c>
+      <c r="AW136">
+        <v>2.53</v>
+      </c>
+      <c r="AX136">
+        <v>2.3</v>
+      </c>
+      <c r="AY136">
+        <v>5.75</v>
+      </c>
+      <c r="AZ136">
+        <v>1.8</v>
+      </c>
+      <c r="BA136">
+        <v>1.2</v>
+      </c>
+      <c r="BB136">
+        <v>1.39</v>
+      </c>
+      <c r="BC136">
+        <v>1.91</v>
+      </c>
+      <c r="BD136">
+        <v>2.19</v>
+      </c>
+      <c r="BE136">
+        <v>2.88</v>
+      </c>
+      <c r="BF136">
+        <v>7</v>
+      </c>
+      <c r="BG136">
+        <v>6</v>
+      </c>
+      <c r="BH136">
+        <v>9</v>
+      </c>
+      <c r="BI136">
+        <v>10</v>
+      </c>
+      <c r="BJ136">
+        <v>16</v>
+      </c>
+      <c r="BK136">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -774,6 +774,9 @@
   <si>
     <t>['8', '88']</t>
   </si>
+  <si>
+    <t>['54', '64']</t>
+  </si>
 </sst>
 </file>
 
@@ -1134,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2996,7 +2999,7 @@
         <v>1.44</v>
       </c>
       <c r="AT10">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4139,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT16">
         <v>1.33</v>
@@ -5097,7 +5100,7 @@
         <v>1.67</v>
       </c>
       <c r="AT21">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU21">
         <v>0.8100000000000001</v>
@@ -5858,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT25">
         <v>0.88</v>
@@ -8723,7 +8726,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT40">
         <v>1.67</v>
@@ -9872,7 +9875,7 @@
         <v>1.78</v>
       </c>
       <c r="AT46">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU46">
         <v>1.71</v>
@@ -11588,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT55">
         <v>0.67</v>
@@ -13119,7 +13122,7 @@
         <v>1.63</v>
       </c>
       <c r="AT63">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU63">
         <v>1.81</v>
@@ -13883,7 +13886,7 @@
         <v>2.38</v>
       </c>
       <c r="AT67">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU67">
         <v>1.83</v>
@@ -15026,7 +15029,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT73">
         <v>1.56</v>
@@ -17130,7 +17133,7 @@
         <v>1.22</v>
       </c>
       <c r="AT84">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU84">
         <v>1.27</v>
@@ -17891,7 +17894,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT88">
         <v>1.38</v>
@@ -19610,7 +19613,7 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT97">
         <v>1.63</v>
@@ -20568,7 +20571,7 @@
         <v>2.11</v>
       </c>
       <c r="AT102">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU102">
         <v>1.58</v>
@@ -22666,7 +22669,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT113">
         <v>0.63</v>
@@ -25152,7 +25155,7 @@
         <v>1.44</v>
       </c>
       <c r="AT126">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AU126">
         <v>1.54</v>
@@ -27114,6 +27117,197 @@
       </c>
       <c r="BK136">
         <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2593419</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44983.39583333334</v>
+      </c>
+      <c r="F137">
+        <v>17</v>
+      </c>
+      <c r="G137" t="s">
+        <v>79</v>
+      </c>
+      <c r="H137" t="s">
+        <v>70</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>87</v>
+      </c>
+      <c r="P137" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="R137">
+        <v>3</v>
+      </c>
+      <c r="S137">
+        <v>5</v>
+      </c>
+      <c r="T137">
+        <v>3.5</v>
+      </c>
+      <c r="U137">
+        <v>2.3</v>
+      </c>
+      <c r="V137">
+        <v>2.6</v>
+      </c>
+      <c r="W137">
+        <v>1.33</v>
+      </c>
+      <c r="X137">
+        <v>3.25</v>
+      </c>
+      <c r="Y137">
+        <v>2.5</v>
+      </c>
+      <c r="Z137">
+        <v>1.5</v>
+      </c>
+      <c r="AA137">
+        <v>6</v>
+      </c>
+      <c r="AB137">
+        <v>1.13</v>
+      </c>
+      <c r="AC137">
+        <v>2.63</v>
+      </c>
+      <c r="AD137">
+        <v>3.5</v>
+      </c>
+      <c r="AE137">
+        <v>2.25</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>1.65</v>
+      </c>
+      <c r="AK137">
+        <v>2.2</v>
+      </c>
+      <c r="AL137">
+        <v>1.57</v>
+      </c>
+      <c r="AM137">
+        <v>2.25</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AR137">
+        <v>2.38</v>
+      </c>
+      <c r="AS137">
+        <v>0.89</v>
+      </c>
+      <c r="AT137">
+        <v>2.44</v>
+      </c>
+      <c r="AU137">
+        <v>2.04</v>
+      </c>
+      <c r="AV137">
+        <v>1.69</v>
+      </c>
+      <c r="AW137">
+        <v>3.73</v>
+      </c>
+      <c r="AX137">
+        <v>2.15</v>
+      </c>
+      <c r="AY137">
+        <v>6</v>
+      </c>
+      <c r="AZ137">
+        <v>1.9</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>2.1</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>3</v>
+      </c>
+      <c r="BG137">
+        <v>8</v>
+      </c>
+      <c r="BH137">
+        <v>2</v>
+      </c>
+      <c r="BI137">
+        <v>4</v>
+      </c>
+      <c r="BJ137">
+        <v>5</v>
+      </c>
+      <c r="BK137">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,9 @@
     <t>['20', '40', '64', '85']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -776,6 +779,15 @@
   </si>
   <si>
     <t>['54', '64']</t>
+  </si>
+  <si>
+    <t>['29', '38']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['47', '59']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1572,7 +1584,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1763,7 +1775,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1853,7 +1865,7 @@
         <v>2.11</v>
       </c>
       <c r="AT4">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1954,7 +1966,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2041,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT5">
         <v>0.78</v>
@@ -2423,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT7">
         <v>1.22</v>
@@ -2718,7 +2730,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2805,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT9">
         <v>0.63</v>
@@ -2909,7 +2921,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3100,7 +3112,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3381,7 +3393,7 @@
         <v>0.78</v>
       </c>
       <c r="AT12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3482,7 +3494,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3673,7 +3685,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3864,7 +3876,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3951,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT15">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4246,7 +4258,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4336,7 +4348,7 @@
         <v>1.63</v>
       </c>
       <c r="AT17">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4437,7 +4449,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4524,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT18">
         <v>0.63</v>
@@ -4628,7 +4640,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -5201,7 +5213,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5288,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT22">
         <v>1.56</v>
@@ -5965,7 +5977,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6156,7 +6168,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6243,10 +6255,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT27">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU27">
         <v>1.24</v>
@@ -6347,7 +6359,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6434,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT28">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU28">
         <v>2.89</v>
@@ -6538,7 +6550,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6628,7 +6640,7 @@
         <v>1.63</v>
       </c>
       <c r="AT29">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU29">
         <v>1.53</v>
@@ -6729,7 +6741,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6819,7 +6831,7 @@
         <v>1.25</v>
       </c>
       <c r="AT30">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU30">
         <v>0.91</v>
@@ -6920,7 +6932,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7111,7 +7123,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7302,7 +7314,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7493,7 +7505,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7580,7 +7592,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT34">
         <v>0.88</v>
@@ -7962,7 +7974,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT36">
         <v>0.63</v>
@@ -8066,7 +8078,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8257,7 +8269,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8535,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT39">
         <v>1.22</v>
@@ -8639,7 +8651,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9021,7 +9033,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9111,7 +9123,7 @@
         <v>1.63</v>
       </c>
       <c r="AT42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU42">
         <v>1.72</v>
@@ -9299,10 +9311,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT43">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU43">
         <v>2.14</v>
@@ -9403,7 +9415,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9493,7 +9505,7 @@
         <v>0.78</v>
       </c>
       <c r="AT44">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU44">
         <v>1.3</v>
@@ -9594,7 +9606,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9681,7 +9693,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT45">
         <v>1.63</v>
@@ -10066,7 +10078,7 @@
         <v>1.25</v>
       </c>
       <c r="AT47">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU47">
         <v>1.05</v>
@@ -10167,7 +10179,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10358,7 +10370,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10636,10 +10648,10 @@
         <v>1.67</v>
       </c>
       <c r="AS50">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU50">
         <v>1.66</v>
@@ -11313,7 +11325,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11504,7 +11516,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>13</v>
@@ -11695,7 +11707,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11782,7 +11794,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT56">
         <v>1.56</v>
@@ -11886,7 +11898,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -12268,7 +12280,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12358,7 +12370,7 @@
         <v>1.78</v>
       </c>
       <c r="AT59">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU59">
         <v>1.48</v>
@@ -12546,10 +12558,10 @@
         <v>0.33</v>
       </c>
       <c r="AS60">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU60">
         <v>1.96</v>
@@ -12841,7 +12853,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12928,7 +12940,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT62">
         <v>0.88</v>
@@ -13032,7 +13044,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13313,7 +13325,7 @@
         <v>2.5</v>
       </c>
       <c r="AT64">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU64">
         <v>1.72</v>
@@ -13692,7 +13704,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT66">
         <v>0.67</v>
@@ -13796,7 +13808,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13987,7 +13999,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>12</v>
@@ -14077,7 +14089,7 @@
         <v>2.11</v>
       </c>
       <c r="AT68">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU68">
         <v>1.53</v>
@@ -14178,7 +14190,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14459,7 +14471,7 @@
         <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU70">
         <v>1.71</v>
@@ -14751,7 +14763,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15515,7 +15527,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15605,7 +15617,7 @@
         <v>1.22</v>
       </c>
       <c r="AT76">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU76">
         <v>1.34</v>
@@ -15706,7 +15718,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15793,7 +15805,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT77">
         <v>1.63</v>
@@ -15897,7 +15909,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -15987,7 +15999,7 @@
         <v>2.5</v>
       </c>
       <c r="AT78">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU78">
         <v>1.72</v>
@@ -16088,7 +16100,7 @@
         <v>87</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16557,7 +16569,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT81">
         <v>1.67</v>
@@ -16748,7 +16760,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT82">
         <v>0.89</v>
@@ -16852,7 +16864,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17043,7 +17055,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17234,7 +17246,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17425,7 +17437,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17616,7 +17628,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17807,7 +17819,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17897,7 +17909,7 @@
         <v>0.89</v>
       </c>
       <c r="AT88">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU88">
         <v>1.91</v>
@@ -18189,7 +18201,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18276,7 +18288,7 @@
         <v>0.2</v>
       </c>
       <c r="AS90">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT90">
         <v>0.63</v>
@@ -18467,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT91">
         <v>0.89</v>
@@ -18661,7 +18673,7 @@
         <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -18762,7 +18774,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18849,7 +18861,7 @@
         <v>0.2</v>
       </c>
       <c r="AS93">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT93">
         <v>0.78</v>
@@ -19043,7 +19055,7 @@
         <v>2.38</v>
       </c>
       <c r="AT94">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU94">
         <v>1.92</v>
@@ -19335,7 +19347,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19717,7 +19729,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19908,7 +19920,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -19995,7 +20007,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT99">
         <v>1.63</v>
@@ -20380,7 +20392,7 @@
         <v>1.25</v>
       </c>
       <c r="AT101">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU101">
         <v>1.51</v>
@@ -20481,7 +20493,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20672,7 +20684,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20953,7 +20965,7 @@
         <v>2.5</v>
       </c>
       <c r="AT104">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU104">
         <v>1.59</v>
@@ -21245,7 +21257,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21523,7 +21535,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT107">
         <v>0.67</v>
@@ -21717,7 +21729,7 @@
         <v>1.67</v>
       </c>
       <c r="AT108">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU108">
         <v>1.43</v>
@@ -22009,7 +22021,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22096,7 +22108,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT110">
         <v>1.22</v>
@@ -22200,7 +22212,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22391,7 +22403,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22478,10 +22490,10 @@
         <v>2.17</v>
       </c>
       <c r="AS112">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT112">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU112">
         <v>1.39</v>
@@ -22582,7 +22594,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22773,7 +22785,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22860,7 +22872,7 @@
         <v>1.29</v>
       </c>
       <c r="AS114">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT114">
         <v>1.33</v>
@@ -22964,7 +22976,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23242,7 +23254,7 @@
         <v>1.86</v>
       </c>
       <c r="AS116">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT116">
         <v>1.56</v>
@@ -23346,7 +23358,7 @@
         <v>87</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23728,7 +23740,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23919,7 +23931,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -24009,7 +24021,7 @@
         <v>1.22</v>
       </c>
       <c r="AT120">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU120">
         <v>1.33</v>
@@ -24110,7 +24122,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24301,7 +24313,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24388,10 +24400,10 @@
         <v>2</v>
       </c>
       <c r="AS122">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT122">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AU122">
         <v>1.5</v>
@@ -24492,7 +24504,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24582,7 +24594,7 @@
         <v>1.25</v>
       </c>
       <c r="AT123">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU123">
         <v>1.49</v>
@@ -24683,7 +24695,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24770,10 +24782,10 @@
         <v>1.43</v>
       </c>
       <c r="AS124">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT124">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU124">
         <v>1.37</v>
@@ -25065,7 +25077,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25346,7 +25358,7 @@
         <v>2.38</v>
       </c>
       <c r="AT127">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU127">
         <v>2.08</v>
@@ -25829,7 +25841,7 @@
         <v>87</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q130">
         <v>14</v>
@@ -26020,7 +26032,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26211,7 +26223,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26593,7 +26605,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26784,7 +26796,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26975,7 +26987,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27166,7 +27178,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27308,6 +27320,770 @@
       </c>
       <c r="BK137">
         <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2593421</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44988.59027777778</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>68</v>
+      </c>
+      <c r="H138" t="s">
+        <v>65</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>87</v>
+      </c>
+      <c r="P138" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q138">
+        <v>4</v>
+      </c>
+      <c r="R138">
+        <v>6</v>
+      </c>
+      <c r="S138">
+        <v>10</v>
+      </c>
+      <c r="T138">
+        <v>3.75</v>
+      </c>
+      <c r="U138">
+        <v>2.25</v>
+      </c>
+      <c r="V138">
+        <v>2.5</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>3</v>
+      </c>
+      <c r="Y138">
+        <v>2.62</v>
+      </c>
+      <c r="Z138">
+        <v>1.44</v>
+      </c>
+      <c r="AA138">
+        <v>6</v>
+      </c>
+      <c r="AB138">
+        <v>1.11</v>
+      </c>
+      <c r="AC138">
+        <v>3.15</v>
+      </c>
+      <c r="AD138">
+        <v>3.45</v>
+      </c>
+      <c r="AE138">
+        <v>2.02</v>
+      </c>
+      <c r="AF138">
+        <v>1.05</v>
+      </c>
+      <c r="AG138">
+        <v>9</v>
+      </c>
+      <c r="AH138">
+        <v>1.25</v>
+      </c>
+      <c r="AI138">
+        <v>3.6</v>
+      </c>
+      <c r="AJ138">
+        <v>1.87</v>
+      </c>
+      <c r="AK138">
+        <v>2.01</v>
+      </c>
+      <c r="AL138">
+        <v>1.67</v>
+      </c>
+      <c r="AM138">
+        <v>2.1</v>
+      </c>
+      <c r="AN138">
+        <v>1.78</v>
+      </c>
+      <c r="AO138">
+        <v>1.22</v>
+      </c>
+      <c r="AP138">
+        <v>1.28</v>
+      </c>
+      <c r="AQ138">
+        <v>1.13</v>
+      </c>
+      <c r="AR138">
+        <v>1.38</v>
+      </c>
+      <c r="AS138">
+        <v>1</v>
+      </c>
+      <c r="AT138">
+        <v>1.56</v>
+      </c>
+      <c r="AU138">
+        <v>1.76</v>
+      </c>
+      <c r="AV138">
+        <v>1.37</v>
+      </c>
+      <c r="AW138">
+        <v>3.13</v>
+      </c>
+      <c r="AX138">
+        <v>2.48</v>
+      </c>
+      <c r="AY138">
+        <v>7.2</v>
+      </c>
+      <c r="AZ138">
+        <v>1.79</v>
+      </c>
+      <c r="BA138">
+        <v>1.18</v>
+      </c>
+      <c r="BB138">
+        <v>1.37</v>
+      </c>
+      <c r="BC138">
+        <v>1.91</v>
+      </c>
+      <c r="BD138">
+        <v>2.03</v>
+      </c>
+      <c r="BE138">
+        <v>2.55</v>
+      </c>
+      <c r="BF138">
+        <v>3</v>
+      </c>
+      <c r="BG138">
+        <v>6</v>
+      </c>
+      <c r="BH138">
+        <v>3</v>
+      </c>
+      <c r="BI138">
+        <v>2</v>
+      </c>
+      <c r="BJ138">
+        <v>6</v>
+      </c>
+      <c r="BK138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2593422</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44988.59027777778</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>72</v>
+      </c>
+      <c r="H139" t="s">
+        <v>66</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>182</v>
+      </c>
+      <c r="P139" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q139">
+        <v>6</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>8</v>
+      </c>
+      <c r="T139">
+        <v>2.05</v>
+      </c>
+      <c r="U139">
+        <v>2.3</v>
+      </c>
+      <c r="V139">
+        <v>5</v>
+      </c>
+      <c r="W139">
+        <v>1.33</v>
+      </c>
+      <c r="X139">
+        <v>3.14</v>
+      </c>
+      <c r="Y139">
+        <v>2.57</v>
+      </c>
+      <c r="Z139">
+        <v>1.47</v>
+      </c>
+      <c r="AA139">
+        <v>6.2</v>
+      </c>
+      <c r="AB139">
+        <v>1.1</v>
+      </c>
+      <c r="AC139">
+        <v>1.56</v>
+      </c>
+      <c r="AD139">
+        <v>4.05</v>
+      </c>
+      <c r="AE139">
+        <v>4.75</v>
+      </c>
+      <c r="AF139">
+        <v>1</v>
+      </c>
+      <c r="AG139">
+        <v>10.5</v>
+      </c>
+      <c r="AH139">
+        <v>1.21</v>
+      </c>
+      <c r="AI139">
+        <v>3.74</v>
+      </c>
+      <c r="AJ139">
+        <v>1.68</v>
+      </c>
+      <c r="AK139">
+        <v>2.1</v>
+      </c>
+      <c r="AL139">
+        <v>1.8</v>
+      </c>
+      <c r="AM139">
+        <v>1.91</v>
+      </c>
+      <c r="AN139">
+        <v>1.16</v>
+      </c>
+      <c r="AO139">
+        <v>1.23</v>
+      </c>
+      <c r="AP139">
+        <v>2.28</v>
+      </c>
+      <c r="AQ139">
+        <v>1.75</v>
+      </c>
+      <c r="AR139">
+        <v>0.63</v>
+      </c>
+      <c r="AS139">
+        <v>1.67</v>
+      </c>
+      <c r="AT139">
+        <v>0.67</v>
+      </c>
+      <c r="AU139">
+        <v>1.55</v>
+      </c>
+      <c r="AV139">
+        <v>1.34</v>
+      </c>
+      <c r="AW139">
+        <v>2.89</v>
+      </c>
+      <c r="AX139">
+        <v>1.43</v>
+      </c>
+      <c r="AY139">
+        <v>7.3</v>
+      </c>
+      <c r="AZ139">
+        <v>3.78</v>
+      </c>
+      <c r="BA139">
+        <v>1.29</v>
+      </c>
+      <c r="BB139">
+        <v>1.57</v>
+      </c>
+      <c r="BC139">
+        <v>1.94</v>
+      </c>
+      <c r="BD139">
+        <v>2.43</v>
+      </c>
+      <c r="BE139">
+        <v>3.2</v>
+      </c>
+      <c r="BF139">
+        <v>3</v>
+      </c>
+      <c r="BG139">
+        <v>3</v>
+      </c>
+      <c r="BH139">
+        <v>2</v>
+      </c>
+      <c r="BI139">
+        <v>4</v>
+      </c>
+      <c r="BJ139">
+        <v>5</v>
+      </c>
+      <c r="BK139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2593425</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44988.59027777778</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s">
+        <v>79</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>87</v>
+      </c>
+      <c r="P140" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q140">
+        <v>7</v>
+      </c>
+      <c r="R140">
+        <v>3</v>
+      </c>
+      <c r="S140">
+        <v>10</v>
+      </c>
+      <c r="T140">
+        <v>2.6</v>
+      </c>
+      <c r="U140">
+        <v>2.2</v>
+      </c>
+      <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>1.36</v>
+      </c>
+      <c r="X140">
+        <v>3</v>
+      </c>
+      <c r="Y140">
+        <v>2.75</v>
+      </c>
+      <c r="Z140">
+        <v>1.4</v>
+      </c>
+      <c r="AA140">
+        <v>7</v>
+      </c>
+      <c r="AB140">
+        <v>1.1</v>
+      </c>
+      <c r="AC140">
+        <v>2.02</v>
+      </c>
+      <c r="AD140">
+        <v>3.45</v>
+      </c>
+      <c r="AE140">
+        <v>3.2</v>
+      </c>
+      <c r="AF140">
+        <v>1.01</v>
+      </c>
+      <c r="AG140">
+        <v>10</v>
+      </c>
+      <c r="AH140">
+        <v>1.25</v>
+      </c>
+      <c r="AI140">
+        <v>3.97</v>
+      </c>
+      <c r="AJ140">
+        <v>1.88</v>
+      </c>
+      <c r="AK140">
+        <v>2</v>
+      </c>
+      <c r="AL140">
+        <v>1.73</v>
+      </c>
+      <c r="AM140">
+        <v>2</v>
+      </c>
+      <c r="AN140">
+        <v>1.2</v>
+      </c>
+      <c r="AO140">
+        <v>1.3</v>
+      </c>
+      <c r="AP140">
+        <v>1.78</v>
+      </c>
+      <c r="AQ140">
+        <v>1.63</v>
+      </c>
+      <c r="AR140">
+        <v>1.25</v>
+      </c>
+      <c r="AS140">
+        <v>1.44</v>
+      </c>
+      <c r="AT140">
+        <v>1.44</v>
+      </c>
+      <c r="AU140">
+        <v>1.49</v>
+      </c>
+      <c r="AV140">
+        <v>1.73</v>
+      </c>
+      <c r="AW140">
+        <v>3.22</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>1.56</v>
+      </c>
+      <c r="BC140">
+        <v>1.91</v>
+      </c>
+      <c r="BD140">
+        <v>2.39</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>5</v>
+      </c>
+      <c r="BG140">
+        <v>4</v>
+      </c>
+      <c r="BH140">
+        <v>6</v>
+      </c>
+      <c r="BI140">
+        <v>4</v>
+      </c>
+      <c r="BJ140">
+        <v>11</v>
+      </c>
+      <c r="BK140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2593427</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44988.6875</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" t="s">
+        <v>67</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>87</v>
+      </c>
+      <c r="P141" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q141">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>3</v>
+      </c>
+      <c r="S141">
+        <v>6</v>
+      </c>
+      <c r="T141">
+        <v>2.38</v>
+      </c>
+      <c r="U141">
+        <v>2.25</v>
+      </c>
+      <c r="V141">
+        <v>4</v>
+      </c>
+      <c r="W141">
+        <v>1.34</v>
+      </c>
+      <c r="X141">
+        <v>3.1</v>
+      </c>
+      <c r="Y141">
+        <v>2.57</v>
+      </c>
+      <c r="Z141">
+        <v>1.47</v>
+      </c>
+      <c r="AA141">
+        <v>6.25</v>
+      </c>
+      <c r="AB141">
+        <v>1.1</v>
+      </c>
+      <c r="AC141">
+        <v>1.98</v>
+      </c>
+      <c r="AD141">
+        <v>3.45</v>
+      </c>
+      <c r="AE141">
+        <v>3.25</v>
+      </c>
+      <c r="AF141">
+        <v>1.05</v>
+      </c>
+      <c r="AG141">
+        <v>9</v>
+      </c>
+      <c r="AH141">
+        <v>1.25</v>
+      </c>
+      <c r="AI141">
+        <v>3.6</v>
+      </c>
+      <c r="AJ141">
+        <v>1.87</v>
+      </c>
+      <c r="AK141">
+        <v>2.01</v>
+      </c>
+      <c r="AL141">
+        <v>1.67</v>
+      </c>
+      <c r="AM141">
+        <v>2.1</v>
+      </c>
+      <c r="AN141">
+        <v>1.25</v>
+      </c>
+      <c r="AO141">
+        <v>1.22</v>
+      </c>
+      <c r="AP141">
+        <v>1.8</v>
+      </c>
+      <c r="AQ141">
+        <v>1.63</v>
+      </c>
+      <c r="AR141">
+        <v>1.75</v>
+      </c>
+      <c r="AS141">
+        <v>1.44</v>
+      </c>
+      <c r="AT141">
+        <v>1.89</v>
+      </c>
+      <c r="AU141">
+        <v>1.73</v>
+      </c>
+      <c r="AV141">
+        <v>1.7</v>
+      </c>
+      <c r="AW141">
+        <v>3.43</v>
+      </c>
+      <c r="AX141">
+        <v>1.72</v>
+      </c>
+      <c r="AY141">
+        <v>6.9</v>
+      </c>
+      <c r="AZ141">
+        <v>2.68</v>
+      </c>
+      <c r="BA141">
+        <v>1.27</v>
+      </c>
+      <c r="BB141">
+        <v>1.51</v>
+      </c>
+      <c r="BC141">
+        <v>2.25</v>
+      </c>
+      <c r="BD141">
+        <v>2.28</v>
+      </c>
+      <c r="BE141">
+        <v>3</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>5</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>1</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,18 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['18', '90+4']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['48', '60', '85', '90']</t>
+  </si>
+  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -572,9 +584,6 @@
   </si>
   <si>
     <t>['50', '67']</t>
-  </si>
-  <si>
-    <t>['39']</t>
   </si>
   <si>
     <t>['7', '42', '72', '74', '76']</t>
@@ -788,6 +797,9 @@
   </si>
   <si>
     <t>['47', '59']</t>
+  </si>
+  <si>
+    <t>['14', '82']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1584,7 +1596,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1674,7 +1686,7 @@
         <v>1.22</v>
       </c>
       <c r="AT3">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1775,7 +1787,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1966,7 +1978,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2247,7 +2259,7 @@
         <v>1.44</v>
       </c>
       <c r="AT6">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2626,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT8">
         <v>1.56</v>
@@ -2730,7 +2742,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -2820,7 +2832,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2921,7 +2933,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3112,7 +3124,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3199,10 +3211,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT11">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3494,7 +3506,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3581,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT13">
         <v>0.67</v>
@@ -3685,7 +3697,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3876,7 +3888,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4258,7 +4270,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4345,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT17">
         <v>0.67</v>
@@ -4449,7 +4461,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4539,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="AT18">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU18">
         <v>1.74</v>
@@ -4640,7 +4652,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4730,7 +4742,7 @@
         <v>1.44</v>
       </c>
       <c r="AT19">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU19">
         <v>1.54</v>
@@ -5213,7 +5225,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5682,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT24">
         <v>0.78</v>
@@ -5876,7 +5888,7 @@
         <v>0.89</v>
       </c>
       <c r="AT25">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU25">
         <v>2.6</v>
@@ -5977,7 +5989,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6168,7 +6180,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6359,7 +6371,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6550,7 +6562,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6637,7 +6649,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT29">
         <v>1.56</v>
@@ -6741,7 +6753,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6828,7 +6840,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT30">
         <v>1.89</v>
@@ -6932,7 +6944,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7019,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT31">
         <v>0.89</v>
@@ -7123,7 +7135,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7213,7 +7225,7 @@
         <v>1.44</v>
       </c>
       <c r="AT32">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU32">
         <v>1.08</v>
@@ -7314,7 +7326,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7505,7 +7517,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7595,7 +7607,7 @@
         <v>1</v>
       </c>
       <c r="AT34">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU34">
         <v>2.04</v>
@@ -7977,7 +7989,7 @@
         <v>1.44</v>
       </c>
       <c r="AT36">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU36">
         <v>2.23</v>
@@ -8078,7 +8090,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8269,7 +8281,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8359,7 +8371,7 @@
         <v>1.67</v>
       </c>
       <c r="AT38">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU38">
         <v>0.97</v>
@@ -8651,7 +8663,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9033,7 +9045,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9120,7 +9132,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT42">
         <v>1.44</v>
@@ -9415,7 +9427,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9606,7 +9618,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9696,7 +9708,7 @@
         <v>1.44</v>
       </c>
       <c r="AT45">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU45">
         <v>1.66</v>
@@ -10075,7 +10087,7 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT47">
         <v>1.56</v>
@@ -10179,7 +10191,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10266,7 +10278,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT48">
         <v>1.33</v>
@@ -10370,7 +10382,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10457,10 +10469,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT49">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU49">
         <v>1.79</v>
@@ -11033,7 +11045,7 @@
         <v>1.22</v>
       </c>
       <c r="AT52">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU52">
         <v>1.4</v>
@@ -11325,7 +11337,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11516,7 +11528,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>13</v>
@@ -11707,7 +11719,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11898,7 +11910,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -12176,10 +12188,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT58">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU58">
         <v>1.21</v>
@@ -12280,7 +12292,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12749,7 +12761,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT61">
         <v>1.33</v>
@@ -12853,7 +12865,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12943,7 +12955,7 @@
         <v>1.44</v>
       </c>
       <c r="AT62">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13044,7 +13056,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13131,7 +13143,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT63">
         <v>2.44</v>
@@ -13322,7 +13334,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT64">
         <v>1.89</v>
@@ -13516,7 +13528,7 @@
         <v>1.67</v>
       </c>
       <c r="AT65">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU65">
         <v>1.21</v>
@@ -13808,7 +13820,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13895,7 +13907,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT67">
         <v>2.44</v>
@@ -13999,7 +14011,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>12</v>
@@ -14190,7 +14202,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14280,7 +14292,7 @@
         <v>0.78</v>
       </c>
       <c r="AT69">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU69">
         <v>1.63</v>
@@ -14763,7 +14775,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14850,7 +14862,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT72">
         <v>1.22</v>
@@ -15235,7 +15247,7 @@
         <v>1.67</v>
       </c>
       <c r="AT74">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU74">
         <v>1.43</v>
@@ -15423,7 +15435,7 @@
         <v>0.75</v>
       </c>
       <c r="AS75">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT75">
         <v>0.67</v>
@@ -15527,7 +15539,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15718,7 +15730,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15808,7 +15820,7 @@
         <v>1.44</v>
       </c>
       <c r="AT77">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU77">
         <v>1.92</v>
@@ -15909,7 +15921,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -15996,7 +16008,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT78">
         <v>1.44</v>
@@ -16100,7 +16112,7 @@
         <v>87</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16864,7 +16876,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17055,7 +17067,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17246,7 +17258,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17336,7 +17348,7 @@
         <v>0.78</v>
       </c>
       <c r="AT85">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU85">
         <v>1.39</v>
@@ -17437,7 +17449,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17524,7 +17536,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT86">
         <v>1.67</v>
@@ -17628,7 +17640,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17715,7 +17727,7 @@
         <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT87">
         <v>1.56</v>
@@ -17819,7 +17831,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18100,7 +18112,7 @@
         <v>2.11</v>
       </c>
       <c r="AT89">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU89">
         <v>1.6</v>
@@ -18201,7 +18213,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18291,7 +18303,7 @@
         <v>1.44</v>
       </c>
       <c r="AT90">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU90">
         <v>1.49</v>
@@ -18774,7 +18786,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19052,7 +19064,7 @@
         <v>0.4</v>
       </c>
       <c r="AS94">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT94">
         <v>0.67</v>
@@ -19347,7 +19359,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19628,7 +19640,7 @@
         <v>0.89</v>
       </c>
       <c r="AT97">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU97">
         <v>1.92</v>
@@ -19729,7 +19741,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19816,10 +19828,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT98">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU98">
         <v>1.91</v>
@@ -19920,7 +19932,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20010,7 +20022,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU99">
         <v>1.84</v>
@@ -20389,7 +20401,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT101">
         <v>1.44</v>
@@ -20493,7 +20505,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20684,7 +20696,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20962,7 +20974,7 @@
         <v>1.83</v>
       </c>
       <c r="AS104">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT104">
         <v>1.56</v>
@@ -21257,7 +21269,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21917,7 +21929,7 @@
         <v>0.67</v>
       </c>
       <c r="AS109">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT109">
         <v>0.78</v>
@@ -22021,7 +22033,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22212,7 +22224,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22302,7 +22314,7 @@
         <v>1.44</v>
       </c>
       <c r="AT111">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU111">
         <v>1.57</v>
@@ -22403,7 +22415,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22594,7 +22606,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22684,7 +22696,7 @@
         <v>0.89</v>
       </c>
       <c r="AT113">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -22785,7 +22797,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22976,7 +22988,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23066,7 +23078,7 @@
         <v>1.67</v>
       </c>
       <c r="AT115">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU115">
         <v>1.49</v>
@@ -23358,7 +23370,7 @@
         <v>87</v>
       </c>
       <c r="P117" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23636,7 +23648,7 @@
         <v>1.43</v>
       </c>
       <c r="AS118">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT118">
         <v>1.22</v>
@@ -23740,7 +23752,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23931,7 +23943,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -24122,7 +24134,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24212,7 +24224,7 @@
         <v>2.11</v>
       </c>
       <c r="AT121">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU121">
         <v>1.55</v>
@@ -24313,7 +24325,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24504,7 +24516,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24591,7 +24603,7 @@
         <v>0.29</v>
       </c>
       <c r="AS123">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT123">
         <v>0.67</v>
@@ -24695,7 +24707,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24973,10 +24985,10 @@
         <v>0.71</v>
       </c>
       <c r="AS125">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT125">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU125">
         <v>1.88</v>
@@ -25077,7 +25089,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25355,7 +25367,7 @@
         <v>1.57</v>
       </c>
       <c r="AS127">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AT127">
         <v>1.56</v>
@@ -25546,10 +25558,10 @@
         <v>0.71</v>
       </c>
       <c r="AS128">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT128">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU128">
         <v>1.61</v>
@@ -25841,7 +25853,7 @@
         <v>87</v>
       </c>
       <c r="P130" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>14</v>
@@ -26032,7 +26044,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26223,7 +26235,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26605,7 +26617,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26796,7 +26808,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26987,7 +26999,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27178,7 +27190,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27369,7 +27381,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27560,7 +27572,7 @@
         <v>182</v>
       </c>
       <c r="P139" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q139">
         <v>6</v>
@@ -27751,7 +27763,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27942,7 +27954,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28084,6 +28096,770 @@
       </c>
       <c r="BK141">
         <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2593423</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44989.41666666666</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s">
+        <v>75</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>183</v>
+      </c>
+      <c r="P142" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142">
+        <v>5</v>
+      </c>
+      <c r="T142">
+        <v>1.36</v>
+      </c>
+      <c r="U142">
+        <v>3.4</v>
+      </c>
+      <c r="V142">
+        <v>12</v>
+      </c>
+      <c r="W142">
+        <v>1.22</v>
+      </c>
+      <c r="X142">
+        <v>3.8</v>
+      </c>
+      <c r="Y142">
+        <v>1.95</v>
+      </c>
+      <c r="Z142">
+        <v>1.75</v>
+      </c>
+      <c r="AA142">
+        <v>4</v>
+      </c>
+      <c r="AB142">
+        <v>1.2</v>
+      </c>
+      <c r="AC142">
+        <v>1.12</v>
+      </c>
+      <c r="AD142">
+        <v>8</v>
+      </c>
+      <c r="AE142">
+        <v>16</v>
+      </c>
+      <c r="AF142">
+        <v>1.02</v>
+      </c>
+      <c r="AG142">
+        <v>15</v>
+      </c>
+      <c r="AH142">
+        <v>1.11</v>
+      </c>
+      <c r="AI142">
+        <v>6</v>
+      </c>
+      <c r="AJ142">
+        <v>1.45</v>
+      </c>
+      <c r="AK142">
+        <v>2.45</v>
+      </c>
+      <c r="AL142">
+        <v>2.2</v>
+      </c>
+      <c r="AM142">
+        <v>1.62</v>
+      </c>
+      <c r="AN142">
+        <v>1.03</v>
+      </c>
+      <c r="AO142">
+        <v>1.06</v>
+      </c>
+      <c r="AP142">
+        <v>4.17</v>
+      </c>
+      <c r="AQ142">
+        <v>2.38</v>
+      </c>
+      <c r="AR142">
+        <v>0.63</v>
+      </c>
+      <c r="AS142">
+        <v>2.44</v>
+      </c>
+      <c r="AT142">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU142">
+        <v>2.08</v>
+      </c>
+      <c r="AV142">
+        <v>1.27</v>
+      </c>
+      <c r="AW142">
+        <v>3.35</v>
+      </c>
+      <c r="AX142">
+        <v>1.04</v>
+      </c>
+      <c r="AY142">
+        <v>16</v>
+      </c>
+      <c r="AZ142">
+        <v>16</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>1.28</v>
+      </c>
+      <c r="BC142">
+        <v>1.83</v>
+      </c>
+      <c r="BD142">
+        <v>1.93</v>
+      </c>
+      <c r="BE142">
+        <v>2.42</v>
+      </c>
+      <c r="BF142">
+        <v>12</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>6</v>
+      </c>
+      <c r="BI142">
+        <v>3</v>
+      </c>
+      <c r="BJ142">
+        <v>18</v>
+      </c>
+      <c r="BK142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2593424</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44989.4375</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>74</v>
+      </c>
+      <c r="H143" t="s">
+        <v>73</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>184</v>
+      </c>
+      <c r="P143" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q143">
+        <v>5</v>
+      </c>
+      <c r="R143">
+        <v>7</v>
+      </c>
+      <c r="S143">
+        <v>12</v>
+      </c>
+      <c r="T143">
+        <v>3.25</v>
+      </c>
+      <c r="U143">
+        <v>2.3</v>
+      </c>
+      <c r="V143">
+        <v>2.63</v>
+      </c>
+      <c r="W143">
+        <v>1.27</v>
+      </c>
+      <c r="X143">
+        <v>3.45</v>
+      </c>
+      <c r="Y143">
+        <v>2.29</v>
+      </c>
+      <c r="Z143">
+        <v>1.56</v>
+      </c>
+      <c r="AA143">
+        <v>4.95</v>
+      </c>
+      <c r="AB143">
+        <v>1.14</v>
+      </c>
+      <c r="AC143">
+        <v>2.6</v>
+      </c>
+      <c r="AD143">
+        <v>3.5</v>
+      </c>
+      <c r="AE143">
+        <v>2.3</v>
+      </c>
+      <c r="AF143">
+        <v>1.03</v>
+      </c>
+      <c r="AG143">
+        <v>11</v>
+      </c>
+      <c r="AH143">
+        <v>1.17</v>
+      </c>
+      <c r="AI143">
+        <v>4.75</v>
+      </c>
+      <c r="AJ143">
+        <v>1.64</v>
+      </c>
+      <c r="AK143">
+        <v>2.04</v>
+      </c>
+      <c r="AL143">
+        <v>1.53</v>
+      </c>
+      <c r="AM143">
+        <v>2.38</v>
+      </c>
+      <c r="AN143">
+        <v>1.5</v>
+      </c>
+      <c r="AO143">
+        <v>1.22</v>
+      </c>
+      <c r="AP143">
+        <v>1.45</v>
+      </c>
+      <c r="AQ143">
+        <v>1.25</v>
+      </c>
+      <c r="AR143">
+        <v>0.88</v>
+      </c>
+      <c r="AS143">
+        <v>1.11</v>
+      </c>
+      <c r="AT143">
+        <v>1.11</v>
+      </c>
+      <c r="AU143">
+        <v>1.56</v>
+      </c>
+      <c r="AV143">
+        <v>1.44</v>
+      </c>
+      <c r="AW143">
+        <v>3</v>
+      </c>
+      <c r="AX143">
+        <v>2.25</v>
+      </c>
+      <c r="AY143">
+        <v>5.75</v>
+      </c>
+      <c r="AZ143">
+        <v>1.86</v>
+      </c>
+      <c r="BA143">
+        <v>1.22</v>
+      </c>
+      <c r="BB143">
+        <v>1.49</v>
+      </c>
+      <c r="BC143">
+        <v>2.2</v>
+      </c>
+      <c r="BD143">
+        <v>2.24</v>
+      </c>
+      <c r="BE143">
+        <v>3.04</v>
+      </c>
+      <c r="BF143">
+        <v>8</v>
+      </c>
+      <c r="BG143">
+        <v>9</v>
+      </c>
+      <c r="BH143">
+        <v>8</v>
+      </c>
+      <c r="BI143">
+        <v>6</v>
+      </c>
+      <c r="BJ143">
+        <v>16</v>
+      </c>
+      <c r="BK143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2593426</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44990.27083333334</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>71</v>
+      </c>
+      <c r="H144" t="s">
+        <v>77</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>185</v>
+      </c>
+      <c r="P144" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q144">
+        <v>7</v>
+      </c>
+      <c r="R144">
+        <v>5</v>
+      </c>
+      <c r="S144">
+        <v>12</v>
+      </c>
+      <c r="T144">
+        <v>2.4</v>
+      </c>
+      <c r="U144">
+        <v>2.2</v>
+      </c>
+      <c r="V144">
+        <v>4</v>
+      </c>
+      <c r="W144">
+        <v>1.36</v>
+      </c>
+      <c r="X144">
+        <v>3</v>
+      </c>
+      <c r="Y144">
+        <v>2.63</v>
+      </c>
+      <c r="Z144">
+        <v>1.44</v>
+      </c>
+      <c r="AA144">
+        <v>7</v>
+      </c>
+      <c r="AB144">
+        <v>1.1</v>
+      </c>
+      <c r="AC144">
+        <v>1.85</v>
+      </c>
+      <c r="AD144">
+        <v>3.6</v>
+      </c>
+      <c r="AE144">
+        <v>4</v>
+      </c>
+      <c r="AF144">
+        <v>1.02</v>
+      </c>
+      <c r="AG144">
+        <v>9.5</v>
+      </c>
+      <c r="AH144">
+        <v>1.22</v>
+      </c>
+      <c r="AI144">
+        <v>3.7</v>
+      </c>
+      <c r="AJ144">
+        <v>1.85</v>
+      </c>
+      <c r="AK144">
+        <v>1.95</v>
+      </c>
+      <c r="AL144">
+        <v>1.73</v>
+      </c>
+      <c r="AM144">
+        <v>2</v>
+      </c>
+      <c r="AN144">
+        <v>1.17</v>
+      </c>
+      <c r="AO144">
+        <v>1.27</v>
+      </c>
+      <c r="AP144">
+        <v>1.9</v>
+      </c>
+      <c r="AQ144">
+        <v>2.5</v>
+      </c>
+      <c r="AR144">
+        <v>0.63</v>
+      </c>
+      <c r="AS144">
+        <v>2.56</v>
+      </c>
+      <c r="AT144">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU144">
+        <v>1.69</v>
+      </c>
+      <c r="AV144">
+        <v>1.3</v>
+      </c>
+      <c r="AW144">
+        <v>2.99</v>
+      </c>
+      <c r="AX144">
+        <v>1.55</v>
+      </c>
+      <c r="AY144">
+        <v>5.75</v>
+      </c>
+      <c r="AZ144">
+        <v>2.85</v>
+      </c>
+      <c r="BA144">
+        <v>1.2</v>
+      </c>
+      <c r="BB144">
+        <v>1.39</v>
+      </c>
+      <c r="BC144">
+        <v>2.38</v>
+      </c>
+      <c r="BD144">
+        <v>2.2</v>
+      </c>
+      <c r="BE144">
+        <v>2.91</v>
+      </c>
+      <c r="BF144">
+        <v>3</v>
+      </c>
+      <c r="BG144">
+        <v>4</v>
+      </c>
+      <c r="BH144">
+        <v>8</v>
+      </c>
+      <c r="BI144">
+        <v>5</v>
+      </c>
+      <c r="BJ144">
+        <v>11</v>
+      </c>
+      <c r="BK144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2593420</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44990.35416666666</v>
+      </c>
+      <c r="F145">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s">
+        <v>80</v>
+      </c>
+      <c r="H145" t="s">
+        <v>69</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145" t="s">
+        <v>186</v>
+      </c>
+      <c r="P145" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q145">
+        <v>14</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+      <c r="S145">
+        <v>17</v>
+      </c>
+      <c r="T145">
+        <v>2.38</v>
+      </c>
+      <c r="U145">
+        <v>2.5</v>
+      </c>
+      <c r="V145">
+        <v>3.5</v>
+      </c>
+      <c r="W145">
+        <v>1.29</v>
+      </c>
+      <c r="X145">
+        <v>3.5</v>
+      </c>
+      <c r="Y145">
+        <v>2.25</v>
+      </c>
+      <c r="Z145">
+        <v>1.57</v>
+      </c>
+      <c r="AA145">
+        <v>5.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.14</v>
+      </c>
+      <c r="AC145">
+        <v>1.95</v>
+      </c>
+      <c r="AD145">
+        <v>4.33</v>
+      </c>
+      <c r="AE145">
+        <v>3.3</v>
+      </c>
+      <c r="AF145">
+        <v>1.04</v>
+      </c>
+      <c r="AG145">
+        <v>12</v>
+      </c>
+      <c r="AH145">
+        <v>1.13</v>
+      </c>
+      <c r="AI145">
+        <v>5</v>
+      </c>
+      <c r="AJ145">
+        <v>1.44</v>
+      </c>
+      <c r="AK145">
+        <v>2.7</v>
+      </c>
+      <c r="AL145">
+        <v>1.44</v>
+      </c>
+      <c r="AM145">
+        <v>2.63</v>
+      </c>
+      <c r="AN145">
+        <v>1.27</v>
+      </c>
+      <c r="AO145">
+        <v>1.25</v>
+      </c>
+      <c r="AP145">
+        <v>1.72</v>
+      </c>
+      <c r="AQ145">
+        <v>1.63</v>
+      </c>
+      <c r="AR145">
+        <v>1.63</v>
+      </c>
+      <c r="AS145">
+        <v>1.78</v>
+      </c>
+      <c r="AT145">
+        <v>1.44</v>
+      </c>
+      <c r="AU145">
+        <v>1.87</v>
+      </c>
+      <c r="AV145">
+        <v>1.59</v>
+      </c>
+      <c r="AW145">
+        <v>3.46</v>
+      </c>
+      <c r="AX145">
+        <v>1.71</v>
+      </c>
+      <c r="AY145">
+        <v>6</v>
+      </c>
+      <c r="AZ145">
+        <v>2.45</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>1.28</v>
+      </c>
+      <c r="BC145">
+        <v>1.5</v>
+      </c>
+      <c r="BD145">
+        <v>1.86</v>
+      </c>
+      <c r="BE145">
+        <v>2.43</v>
+      </c>
+      <c r="BF145">
+        <v>8</v>
+      </c>
+      <c r="BG145">
+        <v>3</v>
+      </c>
+      <c r="BH145">
+        <v>9</v>
+      </c>
+      <c r="BI145">
+        <v>5</v>
+      </c>
+      <c r="BJ145">
+        <v>17</v>
+      </c>
+      <c r="BK145">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,12 @@
     <t>['48', '60', '85', '90']</t>
   </si>
   <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['9', '48', '90+3']</t>
+  </si>
+  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -800,6 +806,18 @@
   </si>
   <si>
     <t>['14', '82']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['45', '81']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['13', '34']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1492,10 +1510,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1596,7 +1614,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1683,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT3">
         <v>1.11</v>
@@ -1787,7 +1805,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1978,7 +1996,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2065,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT5">
         <v>0.78</v>
@@ -2256,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT6">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2641,7 +2659,7 @@
         <v>2.56</v>
       </c>
       <c r="AT8">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2829,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT9">
         <v>0.5600000000000001</v>
@@ -2933,7 +2951,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3023,7 +3041,7 @@
         <v>1.44</v>
       </c>
       <c r="AT10">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3124,7 +3142,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3405,7 +3423,7 @@
         <v>0.78</v>
       </c>
       <c r="AT12">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3506,7 +3524,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3697,7 +3715,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3787,7 +3805,7 @@
         <v>1.78</v>
       </c>
       <c r="AT14">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3888,7 +3906,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4270,7 +4288,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4357,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT17">
         <v>0.67</v>
@@ -4461,7 +4479,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4548,10 +4566,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT18">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU18">
         <v>1.74</v>
@@ -4652,7 +4670,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4739,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT19">
         <v>0.5600000000000001</v>
@@ -4933,7 +4951,7 @@
         <v>2.11</v>
       </c>
       <c r="AT20">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU20">
         <v>1.86</v>
@@ -5121,10 +5139,10 @@
         <v>3</v>
       </c>
       <c r="AS21">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU21">
         <v>0.8100000000000001</v>
@@ -5225,7 +5243,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5312,10 +5330,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT22">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU22">
         <v>1.96</v>
@@ -5503,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT23">
         <v>1.22</v>
@@ -5989,7 +6007,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6180,7 +6198,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6371,7 +6389,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6562,7 +6580,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6649,7 +6667,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT29">
         <v>1.56</v>
@@ -6753,7 +6771,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6843,7 +6861,7 @@
         <v>1.11</v>
       </c>
       <c r="AT30">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU30">
         <v>0.91</v>
@@ -6944,7 +6962,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7034,7 +7052,7 @@
         <v>2.44</v>
       </c>
       <c r="AT31">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU31">
         <v>2.17</v>
@@ -7135,7 +7153,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7326,7 +7344,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7517,7 +7535,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7604,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT34">
         <v>1.11</v>
@@ -7795,7 +7813,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT35">
         <v>0.78</v>
@@ -7989,7 +8007,7 @@
         <v>1.44</v>
       </c>
       <c r="AT36">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU36">
         <v>2.23</v>
@@ -8090,7 +8108,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8180,7 +8198,7 @@
         <v>2.11</v>
       </c>
       <c r="AT37">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU37">
         <v>1.52</v>
@@ -8281,7 +8299,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8368,7 +8386,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT38">
         <v>0.5600000000000001</v>
@@ -8559,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT39">
         <v>1.22</v>
@@ -8663,7 +8681,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8753,7 +8771,7 @@
         <v>0.89</v>
       </c>
       <c r="AT40">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU40">
         <v>2.12</v>
@@ -8941,10 +8959,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT41">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU41">
         <v>1.51</v>
@@ -9045,7 +9063,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9132,7 +9150,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT42">
         <v>1.44</v>
@@ -9323,10 +9341,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT43">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU43">
         <v>2.14</v>
@@ -9427,7 +9445,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9618,7 +9636,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9899,7 +9917,7 @@
         <v>1.78</v>
       </c>
       <c r="AT46">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU46">
         <v>1.71</v>
@@ -10191,7 +10209,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10382,7 +10400,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10660,7 +10678,7 @@
         <v>1.67</v>
       </c>
       <c r="AS50">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT50">
         <v>1.56</v>
@@ -11042,7 +11060,7 @@
         <v>0.67</v>
       </c>
       <c r="AS52">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT52">
         <v>0.5600000000000001</v>
@@ -11233,10 +11251,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT53">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU53">
         <v>1.9</v>
@@ -11337,7 +11355,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11528,7 +11546,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>13</v>
@@ -11719,7 +11737,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11809,7 +11827,7 @@
         <v>1.44</v>
       </c>
       <c r="AT56">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU56">
         <v>2.16</v>
@@ -11910,7 +11928,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -12000,7 +12018,7 @@
         <v>0.78</v>
       </c>
       <c r="AT57">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU57">
         <v>1.55</v>
@@ -12191,7 +12209,7 @@
         <v>1.11</v>
       </c>
       <c r="AT58">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU58">
         <v>1.21</v>
@@ -12292,7 +12310,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12570,7 +12588,7 @@
         <v>0.33</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -12865,7 +12883,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -13056,7 +13074,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13143,10 +13161,10 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT63">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU63">
         <v>1.81</v>
@@ -13337,7 +13355,7 @@
         <v>2.56</v>
       </c>
       <c r="AT64">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU64">
         <v>1.72</v>
@@ -13525,7 +13543,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT65">
         <v>1.44</v>
@@ -13716,7 +13734,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT66">
         <v>0.67</v>
@@ -13820,7 +13838,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -13910,7 +13928,7 @@
         <v>2.44</v>
       </c>
       <c r="AT67">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU67">
         <v>1.83</v>
@@ -14011,7 +14029,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>12</v>
@@ -14202,7 +14220,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14480,7 +14498,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT70">
         <v>0.67</v>
@@ -14674,7 +14692,7 @@
         <v>1.44</v>
       </c>
       <c r="AT71">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU71">
         <v>1.52</v>
@@ -14775,7 +14793,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14862,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT72">
         <v>1.22</v>
@@ -15056,7 +15074,7 @@
         <v>0.89</v>
       </c>
       <c r="AT73">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU73">
         <v>2.03</v>
@@ -15244,10 +15262,10 @@
         <v>0.25</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU74">
         <v>1.43</v>
@@ -15539,7 +15557,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15626,10 +15644,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT76">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU76">
         <v>1.34</v>
@@ -15730,7 +15748,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15921,7 +15939,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -16112,7 +16130,7 @@
         <v>87</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16584,7 +16602,7 @@
         <v>1.44</v>
       </c>
       <c r="AT81">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU81">
         <v>1.65</v>
@@ -16772,10 +16790,10 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT82">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU82">
         <v>1.93</v>
@@ -16876,7 +16894,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -16963,7 +16981,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT83">
         <v>1.33</v>
@@ -17067,7 +17085,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17154,10 +17172,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT84">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU84">
         <v>1.27</v>
@@ -17258,7 +17276,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17449,7 +17467,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17539,7 +17557,7 @@
         <v>1.11</v>
       </c>
       <c r="AT86">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU86">
         <v>1.66</v>
@@ -17640,7 +17658,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17727,10 +17745,10 @@
         <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT87">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU87">
         <v>1.87</v>
@@ -17831,7 +17849,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18213,7 +18231,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18303,7 +18321,7 @@
         <v>1.44</v>
       </c>
       <c r="AT90">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU90">
         <v>1.49</v>
@@ -18494,7 +18512,7 @@
         <v>1.44</v>
       </c>
       <c r="AT91">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU91">
         <v>1.91</v>
@@ -18685,7 +18703,7 @@
         <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU92">
         <v>1.65</v>
@@ -18786,7 +18804,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18873,7 +18891,7 @@
         <v>0.2</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT93">
         <v>0.78</v>
@@ -19359,7 +19377,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19446,7 +19464,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT96">
         <v>0.67</v>
@@ -19741,7 +19759,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19828,7 +19846,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT98">
         <v>1.11</v>
@@ -19932,7 +19950,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20019,7 +20037,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT99">
         <v>1.44</v>
@@ -20210,7 +20228,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT100">
         <v>1.33</v>
@@ -20505,7 +20523,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20595,7 +20613,7 @@
         <v>2.11</v>
       </c>
       <c r="AT102">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU102">
         <v>1.58</v>
@@ -20696,7 +20714,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20786,7 +20804,7 @@
         <v>0.78</v>
       </c>
       <c r="AT103">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU103">
         <v>1.38</v>
@@ -21168,7 +21186,7 @@
         <v>1.78</v>
       </c>
       <c r="AT105">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU105">
         <v>1.46</v>
@@ -21269,7 +21287,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21356,10 +21374,10 @@
         <v>1</v>
       </c>
       <c r="AS106">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT106">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU106">
         <v>1.56</v>
@@ -21738,7 +21756,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT108">
         <v>0.67</v>
@@ -22033,7 +22051,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22224,7 +22242,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22415,7 +22433,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22502,10 +22520,10 @@
         <v>2.17</v>
       </c>
       <c r="AS112">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT112">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU112">
         <v>1.39</v>
@@ -22606,7 +22624,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22696,7 +22714,7 @@
         <v>0.89</v>
       </c>
       <c r="AT113">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU113">
         <v>1.99</v>
@@ -22797,7 +22815,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22988,7 +23006,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23075,7 +23093,7 @@
         <v>0.86</v>
       </c>
       <c r="AS115">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
         <v>1.11</v>
@@ -23266,10 +23284,10 @@
         <v>1.86</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT116">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU116">
         <v>1.81</v>
@@ -23370,7 +23388,7 @@
         <v>87</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23460,7 +23478,7 @@
         <v>1.78</v>
       </c>
       <c r="AT117">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU117">
         <v>1.53</v>
@@ -23752,7 +23770,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23943,7 +23961,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -24030,7 +24048,7 @@
         <v>1.17</v>
       </c>
       <c r="AS120">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT120">
         <v>1.44</v>
@@ -24134,7 +24152,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24325,7 +24343,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24415,7 +24433,7 @@
         <v>1.44</v>
       </c>
       <c r="AT122">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU122">
         <v>1.5</v>
@@ -24516,7 +24534,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24707,7 +24725,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -24794,7 +24812,7 @@
         <v>1.43</v>
       </c>
       <c r="AS124">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT124">
         <v>1.44</v>
@@ -24985,7 +25003,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT125">
         <v>0.5600000000000001</v>
@@ -25089,7 +25107,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25176,10 +25194,10 @@
         <v>2.29</v>
       </c>
       <c r="AS126">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT126">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU126">
         <v>1.54</v>
@@ -25561,7 +25579,7 @@
         <v>2.56</v>
       </c>
       <c r="AT128">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU128">
         <v>1.61</v>
@@ -25853,7 +25871,7 @@
         <v>87</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>14</v>
@@ -25940,7 +25958,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT130">
         <v>0.78</v>
@@ -26044,7 +26062,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26235,7 +26253,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26325,7 +26343,7 @@
         <v>2.11</v>
       </c>
       <c r="AT132">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AU132">
         <v>1.61</v>
@@ -26516,7 +26534,7 @@
         <v>1.44</v>
       </c>
       <c r="AT133">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AU133">
         <v>1.74</v>
@@ -26617,7 +26635,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26704,10 +26722,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT134">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU134">
         <v>1.35</v>
@@ -26808,7 +26826,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26895,7 +26913,7 @@
         <v>1.25</v>
       </c>
       <c r="AS135">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT135">
         <v>1.22</v>
@@ -26999,7 +27017,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27190,7 +27208,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27280,7 +27298,7 @@
         <v>0.89</v>
       </c>
       <c r="AT137">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AU137">
         <v>2.04</v>
@@ -27381,7 +27399,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27468,7 +27486,7 @@
         <v>1.38</v>
       </c>
       <c r="AS138">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT138">
         <v>1.56</v>
@@ -27659,7 +27677,7 @@
         <v>0.63</v>
       </c>
       <c r="AS139">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT139">
         <v>0.67</v>
@@ -27763,7 +27781,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27954,7 +27972,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28044,7 +28062,7 @@
         <v>1.44</v>
       </c>
       <c r="AT141">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AU141">
         <v>1.73</v>
@@ -28235,7 +28253,7 @@
         <v>2.44</v>
       </c>
       <c r="AT142">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU142">
         <v>2.08</v>
@@ -28336,7 +28354,7 @@
         <v>184</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28805,7 +28823,7 @@
         <v>1.63</v>
       </c>
       <c r="AS145">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT145">
         <v>1.44</v>
@@ -28859,6 +28877,1152 @@
         <v>17</v>
       </c>
       <c r="BK145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2593432</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44995.59027777778</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>72</v>
+      </c>
+      <c r="H146" t="s">
+        <v>76</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>139</v>
+      </c>
+      <c r="P146" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q146">
+        <v>7</v>
+      </c>
+      <c r="R146">
+        <v>5</v>
+      </c>
+      <c r="S146">
+        <v>12</v>
+      </c>
+      <c r="T146">
+        <v>5.5</v>
+      </c>
+      <c r="U146">
+        <v>2.3</v>
+      </c>
+      <c r="V146">
+        <v>2</v>
+      </c>
+      <c r="W146">
+        <v>1.3</v>
+      </c>
+      <c r="X146">
+        <v>3.2</v>
+      </c>
+      <c r="Y146">
+        <v>2.4</v>
+      </c>
+      <c r="Z146">
+        <v>1.5</v>
+      </c>
+      <c r="AA146">
+        <v>5.25</v>
+      </c>
+      <c r="AB146">
+        <v>1.13</v>
+      </c>
+      <c r="AC146">
+        <v>6.5</v>
+      </c>
+      <c r="AD146">
+        <v>4.2</v>
+      </c>
+      <c r="AE146">
+        <v>1.53</v>
+      </c>
+      <c r="AF146">
+        <v>1</v>
+      </c>
+      <c r="AG146">
+        <v>10.5</v>
+      </c>
+      <c r="AH146">
+        <v>1.2</v>
+      </c>
+      <c r="AI146">
+        <v>4</v>
+      </c>
+      <c r="AJ146">
+        <v>1.7</v>
+      </c>
+      <c r="AK146">
+        <v>2.1</v>
+      </c>
+      <c r="AL146">
+        <v>1.8</v>
+      </c>
+      <c r="AM146">
+        <v>1.91</v>
+      </c>
+      <c r="AN146">
+        <v>2.22</v>
+      </c>
+      <c r="AO146">
+        <v>1.21</v>
+      </c>
+      <c r="AP146">
+        <v>1.18</v>
+      </c>
+      <c r="AQ146">
+        <v>1.67</v>
+      </c>
+      <c r="AR146">
+        <v>1.67</v>
+      </c>
+      <c r="AS146">
+        <v>1.6</v>
+      </c>
+      <c r="AT146">
+        <v>1.6</v>
+      </c>
+      <c r="AU146">
+        <v>1.5</v>
+      </c>
+      <c r="AV146">
+        <v>2.05</v>
+      </c>
+      <c r="AW146">
+        <v>3.55</v>
+      </c>
+      <c r="AX146">
+        <v>3.95</v>
+      </c>
+      <c r="AY146">
+        <v>6.25</v>
+      </c>
+      <c r="AZ146">
+        <v>1.35</v>
+      </c>
+      <c r="BA146">
+        <v>1.28</v>
+      </c>
+      <c r="BB146">
+        <v>1.62</v>
+      </c>
+      <c r="BC146">
+        <v>2</v>
+      </c>
+      <c r="BD146">
+        <v>2.54</v>
+      </c>
+      <c r="BE146">
+        <v>3.48</v>
+      </c>
+      <c r="BF146">
+        <v>4</v>
+      </c>
+      <c r="BG146">
+        <v>2</v>
+      </c>
+      <c r="BH146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>4</v>
+      </c>
+      <c r="BJ146">
+        <v>4</v>
+      </c>
+      <c r="BK146">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2593431</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44995.59027777778</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>66</v>
+      </c>
+      <c r="H147" t="s">
+        <v>75</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>125</v>
+      </c>
+      <c r="P147" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q147">
+        <v>5</v>
+      </c>
+      <c r="R147">
+        <v>4</v>
+      </c>
+      <c r="S147">
+        <v>9</v>
+      </c>
+      <c r="T147">
+        <v>2.63</v>
+      </c>
+      <c r="U147">
+        <v>2.25</v>
+      </c>
+      <c r="V147">
+        <v>3.5</v>
+      </c>
+      <c r="W147">
+        <v>1.35</v>
+      </c>
+      <c r="X147">
+        <v>2.95</v>
+      </c>
+      <c r="Y147">
+        <v>2.6</v>
+      </c>
+      <c r="Z147">
+        <v>1.44</v>
+      </c>
+      <c r="AA147">
+        <v>6</v>
+      </c>
+      <c r="AB147">
+        <v>1.1</v>
+      </c>
+      <c r="AC147">
+        <v>2.15</v>
+      </c>
+      <c r="AD147">
+        <v>3.5</v>
+      </c>
+      <c r="AE147">
+        <v>3.4</v>
+      </c>
+      <c r="AF147">
+        <v>1.04</v>
+      </c>
+      <c r="AG147">
+        <v>10</v>
+      </c>
+      <c r="AH147">
+        <v>1.25</v>
+      </c>
+      <c r="AI147">
+        <v>3.75</v>
+      </c>
+      <c r="AJ147">
+        <v>1.75</v>
+      </c>
+      <c r="AK147">
+        <v>2.05</v>
+      </c>
+      <c r="AL147">
+        <v>1.62</v>
+      </c>
+      <c r="AM147">
+        <v>2.2</v>
+      </c>
+      <c r="AN147">
+        <v>1.33</v>
+      </c>
+      <c r="AO147">
+        <v>1.22</v>
+      </c>
+      <c r="AP147">
+        <v>1.75</v>
+      </c>
+      <c r="AQ147">
+        <v>1.22</v>
+      </c>
+      <c r="AR147">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS147">
+        <v>1.2</v>
+      </c>
+      <c r="AT147">
+        <v>0.6</v>
+      </c>
+      <c r="AU147">
+        <v>1.33</v>
+      </c>
+      <c r="AV147">
+        <v>1.18</v>
+      </c>
+      <c r="AW147">
+        <v>2.51</v>
+      </c>
+      <c r="AX147">
+        <v>1.55</v>
+      </c>
+      <c r="AY147">
+        <v>6</v>
+      </c>
+      <c r="AZ147">
+        <v>2.85</v>
+      </c>
+      <c r="BA147">
+        <v>1.19</v>
+      </c>
+      <c r="BB147">
+        <v>1.38</v>
+      </c>
+      <c r="BC147">
+        <v>2.1</v>
+      </c>
+      <c r="BD147">
+        <v>2.18</v>
+      </c>
+      <c r="BE147">
+        <v>2.88</v>
+      </c>
+      <c r="BF147">
+        <v>6</v>
+      </c>
+      <c r="BG147">
+        <v>2</v>
+      </c>
+      <c r="BH147">
+        <v>10</v>
+      </c>
+      <c r="BI147">
+        <v>4</v>
+      </c>
+      <c r="BJ147">
+        <v>16</v>
+      </c>
+      <c r="BK147">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2593430</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44995.59027777778</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>69</v>
+      </c>
+      <c r="H148" t="s">
+        <v>78</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>187</v>
+      </c>
+      <c r="P148" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q148">
+        <v>4</v>
+      </c>
+      <c r="R148">
+        <v>3</v>
+      </c>
+      <c r="S148">
+        <v>7</v>
+      </c>
+      <c r="T148">
+        <v>3.4</v>
+      </c>
+      <c r="U148">
+        <v>2.2</v>
+      </c>
+      <c r="V148">
+        <v>2.88</v>
+      </c>
+      <c r="W148">
+        <v>1.36</v>
+      </c>
+      <c r="X148">
+        <v>2.9</v>
+      </c>
+      <c r="Y148">
+        <v>2.62</v>
+      </c>
+      <c r="Z148">
+        <v>1.42</v>
+      </c>
+      <c r="AA148">
+        <v>6</v>
+      </c>
+      <c r="AB148">
+        <v>1.09</v>
+      </c>
+      <c r="AC148">
+        <v>3</v>
+      </c>
+      <c r="AD148">
+        <v>3.5</v>
+      </c>
+      <c r="AE148">
+        <v>2.3</v>
+      </c>
+      <c r="AF148">
+        <v>1.02</v>
+      </c>
+      <c r="AG148">
+        <v>9.5</v>
+      </c>
+      <c r="AH148">
+        <v>1.29</v>
+      </c>
+      <c r="AI148">
+        <v>3.4</v>
+      </c>
+      <c r="AJ148">
+        <v>1.9</v>
+      </c>
+      <c r="AK148">
+        <v>1.9</v>
+      </c>
+      <c r="AL148">
+        <v>1.73</v>
+      </c>
+      <c r="AM148">
+        <v>2</v>
+      </c>
+      <c r="AN148">
+        <v>1.54</v>
+      </c>
+      <c r="AO148">
+        <v>1.28</v>
+      </c>
+      <c r="AP148">
+        <v>1.44</v>
+      </c>
+      <c r="AQ148">
+        <v>1.44</v>
+      </c>
+      <c r="AR148">
+        <v>1.56</v>
+      </c>
+      <c r="AS148">
+        <v>1.6</v>
+      </c>
+      <c r="AT148">
+        <v>1.4</v>
+      </c>
+      <c r="AU148">
+        <v>1.51</v>
+      </c>
+      <c r="AV148">
+        <v>1.28</v>
+      </c>
+      <c r="AW148">
+        <v>2.79</v>
+      </c>
+      <c r="AX148">
+        <v>2.25</v>
+      </c>
+      <c r="AY148">
+        <v>6</v>
+      </c>
+      <c r="AZ148">
+        <v>1.83</v>
+      </c>
+      <c r="BA148">
+        <v>1.19</v>
+      </c>
+      <c r="BB148">
+        <v>1.34</v>
+      </c>
+      <c r="BC148">
+        <v>1.91</v>
+      </c>
+      <c r="BD148">
+        <v>2.09</v>
+      </c>
+      <c r="BE148">
+        <v>2.71</v>
+      </c>
+      <c r="BF148">
+        <v>5</v>
+      </c>
+      <c r="BG148">
+        <v>5</v>
+      </c>
+      <c r="BH148">
+        <v>5</v>
+      </c>
+      <c r="BI148">
+        <v>9</v>
+      </c>
+      <c r="BJ148">
+        <v>10</v>
+      </c>
+      <c r="BK148">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2593429</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44995.59027777778</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>68</v>
+      </c>
+      <c r="H149" t="s">
+        <v>70</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>87</v>
+      </c>
+      <c r="P149" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q149">
+        <v>6</v>
+      </c>
+      <c r="R149">
+        <v>3</v>
+      </c>
+      <c r="S149">
+        <v>9</v>
+      </c>
+      <c r="T149">
+        <v>6</v>
+      </c>
+      <c r="U149">
+        <v>2.5</v>
+      </c>
+      <c r="V149">
+        <v>1.83</v>
+      </c>
+      <c r="W149">
+        <v>1.29</v>
+      </c>
+      <c r="X149">
+        <v>3.44</v>
+      </c>
+      <c r="Y149">
+        <v>2.34</v>
+      </c>
+      <c r="Z149">
+        <v>1.56</v>
+      </c>
+      <c r="AA149">
+        <v>5.4</v>
+      </c>
+      <c r="AB149">
+        <v>1.13</v>
+      </c>
+      <c r="AC149">
+        <v>5.5</v>
+      </c>
+      <c r="AD149">
+        <v>4.2</v>
+      </c>
+      <c r="AE149">
+        <v>1.57</v>
+      </c>
+      <c r="AF149">
+        <v>1.03</v>
+      </c>
+      <c r="AG149">
+        <v>12</v>
+      </c>
+      <c r="AH149">
+        <v>1.18</v>
+      </c>
+      <c r="AI149">
+        <v>4.5</v>
+      </c>
+      <c r="AJ149">
+        <v>1.6</v>
+      </c>
+      <c r="AK149">
+        <v>2.3</v>
+      </c>
+      <c r="AL149">
+        <v>1.67</v>
+      </c>
+      <c r="AM149">
+        <v>2.1</v>
+      </c>
+      <c r="AN149">
+        <v>2.16</v>
+      </c>
+      <c r="AO149">
+        <v>1.22</v>
+      </c>
+      <c r="AP149">
+        <v>1.19</v>
+      </c>
+      <c r="AQ149">
+        <v>1</v>
+      </c>
+      <c r="AR149">
+        <v>2.44</v>
+      </c>
+      <c r="AS149">
+        <v>0.9</v>
+      </c>
+      <c r="AT149">
+        <v>2.5</v>
+      </c>
+      <c r="AU149">
+        <v>1.66</v>
+      </c>
+      <c r="AV149">
+        <v>1.74</v>
+      </c>
+      <c r="AW149">
+        <v>3.4</v>
+      </c>
+      <c r="AX149">
+        <v>3.55</v>
+      </c>
+      <c r="AY149">
+        <v>6.75</v>
+      </c>
+      <c r="AZ149">
+        <v>1.38</v>
+      </c>
+      <c r="BA149">
+        <v>1.21</v>
+      </c>
+      <c r="BB149">
+        <v>1.4</v>
+      </c>
+      <c r="BC149">
+        <v>2.1</v>
+      </c>
+      <c r="BD149">
+        <v>2.23</v>
+      </c>
+      <c r="BE149">
+        <v>2.93</v>
+      </c>
+      <c r="BF149">
+        <v>3</v>
+      </c>
+      <c r="BG149">
+        <v>6</v>
+      </c>
+      <c r="BH149">
+        <v>8</v>
+      </c>
+      <c r="BI149">
+        <v>5</v>
+      </c>
+      <c r="BJ149">
+        <v>11</v>
+      </c>
+      <c r="BK149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2593428</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44995.59027777778</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>80</v>
+      </c>
+      <c r="H150" t="s">
+        <v>67</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>188</v>
+      </c>
+      <c r="P150" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q150">
+        <v>2</v>
+      </c>
+      <c r="R150">
+        <v>6</v>
+      </c>
+      <c r="S150">
+        <v>8</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
+        <v>2.38</v>
+      </c>
+      <c r="V150">
+        <v>3.2</v>
+      </c>
+      <c r="W150">
+        <v>1.3</v>
+      </c>
+      <c r="X150">
+        <v>3.25</v>
+      </c>
+      <c r="Y150">
+        <v>2.39</v>
+      </c>
+      <c r="Z150">
+        <v>1.52</v>
+      </c>
+      <c r="AA150">
+        <v>5.45</v>
+      </c>
+      <c r="AB150">
+        <v>1.12</v>
+      </c>
+      <c r="AC150">
+        <v>2.25</v>
+      </c>
+      <c r="AD150">
+        <v>3.6</v>
+      </c>
+      <c r="AE150">
+        <v>3</v>
+      </c>
+      <c r="AF150">
+        <v>1.04</v>
+      </c>
+      <c r="AG150">
+        <v>12</v>
+      </c>
+      <c r="AH150">
+        <v>1.2</v>
+      </c>
+      <c r="AI150">
+        <v>4.33</v>
+      </c>
+      <c r="AJ150">
+        <v>1.57</v>
+      </c>
+      <c r="AK150">
+        <v>2.35</v>
+      </c>
+      <c r="AL150">
+        <v>1.5</v>
+      </c>
+      <c r="AM150">
+        <v>2.5</v>
+      </c>
+      <c r="AN150">
+        <v>1.3</v>
+      </c>
+      <c r="AO150">
+        <v>1.2</v>
+      </c>
+      <c r="AP150">
+        <v>1.7</v>
+      </c>
+      <c r="AQ150">
+        <v>1.78</v>
+      </c>
+      <c r="AR150">
+        <v>1.89</v>
+      </c>
+      <c r="AS150">
+        <v>1.9</v>
+      </c>
+      <c r="AT150">
+        <v>1.7</v>
+      </c>
+      <c r="AU150">
+        <v>1.91</v>
+      </c>
+      <c r="AV150">
+        <v>1.63</v>
+      </c>
+      <c r="AW150">
+        <v>3.54</v>
+      </c>
+      <c r="AX150">
+        <v>1.76</v>
+      </c>
+      <c r="AY150">
+        <v>6</v>
+      </c>
+      <c r="AZ150">
+        <v>2.35</v>
+      </c>
+      <c r="BA150">
+        <v>1.17</v>
+      </c>
+      <c r="BB150">
+        <v>1.29</v>
+      </c>
+      <c r="BC150">
+        <v>1.91</v>
+      </c>
+      <c r="BD150">
+        <v>1.97</v>
+      </c>
+      <c r="BE150">
+        <v>2.46</v>
+      </c>
+      <c r="BF150">
+        <v>4</v>
+      </c>
+      <c r="BG150">
+        <v>2</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>4</v>
+      </c>
+      <c r="BK150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2593434</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44995.6875</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>65</v>
+      </c>
+      <c r="H151" t="s">
+        <v>71</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>87</v>
+      </c>
+      <c r="P151" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q151">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <v>5</v>
+      </c>
+      <c r="T151">
+        <v>3.4</v>
+      </c>
+      <c r="U151">
+        <v>2.1</v>
+      </c>
+      <c r="V151">
+        <v>2.88</v>
+      </c>
+      <c r="W151">
+        <v>1.36</v>
+      </c>
+      <c r="X151">
+        <v>3</v>
+      </c>
+      <c r="Y151">
+        <v>2.75</v>
+      </c>
+      <c r="Z151">
+        <v>1.4</v>
+      </c>
+      <c r="AA151">
+        <v>6</v>
+      </c>
+      <c r="AB151">
+        <v>1.11</v>
+      </c>
+      <c r="AC151">
+        <v>2.88</v>
+      </c>
+      <c r="AD151">
+        <v>3.3</v>
+      </c>
+      <c r="AE151">
+        <v>2.3</v>
+      </c>
+      <c r="AF151">
+        <v>1.05</v>
+      </c>
+      <c r="AG151">
+        <v>9</v>
+      </c>
+      <c r="AH151">
+        <v>1.29</v>
+      </c>
+      <c r="AI151">
+        <v>3.5</v>
+      </c>
+      <c r="AJ151">
+        <v>1.87</v>
+      </c>
+      <c r="AK151">
+        <v>1.9</v>
+      </c>
+      <c r="AL151">
+        <v>1.73</v>
+      </c>
+      <c r="AM151">
+        <v>2</v>
+      </c>
+      <c r="AN151">
+        <v>1.62</v>
+      </c>
+      <c r="AO151">
+        <v>1.28</v>
+      </c>
+      <c r="AP151">
+        <v>1.38</v>
+      </c>
+      <c r="AQ151">
+        <v>1.67</v>
+      </c>
+      <c r="AR151">
+        <v>0.89</v>
+      </c>
+      <c r="AS151">
+        <v>1.5</v>
+      </c>
+      <c r="AT151">
+        <v>1.1</v>
+      </c>
+      <c r="AU151">
+        <v>1.49</v>
+      </c>
+      <c r="AV151">
+        <v>1.45</v>
+      </c>
+      <c r="AW151">
+        <v>2.94</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>5.75</v>
+      </c>
+      <c r="AZ151">
+        <v>2.05</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>1.33</v>
+      </c>
+      <c r="BC151">
+        <v>2.1</v>
+      </c>
+      <c r="BD151">
+        <v>2.05</v>
+      </c>
+      <c r="BE151">
+        <v>2.64</v>
+      </c>
+      <c r="BF151">
+        <v>2</v>
+      </c>
+      <c r="BG151">
+        <v>6</v>
+      </c>
+      <c r="BH151">
+        <v>1</v>
+      </c>
+      <c r="BI151">
+        <v>2</v>
+      </c>
+      <c r="BJ151">
+        <v>3</v>
+      </c>
+      <c r="BK151">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -29697,10 +29697,10 @@
         <v>2</v>
       </c>
       <c r="R150">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S150">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T150">
         <v>2.75</v>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,9 @@
     <t>['9', '48', '90+3']</t>
   </si>
   <si>
+    <t>['47', '54', '90+4']</t>
+  </si>
+  <si>
     <t>['29', '42']</t>
   </si>
   <si>
@@ -818,6 +821,9 @@
   </si>
   <si>
     <t>['13', '34']</t>
+  </si>
+  <si>
+    <t>['50', '60', '62', '85']</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1614,7 +1620,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>5</v>
@@ -1704,7 +1710,7 @@
         <v>1.2</v>
       </c>
       <c r="AT3">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1805,7 +1811,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1996,7 +2002,7 @@
         <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2468,7 +2474,7 @@
         <v>1.44</v>
       </c>
       <c r="AT7">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2951,7 +2957,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3142,7 +3148,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3524,7 +3530,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3715,7 +3721,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3802,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT14">
         <v>1.1</v>
@@ -3906,7 +3912,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4184,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT16">
         <v>1.33</v>
@@ -4288,7 +4294,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4479,7 +4485,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>11</v>
@@ -4670,7 +4676,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -5243,7 +5249,7 @@
         <v>87</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5524,7 +5530,7 @@
         <v>1.2</v>
       </c>
       <c r="AT23">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU23">
         <v>1.4</v>
@@ -5903,10 +5909,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT25">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>2.6</v>
@@ -6007,7 +6013,7 @@
         <v>102</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>5</v>
@@ -6094,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT26">
         <v>0.67</v>
@@ -6198,7 +6204,7 @@
         <v>103</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6389,7 +6395,7 @@
         <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -6580,7 +6586,7 @@
         <v>105</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6771,7 +6777,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6962,7 +6968,7 @@
         <v>106</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -7153,7 +7159,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7344,7 +7350,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -7535,7 +7541,7 @@
         <v>109</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7625,7 +7631,7 @@
         <v>0.9</v>
       </c>
       <c r="AT34">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>2.04</v>
@@ -8108,7 +8114,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>10</v>
@@ -8299,7 +8305,7 @@
         <v>105</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>10</v>
@@ -8580,7 +8586,7 @@
         <v>1.6</v>
       </c>
       <c r="AT39">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU39">
         <v>1.49</v>
@@ -8681,7 +8687,7 @@
         <v>87</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8768,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT40">
         <v>1.6</v>
@@ -9063,7 +9069,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9445,7 +9451,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q44">
         <v>8</v>
@@ -9636,7 +9642,7 @@
         <v>118</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>9</v>
@@ -9914,7 +9920,7 @@
         <v>2</v>
       </c>
       <c r="AS46">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT46">
         <v>2.5</v>
@@ -10209,7 +10215,7 @@
         <v>120</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10400,7 +10406,7 @@
         <v>121</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10490,7 +10496,7 @@
         <v>2.44</v>
       </c>
       <c r="AT49">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.79</v>
@@ -11355,7 +11361,7 @@
         <v>87</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -11445,7 +11451,7 @@
         <v>1.44</v>
       </c>
       <c r="AT54">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU54">
         <v>1.09</v>
@@ -11546,7 +11552,7 @@
         <v>126</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>13</v>
@@ -11633,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT55">
         <v>0.67</v>
@@ -11737,7 +11743,7 @@
         <v>127</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11928,7 +11934,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>13</v>
@@ -12310,7 +12316,7 @@
         <v>130</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12397,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT59">
         <v>1.44</v>
@@ -12883,7 +12889,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q62">
         <v>2</v>
@@ -12973,7 +12979,7 @@
         <v>1.44</v>
       </c>
       <c r="AT62">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13074,7 +13080,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -13838,7 +13844,7 @@
         <v>87</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>9</v>
@@ -14029,7 +14035,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>12</v>
@@ -14220,7 +14226,7 @@
         <v>138</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>8</v>
@@ -14793,7 +14799,7 @@
         <v>87</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14883,7 +14889,7 @@
         <v>1.9</v>
       </c>
       <c r="AT72">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU72">
         <v>1.86</v>
@@ -15071,7 +15077,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT73">
         <v>1.4</v>
@@ -15557,7 +15563,7 @@
         <v>127</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>3</v>
@@ -15748,7 +15754,7 @@
         <v>142</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15939,7 +15945,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>6</v>
@@ -16130,7 +16136,7 @@
         <v>87</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16408,7 +16414,7 @@
         <v>0.25</v>
       </c>
       <c r="AS80">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT80">
         <v>0.78</v>
@@ -16894,7 +16900,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -17085,7 +17091,7 @@
         <v>87</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17276,7 +17282,7 @@
         <v>87</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -17366,7 +17372,7 @@
         <v>0.78</v>
       </c>
       <c r="AT85">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU85">
         <v>1.39</v>
@@ -17467,7 +17473,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -17658,7 +17664,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>12</v>
@@ -17849,7 +17855,7 @@
         <v>87</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17936,7 +17942,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT88">
         <v>1.56</v>
@@ -18231,7 +18237,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -18804,7 +18810,7 @@
         <v>87</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -19273,10 +19279,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT95">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU95">
         <v>1.34</v>
@@ -19377,7 +19383,7 @@
         <v>87</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>7</v>
@@ -19655,7 +19661,7 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT97">
         <v>1.44</v>
@@ -19759,7 +19765,7 @@
         <v>154</v>
       </c>
       <c r="P98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>3</v>
@@ -19849,7 +19855,7 @@
         <v>1.9</v>
       </c>
       <c r="AT98">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.91</v>
@@ -19950,7 +19956,7 @@
         <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20523,7 +20529,7 @@
         <v>87</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -20714,7 +20720,7 @@
         <v>158</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21183,7 +21189,7 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT105">
         <v>1.4</v>
@@ -21287,7 +21293,7 @@
         <v>159</v>
       </c>
       <c r="P106" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -22051,7 +22057,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>5</v>
@@ -22141,7 +22147,7 @@
         <v>1.44</v>
       </c>
       <c r="AT110">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU110">
         <v>1.48</v>
@@ -22242,7 +22248,7 @@
         <v>163</v>
       </c>
       <c r="P111" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -22433,7 +22439,7 @@
         <v>164</v>
       </c>
       <c r="P112" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22624,7 +22630,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22711,7 +22717,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT113">
         <v>0.6</v>
@@ -22815,7 +22821,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23006,7 +23012,7 @@
         <v>166</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23096,7 +23102,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU115">
         <v>1.49</v>
@@ -23388,7 +23394,7 @@
         <v>87</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23475,7 +23481,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT117">
         <v>1.6</v>
@@ -23669,7 +23675,7 @@
         <v>2.56</v>
       </c>
       <c r="AT118">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU118">
         <v>1.54</v>
@@ -23770,7 +23776,7 @@
         <v>168</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23961,7 +23967,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>8</v>
@@ -24152,7 +24158,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24343,7 +24349,7 @@
         <v>171</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>7</v>
@@ -24534,7 +24540,7 @@
         <v>87</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24725,7 +24731,7 @@
         <v>172</v>
       </c>
       <c r="P124" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q124">
         <v>8</v>
@@ -25107,7 +25113,7 @@
         <v>87</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25871,7 +25877,7 @@
         <v>87</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>14</v>
@@ -26062,7 +26068,7 @@
         <v>177</v>
       </c>
       <c r="P131" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26149,7 +26155,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT131">
         <v>1.33</v>
@@ -26253,7 +26259,7 @@
         <v>178</v>
       </c>
       <c r="P132" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26635,7 +26641,7 @@
         <v>87</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26826,7 +26832,7 @@
         <v>180</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26916,7 +26922,7 @@
         <v>1.6</v>
       </c>
       <c r="AT135">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU135">
         <v>1.45</v>
@@ -27017,7 +27023,7 @@
         <v>181</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>5</v>
@@ -27208,7 +27214,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>2</v>
@@ -27295,7 +27301,7 @@
         <v>2.38</v>
       </c>
       <c r="AS137">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT137">
         <v>2.5</v>
@@ -27399,7 +27405,7 @@
         <v>87</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27781,7 +27787,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>7</v>
@@ -27972,7 +27978,7 @@
         <v>87</v>
       </c>
       <c r="P141" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28354,7 +28360,7 @@
         <v>184</v>
       </c>
       <c r="P143" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28444,7 +28450,7 @@
         <v>1.11</v>
       </c>
       <c r="AT143">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU143">
         <v>1.56</v>
@@ -28927,7 +28933,7 @@
         <v>139</v>
       </c>
       <c r="P146" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>7</v>
@@ -29500,7 +29506,7 @@
         <v>87</v>
       </c>
       <c r="P149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q149">
         <v>6</v>
@@ -29691,7 +29697,7 @@
         <v>188</v>
       </c>
       <c r="P150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q150">
         <v>2</v>
@@ -29882,7 +29888,7 @@
         <v>87</v>
       </c>
       <c r="P151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30024,6 +30030,388 @@
       </c>
       <c r="BK151">
         <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2593433</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44997.27083333334</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>77</v>
+      </c>
+      <c r="H152" t="s">
+        <v>73</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>189</v>
+      </c>
+      <c r="P152" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q152">
+        <v>4</v>
+      </c>
+      <c r="R152">
+        <v>7</v>
+      </c>
+      <c r="S152">
+        <v>11</v>
+      </c>
+      <c r="T152">
+        <v>2.88</v>
+      </c>
+      <c r="U152">
+        <v>2.2</v>
+      </c>
+      <c r="V152">
+        <v>3.25</v>
+      </c>
+      <c r="W152">
+        <v>1.33</v>
+      </c>
+      <c r="X152">
+        <v>3.25</v>
+      </c>
+      <c r="Y152">
+        <v>2.63</v>
+      </c>
+      <c r="Z152">
+        <v>1.44</v>
+      </c>
+      <c r="AA152">
+        <v>6.5</v>
+      </c>
+      <c r="AB152">
+        <v>1.11</v>
+      </c>
+      <c r="AC152">
+        <v>2.3</v>
+      </c>
+      <c r="AD152">
+        <v>3.5</v>
+      </c>
+      <c r="AE152">
+        <v>3</v>
+      </c>
+      <c r="AF152">
+        <v>1.04</v>
+      </c>
+      <c r="AG152">
+        <v>10</v>
+      </c>
+      <c r="AH152">
+        <v>1.22</v>
+      </c>
+      <c r="AI152">
+        <v>4</v>
+      </c>
+      <c r="AJ152">
+        <v>1.75</v>
+      </c>
+      <c r="AK152">
+        <v>2.05</v>
+      </c>
+      <c r="AL152">
+        <v>1.62</v>
+      </c>
+      <c r="AM152">
+        <v>2.2</v>
+      </c>
+      <c r="AN152">
+        <v>1.38</v>
+      </c>
+      <c r="AO152">
+        <v>1.22</v>
+      </c>
+      <c r="AP152">
+        <v>1.57</v>
+      </c>
+      <c r="AQ152">
+        <v>1.78</v>
+      </c>
+      <c r="AR152">
+        <v>1.11</v>
+      </c>
+      <c r="AS152">
+        <v>1.9</v>
+      </c>
+      <c r="AT152">
+        <v>1</v>
+      </c>
+      <c r="AU152">
+        <v>1.42</v>
+      </c>
+      <c r="AV152">
+        <v>1.51</v>
+      </c>
+      <c r="AW152">
+        <v>2.93</v>
+      </c>
+      <c r="AX152">
+        <v>1.71</v>
+      </c>
+      <c r="AY152">
+        <v>6</v>
+      </c>
+      <c r="AZ152">
+        <v>2.5</v>
+      </c>
+      <c r="BA152">
+        <v>1.24</v>
+      </c>
+      <c r="BB152">
+        <v>1.44</v>
+      </c>
+      <c r="BC152">
+        <v>1.83</v>
+      </c>
+      <c r="BD152">
+        <v>2.32</v>
+      </c>
+      <c r="BE152">
+        <v>3.18</v>
+      </c>
+      <c r="BF152">
+        <v>5</v>
+      </c>
+      <c r="BG152">
+        <v>5</v>
+      </c>
+      <c r="BH152">
+        <v>1</v>
+      </c>
+      <c r="BI152">
+        <v>1</v>
+      </c>
+      <c r="BJ152">
+        <v>6</v>
+      </c>
+      <c r="BK152">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2593435</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44997.35416666666</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" t="s">
+        <v>74</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>4</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>87</v>
+      </c>
+      <c r="P153" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q153">
+        <v>9</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>11</v>
+      </c>
+      <c r="T153">
+        <v>2.4</v>
+      </c>
+      <c r="U153">
+        <v>2.3</v>
+      </c>
+      <c r="V153">
+        <v>3.75</v>
+      </c>
+      <c r="W153">
+        <v>1.33</v>
+      </c>
+      <c r="X153">
+        <v>3.25</v>
+      </c>
+      <c r="Y153">
+        <v>2.5</v>
+      </c>
+      <c r="Z153">
+        <v>1.5</v>
+      </c>
+      <c r="AA153">
+        <v>6.5</v>
+      </c>
+      <c r="AB153">
+        <v>1.11</v>
+      </c>
+      <c r="AC153">
+        <v>1.85</v>
+      </c>
+      <c r="AD153">
+        <v>3.8</v>
+      </c>
+      <c r="AE153">
+        <v>3.6</v>
+      </c>
+      <c r="AF153">
+        <v>0</v>
+      </c>
+      <c r="AG153">
+        <v>16.75</v>
+      </c>
+      <c r="AH153">
+        <v>1.15</v>
+      </c>
+      <c r="AI153">
+        <v>4.7</v>
+      </c>
+      <c r="AJ153">
+        <v>1.62</v>
+      </c>
+      <c r="AK153">
+        <v>2.25</v>
+      </c>
+      <c r="AL153">
+        <v>1.62</v>
+      </c>
+      <c r="AM153">
+        <v>2.2</v>
+      </c>
+      <c r="AN153">
+        <v>1.3</v>
+      </c>
+      <c r="AO153">
+        <v>1.25</v>
+      </c>
+      <c r="AP153">
+        <v>1.9</v>
+      </c>
+      <c r="AQ153">
+        <v>0.89</v>
+      </c>
+      <c r="AR153">
+        <v>1.22</v>
+      </c>
+      <c r="AS153">
+        <v>0.8</v>
+      </c>
+      <c r="AT153">
+        <v>1.4</v>
+      </c>
+      <c r="AU153">
+        <v>1.93</v>
+      </c>
+      <c r="AV153">
+        <v>1.3</v>
+      </c>
+      <c r="AW153">
+        <v>3.23</v>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153">
+        <v>0</v>
+      </c>
+      <c r="AZ153">
+        <v>0</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>2</v>
+      </c>
+      <c r="BD153">
+        <v>2.09</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>5</v>
+      </c>
+      <c r="BG153">
+        <v>9</v>
+      </c>
+      <c r="BH153">
+        <v>3</v>
+      </c>
+      <c r="BI153">
+        <v>1</v>
+      </c>
+      <c r="BJ153">
+        <v>8</v>
+      </c>
+      <c r="BK153">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0.9</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT7" t="n">
         <v>1.4</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT8" t="n">
         <v>1.4</v>
@@ -2324,7 +2324,7 @@
         <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT10" t="n">
         <v>2.5</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT11" t="n">
         <v>1.44</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT12" t="n">
         <v>1.7</v>
@@ -3136,7 +3136,7 @@
         <v>2.44</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.9</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU19" t="n">
         <v>1.54</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>1.6</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU24" t="n">
         <v>1.45</v>
@@ -5775,7 +5775,7 @@
         <v>1.9</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU26" t="n">
         <v>1.7</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU27" t="n">
         <v>1.24</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU28" t="n">
         <v>2.89</v>
@@ -6384,7 +6384,7 @@
         <v>1.9</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT30" t="n">
         <v>1.7</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT32" t="n">
         <v>1.44</v>
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.72</v>
@@ -7602,7 +7602,7 @@
         <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU35" t="n">
         <v>1.69</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT36" t="n">
         <v>0.6</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.4</v>
@@ -8211,7 +8211,7 @@
         <v>1.5</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU38" t="n">
         <v>0.97</v>
@@ -9023,7 +9023,7 @@
         <v>1.9</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU42" t="n">
         <v>1.72</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT45" t="n">
         <v>1.44</v>
@@ -10035,10 +10035,10 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.05</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU48" t="n">
         <v>1.91</v>
@@ -10647,7 +10647,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU50" t="n">
         <v>1.66</v>
@@ -10847,10 +10847,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU51" t="n">
         <v>1.59</v>
@@ -11053,7 +11053,7 @@
         <v>1.2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU52" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT54" t="n">
         <v>1.4</v>
@@ -11662,7 +11662,7 @@
         <v>0.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU55" t="n">
         <v>1.94</v>
@@ -11862,7 +11862,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT56" t="n">
         <v>1.4</v>
@@ -12065,7 +12065,7 @@
         <v>0.67</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT57" t="n">
         <v>1.1</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT58" t="n">
         <v>0.6</v>
@@ -12474,7 +12474,7 @@
         <v>1.9</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU59" t="n">
         <v>1.48</v>
@@ -12677,7 +12677,7 @@
         <v>0.9</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU60" t="n">
         <v>1.96</v>
@@ -12880,7 +12880,7 @@
         <v>2.44</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.89</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT64" t="n">
         <v>1.7</v>
@@ -13895,7 +13895,7 @@
         <v>1.6</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14298,10 +14298,10 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU69" t="n">
         <v>1.63</v>
@@ -14707,7 +14707,7 @@
         <v>1.6</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU70" t="n">
         <v>1.71</v>
@@ -14907,7 +14907,7 @@
         <v>1.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT71" t="n">
         <v>1.1</v>
@@ -15719,10 +15719,10 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT77" t="n">
         <v>1.44</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU78" t="n">
         <v>1.72</v>
@@ -16531,10 +16531,10 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU79" t="n">
         <v>1.69</v>
@@ -16737,7 +16737,7 @@
         <v>1.9</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU80" t="n">
         <v>1.37</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT81" t="n">
         <v>1.6</v>
@@ -17346,7 +17346,7 @@
         <v>1.6</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17749,7 +17749,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -17952,7 +17952,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT86" t="n">
         <v>1.6</v>
@@ -18361,7 +18361,7 @@
         <v>0.8</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.91</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU89" t="n">
         <v>1.6</v>
@@ -18764,7 +18764,7 @@
         <v>0.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT90" t="n">
         <v>0.6</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT91" t="n">
         <v>1.1</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT92" t="n">
         <v>1.7</v>
@@ -19376,7 +19376,7 @@
         <v>1.6</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU93" t="n">
         <v>1.5</v>
@@ -19579,7 +19579,7 @@
         <v>2.44</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU94" t="n">
         <v>1.92</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20797,7 +20797,7 @@
         <v>1.2</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU100" t="n">
         <v>1.33</v>
@@ -20997,10 +20997,10 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU101" t="n">
         <v>1.51</v>
@@ -21200,7 +21200,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
         <v>2.5</v>
@@ -21403,7 +21403,7 @@
         <v>1</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT103" t="n">
         <v>1.6</v>
@@ -21606,10 +21606,10 @@
         <v>1.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU104" t="n">
         <v>1.59</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU107" t="n">
         <v>1.77</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22624,7 +22624,7 @@
         <v>2.44</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU109" t="n">
         <v>2.04</v>
@@ -22824,7 +22824,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT110" t="n">
         <v>1.4</v>
@@ -23027,10 +23027,10 @@
         <v>0.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU111" t="n">
         <v>1.57</v>
@@ -23636,10 +23636,10 @@
         <v>1.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU114" t="n">
         <v>1.73</v>
@@ -24448,7 +24448,7 @@
         <v>1.43</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT118" t="n">
         <v>1.4</v>
@@ -24651,10 +24651,10 @@
         <v>0.57</v>
       </c>
       <c r="AS119" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU119" t="n">
         <v>1.28</v>
@@ -24857,7 +24857,7 @@
         <v>1.2</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU120" t="n">
         <v>1.33</v>
@@ -25057,7 +25057,7 @@
         <v>1.86</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
         <v>1.44</v>
@@ -25260,7 +25260,7 @@
         <v>2</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT122" t="n">
         <v>1.7</v>
@@ -25463,10 +25463,10 @@
         <v>0.29</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU123" t="n">
         <v>1.49</v>
@@ -25669,7 +25669,7 @@
         <v>1.6</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU124" t="n">
         <v>1.37</v>
@@ -25872,7 +25872,7 @@
         <v>1.9</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU125" t="n">
         <v>1.88</v>
@@ -26278,7 +26278,7 @@
         <v>2.44</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU127" t="n">
         <v>2.08</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT128" t="n">
         <v>0.6</v>
@@ -26681,10 +26681,10 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU129" t="n">
         <v>1.75</v>
@@ -26887,7 +26887,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU130" t="n">
         <v>1.49</v>
@@ -27090,7 +27090,7 @@
         <v>1.9</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU131" t="n">
         <v>1.44</v>
@@ -27290,7 +27290,7 @@
         <v>1</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
         <v>1.1</v>
@@ -27493,7 +27493,7 @@
         <v>1.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT133" t="n">
         <v>1.4</v>
@@ -28102,10 +28102,10 @@
         <v>0.75</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU136" t="n">
         <v>1.27</v>
@@ -28511,7 +28511,7 @@
         <v>0.9</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU138" t="n">
         <v>1.76</v>
@@ -28714,7 +28714,7 @@
         <v>1.6</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU139" t="n">
         <v>1.55</v>
@@ -28914,10 +28914,10 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU140" t="n">
         <v>1.49</v>
@@ -29117,7 +29117,7 @@
         <v>1.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT141" t="n">
         <v>1.7</v>
@@ -29523,7 +29523,7 @@
         <v>0.88</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT143" t="n">
         <v>1</v>
@@ -29726,10 +29726,10 @@
         <v>0.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -31608,6 +31608,1427 @@
       </c>
       <c r="BK153" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2593438</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45002.59027777778</v>
+      </c>
+      <c r="F154" t="n">
+        <v>20</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['44', '49']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['9', '60']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>1</v>
+      </c>
+      <c r="R154" t="n">
+        <v>4</v>
+      </c>
+      <c r="S154" t="n">
+        <v>5</v>
+      </c>
+      <c r="T154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V154" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2593441</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45002.59027777778</v>
+      </c>
+      <c r="F155" t="n">
+        <v>20</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>2</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>4</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['29', '45+1', '78']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>5</v>
+      </c>
+      <c r="R155" t="n">
+        <v>6</v>
+      </c>
+      <c r="S155" t="n">
+        <v>11</v>
+      </c>
+      <c r="T155" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2593443</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45002.59027777778</v>
+      </c>
+      <c r="F156" t="n">
+        <v>20</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['60', '76']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>4</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3</v>
+      </c>
+      <c r="S156" t="n">
+        <v>7</v>
+      </c>
+      <c r="T156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2593439</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45002.6875</v>
+      </c>
+      <c r="F157" t="n">
+        <v>20</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>7</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>10</v>
+      </c>
+      <c r="T157" t="n">
+        <v>3</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2593437</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['7', '88']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['56']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>1</v>
+      </c>
+      <c r="R158" t="n">
+        <v>7</v>
+      </c>
+      <c r="S158" t="n">
+        <v>8</v>
+      </c>
+      <c r="T158" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2593440</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F159" t="n">
+        <v>20</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['11', '63', '89']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>7</v>
+      </c>
+      <c r="R159" t="n">
+        <v>3</v>
+      </c>
+      <c r="S159" t="n">
+        <v>10</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V159" t="n">
+        <v>6</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2593442</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F160" t="n">
+        <v>20</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>2</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2</v>
+      </c>
+      <c r="N160" t="n">
+        <v>4</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['55', '65']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['11', '25']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>14</v>
+      </c>
+      <c r="R160" t="n">
+        <v>7</v>
+      </c>
+      <c r="S160" t="n">
+        <v>21</v>
+      </c>
+      <c r="T160" t="n">
+        <v>3</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X160" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT5" t="n">
         <v>0.7</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.6</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.6</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT9" t="n">
         <v>0.6</v>
@@ -2527,7 +2527,7 @@
         <v>1.4</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT16" t="n">
         <v>1.2</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT17" t="n">
         <v>0.7</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU18" t="n">
         <v>1.74</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT19" t="n">
         <v>0.6</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU20" t="n">
         <v>1.86</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU21" t="n">
         <v>0.8100000000000001</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU22" t="n">
         <v>1.96</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU23" t="n">
         <v>1.4</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT26" t="n">
         <v>0.6</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT29" t="n">
         <v>1.5</v>
@@ -6587,7 +6587,7 @@
         <v>1.3</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU30" t="n">
         <v>0.91</v>
@@ -6790,7 +6790,7 @@
         <v>2.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU31" t="n">
         <v>2.17</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT34" t="n">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT35" t="n">
         <v>0.7</v>
@@ -7805,7 +7805,7 @@
         <v>1.6</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU37" t="n">
         <v>1.52</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT38" t="n">
         <v>0.6</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU39" t="n">
         <v>1.49</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU40" t="n">
         <v>2.12</v>
@@ -8817,10 +8817,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU41" t="n">
         <v>1.51</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT42" t="n">
         <v>1.3</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU43" t="n">
         <v>2.14</v>
@@ -9832,10 +9832,10 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU46" t="n">
         <v>1.71</v>
@@ -10644,7 +10644,7 @@
         <v>1.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT50" t="n">
         <v>1.5</v>
@@ -11050,7 +11050,7 @@
         <v>0.67</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT52" t="n">
         <v>0.6</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -11459,7 +11459,7 @@
         <v>1.4</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU54" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT55" t="n">
         <v>0.6</v>
@@ -11865,7 +11865,7 @@
         <v>1.6</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU56" t="n">
         <v>2.16</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU57" t="n">
         <v>1.55</v>
@@ -12271,7 +12271,7 @@
         <v>1.3</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU58" t="n">
         <v>1.21</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT59" t="n">
         <v>1.3</v>
@@ -12674,7 +12674,7 @@
         <v>0.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT60" t="n">
         <v>0.7</v>
@@ -13283,10 +13283,10 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU63" t="n">
         <v>1.81</v>
@@ -13489,7 +13489,7 @@
         <v>2.6</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU64" t="n">
         <v>1.72</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT65" t="n">
         <v>1.3</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT66" t="n">
         <v>0.6</v>
@@ -14098,7 +14098,7 @@
         <v>2.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU67" t="n">
         <v>1.83</v>
@@ -14704,7 +14704,7 @@
         <v>0.25</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT70" t="n">
         <v>0.7</v>
@@ -14910,7 +14910,7 @@
         <v>1.4</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU71" t="n">
         <v>1.52</v>
@@ -15110,10 +15110,10 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU73" t="n">
         <v>2.03</v>
@@ -15516,10 +15516,10 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU74" t="n">
         <v>1.43</v>
@@ -15922,10 +15922,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU76" t="n">
         <v>1.34</v>
@@ -16734,7 +16734,7 @@
         <v>0.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT80" t="n">
         <v>0.7</v>
@@ -16940,7 +16940,7 @@
         <v>1.4</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU81" t="n">
         <v>1.65</v>
@@ -17140,10 +17140,10 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU82" t="n">
         <v>1.93</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT83" t="n">
         <v>1.2</v>
@@ -17546,10 +17546,10 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -17955,7 +17955,7 @@
         <v>1.3</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU86" t="n">
         <v>1.66</v>
@@ -18155,10 +18155,10 @@
         <v>1.8</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU87" t="n">
         <v>1.87</v>
@@ -18358,7 +18358,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT88" t="n">
         <v>1.5</v>
@@ -18767,7 +18767,7 @@
         <v>1.4</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU90" t="n">
         <v>1.49</v>
@@ -18970,7 +18970,7 @@
         <v>1.6</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19173,7 +19173,7 @@
         <v>1.4</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU92" t="n">
         <v>1.65</v>
@@ -19373,7 +19373,7 @@
         <v>0.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT93" t="n">
         <v>0.7</v>
@@ -19779,10 +19779,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU95" t="n">
         <v>1.34</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT96" t="n">
         <v>0.6</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT97" t="n">
         <v>1.3</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20591,7 +20591,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT99" t="n">
         <v>1.3</v>
@@ -20794,7 +20794,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT100" t="n">
         <v>1.2</v>
@@ -21203,7 +21203,7 @@
         <v>2</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU102" t="n">
         <v>1.58</v>
@@ -21406,7 +21406,7 @@
         <v>1</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -21809,10 +21809,10 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU105" t="n">
         <v>1.46</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU106" t="n">
         <v>1.56</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT108" t="n">
         <v>0.7</v>
@@ -22827,7 +22827,7 @@
         <v>1.4</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU110" t="n">
         <v>1.48</v>
@@ -23230,10 +23230,10 @@
         <v>2.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU112" t="n">
         <v>1.39</v>
@@ -23433,10 +23433,10 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU113" t="n">
         <v>1.99</v>
@@ -23839,7 +23839,7 @@
         <v>0.86</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT115" t="n">
         <v>1</v>
@@ -24042,10 +24042,10 @@
         <v>1.86</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU116" t="n">
         <v>1.81</v>
@@ -24245,10 +24245,10 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU117" t="n">
         <v>1.53</v>
@@ -24448,7 +24448,7 @@
         <v>1.17</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT118" t="n">
         <v>1.3</v>
@@ -24654,7 +24654,7 @@
         <v>2.6</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU119" t="n">
         <v>1.54</v>
@@ -25260,7 +25260,7 @@
         <v>0.71</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT122" t="n">
         <v>0.6</v>
@@ -25463,7 +25463,7 @@
         <v>1.43</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT123" t="n">
         <v>1.3</v>
@@ -25872,7 +25872,7 @@
         <v>1.4</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU125" t="n">
         <v>1.5</v>
@@ -26072,10 +26072,10 @@
         <v>2.29</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU126" t="n">
         <v>1.54</v>
@@ -26481,7 +26481,7 @@
         <v>2.6</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU128" t="n">
         <v>1.61</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT130" t="n">
         <v>0.7</v>
@@ -27087,7 +27087,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT131" t="n">
         <v>1.2</v>
@@ -27293,7 +27293,7 @@
         <v>1.4</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU132" t="n">
         <v>1.74</v>
@@ -27496,7 +27496,7 @@
         <v>2</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU133" t="n">
         <v>1.61</v>
@@ -27696,10 +27696,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -28102,10 +28102,10 @@
         <v>1.25</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28305,10 +28305,10 @@
         <v>2.38</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU137" t="n">
         <v>2.04</v>
@@ -28508,7 +28508,7 @@
         <v>1.38</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT138" t="n">
         <v>1.5</v>
@@ -28711,7 +28711,7 @@
         <v>0.63</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT139" t="n">
         <v>0.7</v>
@@ -29120,7 +29120,7 @@
         <v>1.6</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU141" t="n">
         <v>1.73</v>
@@ -29323,7 +29323,7 @@
         <v>2.5</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -29929,7 +29929,7 @@
         <v>1.63</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT145" t="n">
         <v>1.3</v>
@@ -30132,10 +30132,10 @@
         <v>1.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU146" t="n">
         <v>1.5</v>
@@ -30335,10 +30335,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU147" t="n">
         <v>1.33</v>
@@ -30538,10 +30538,10 @@
         <v>2.44</v>
       </c>
       <c r="AS148" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AU148" t="n">
         <v>1.66</v>
@@ -30741,10 +30741,10 @@
         <v>1.89</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU149" t="n">
         <v>1.91</v>
@@ -30944,10 +30944,10 @@
         <v>1.56</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU150" t="n">
         <v>1.51</v>
@@ -31147,10 +31147,10 @@
         <v>0.89</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU151" t="n">
         <v>1.49</v>
@@ -31350,7 +31350,7 @@
         <v>1.11</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT152" t="n">
         <v>1</v>
@@ -31553,10 +31553,10 @@
         <v>1.22</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU153" t="n">
         <v>1.93</v>
@@ -33232,6 +33232,1630 @@
       </c>
       <c r="BK161" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2593451</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45016.54861111111</v>
+      </c>
+      <c r="F162" t="n">
+        <v>21</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2</v>
+      </c>
+      <c r="K162" t="n">
+        <v>3</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>3</v>
+      </c>
+      <c r="N162" t="n">
+        <v>5</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['23', '73']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['10', '30', '49']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>4</v>
+      </c>
+      <c r="R162" t="n">
+        <v>5</v>
+      </c>
+      <c r="S162" t="n">
+        <v>9</v>
+      </c>
+      <c r="T162" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2593447</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45016.54861111111</v>
+      </c>
+      <c r="F163" t="n">
+        <v>21</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>2</v>
+      </c>
+      <c r="R163" t="n">
+        <v>10</v>
+      </c>
+      <c r="S163" t="n">
+        <v>12</v>
+      </c>
+      <c r="T163" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V163" t="n">
+        <v>3</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X163" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2593446</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45016.54861111111</v>
+      </c>
+      <c r="F164" t="n">
+        <v>21</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5</v>
+      </c>
+      <c r="R164" t="n">
+        <v>5</v>
+      </c>
+      <c r="S164" t="n">
+        <v>10</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2593445</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45016.54861111111</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>2</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>3</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['45+5', '52']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>6</v>
+      </c>
+      <c r="R165" t="n">
+        <v>5</v>
+      </c>
+      <c r="S165" t="n">
+        <v>11</v>
+      </c>
+      <c r="T165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2593448</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45016.64583333334</v>
+      </c>
+      <c r="F166" t="n">
+        <v>21</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2</v>
+      </c>
+      <c r="M166" t="n">
+        <v>2</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['59', '62']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['54', '77']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>2</v>
+      </c>
+      <c r="R166" t="n">
+        <v>5</v>
+      </c>
+      <c r="S166" t="n">
+        <v>7</v>
+      </c>
+      <c r="T166" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2593444</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45017.39583333334</v>
+      </c>
+      <c r="F167" t="n">
+        <v>21</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>3</v>
+      </c>
+      <c r="N167" t="n">
+        <v>4</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['28', '43', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>7</v>
+      </c>
+      <c r="R167" t="n">
+        <v>4</v>
+      </c>
+      <c r="S167" t="n">
+        <v>11</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V167" t="n">
+        <v>5</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X167" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2593450</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45017.39583333334</v>
+      </c>
+      <c r="F168" t="n">
+        <v>21</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>2</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>4</v>
+      </c>
+      <c r="L168" t="n">
+        <v>3</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2</v>
+      </c>
+      <c r="N168" t="n">
+        <v>5</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['22', '41', '48']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['23', '39']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>3</v>
+      </c>
+      <c r="R168" t="n">
+        <v>9</v>
+      </c>
+      <c r="S168" t="n">
+        <v>12</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2593449</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45018.22916666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>21</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>6</v>
+      </c>
+      <c r="R169" t="n">
+        <v>6</v>
+      </c>
+      <c r="S169" t="n">
+        <v>12</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT7" t="n">
         <v>1.27</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT8" t="n">
         <v>1.27</v>
@@ -2324,7 +2324,7 @@
         <v>1.55</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT10" t="n">
         <v>2.36</v>
@@ -2730,7 +2730,7 @@
         <v>1.3</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0.73</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.73</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.55</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU19" t="n">
         <v>1.54</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT20" t="n">
         <v>1.45</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT24" t="n">
         <v>0.7</v>
@@ -5775,7 +5775,7 @@
         <v>1.82</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU26" t="n">
         <v>1.7</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU27" t="n">
         <v>1.24</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU28" t="n">
         <v>2.89</v>
@@ -6384,7 +6384,7 @@
         <v>1.73</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU29" t="n">
         <v>1.53</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT31" t="n">
         <v>1.27</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU32" t="n">
         <v>1.08</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU33" t="n">
         <v>1.72</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT36" t="n">
         <v>0.82</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT37" t="n">
         <v>1.27</v>
@@ -8211,7 +8211,7 @@
         <v>1.64</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU38" t="n">
         <v>0.97</v>
@@ -9023,7 +9023,7 @@
         <v>1.73</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU42" t="n">
         <v>1.72</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -9629,10 +9629,10 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU45" t="n">
         <v>1.66</v>
@@ -10038,7 +10038,7 @@
         <v>1.3</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU47" t="n">
         <v>1.05</v>
@@ -10238,10 +10238,10 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU48" t="n">
         <v>1.91</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10647,7 +10647,7 @@
         <v>1.55</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU50" t="n">
         <v>1.66</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT51" t="n">
         <v>0.7</v>
@@ -11053,7 +11053,7 @@
         <v>1.36</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU52" t="n">
         <v>1.4</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT54" t="n">
         <v>1.27</v>
@@ -11662,7 +11662,7 @@
         <v>0.73</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU55" t="n">
         <v>1.94</v>
@@ -11862,7 +11862,7 @@
         <v>1.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT56" t="n">
         <v>1.27</v>
@@ -12474,7 +12474,7 @@
         <v>1.82</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU59" t="n">
         <v>1.48</v>
@@ -12677,7 +12677,7 @@
         <v>1.09</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU60" t="n">
         <v>1.96</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU61" t="n">
         <v>1.89</v>
@@ -13080,7 +13080,7 @@
         <v>0.75</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT62" t="n">
         <v>1</v>
@@ -13486,7 +13486,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT64" t="n">
         <v>1.64</v>
@@ -13692,7 +13692,7 @@
         <v>1.64</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU65" t="n">
         <v>1.21</v>
@@ -13895,7 +13895,7 @@
         <v>1.55</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU66" t="n">
         <v>1.56</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT67" t="n">
         <v>2.36</v>
@@ -14298,10 +14298,10 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU69" t="n">
         <v>1.63</v>
@@ -14707,7 +14707,7 @@
         <v>1.55</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU70" t="n">
         <v>1.71</v>
@@ -14907,7 +14907,7 @@
         <v>1.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT71" t="n">
         <v>1.27</v>
@@ -15722,7 +15722,7 @@
         <v>1.3</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU75" t="n">
         <v>1.45</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU77" t="n">
         <v>1.92</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU78" t="n">
         <v>1.72</v>
@@ -16531,10 +16531,10 @@
         <v>0.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU79" t="n">
         <v>1.69</v>
@@ -16937,7 +16937,7 @@
         <v>0.75</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT81" t="n">
         <v>1.45</v>
@@ -17346,7 +17346,7 @@
         <v>1.55</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -18361,7 +18361,7 @@
         <v>0.73</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU88" t="n">
         <v>1.91</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU89" t="n">
         <v>1.6</v>
@@ -18764,7 +18764,7 @@
         <v>0.2</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT90" t="n">
         <v>0.82</v>
@@ -18967,7 +18967,7 @@
         <v>1</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT91" t="n">
         <v>1.27</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT92" t="n">
         <v>1.64</v>
@@ -19576,10 +19576,10 @@
         <v>0.4</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU94" t="n">
         <v>1.92</v>
@@ -19985,7 +19985,7 @@
         <v>1.64</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU96" t="n">
         <v>1.47</v>
@@ -20188,7 +20188,7 @@
         <v>0.73</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU97" t="n">
         <v>1.92</v>
@@ -20594,7 +20594,7 @@
         <v>1.09</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU99" t="n">
         <v>1.84</v>
@@ -20797,7 +20797,7 @@
         <v>1.36</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU100" t="n">
         <v>1.33</v>
@@ -21000,7 +21000,7 @@
         <v>1.3</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU101" t="n">
         <v>1.51</v>
@@ -21200,7 +21200,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT102" t="n">
         <v>2.36</v>
@@ -21606,10 +21606,10 @@
         <v>1.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU104" t="n">
         <v>1.59</v>
@@ -22215,10 +22215,10 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU107" t="n">
         <v>1.77</v>
@@ -22421,7 +22421,7 @@
         <v>1.64</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU108" t="n">
         <v>1.43</v>
@@ -22621,7 +22621,7 @@
         <v>0.67</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT109" t="n">
         <v>0.7</v>
@@ -22824,7 +22824,7 @@
         <v>1.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT110" t="n">
         <v>1.27</v>
@@ -23027,10 +23027,10 @@
         <v>0.83</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU111" t="n">
         <v>1.57</v>
@@ -23636,10 +23636,10 @@
         <v>1.29</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU114" t="n">
         <v>1.73</v>
@@ -24451,7 +24451,7 @@
         <v>1.36</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU118" t="n">
         <v>1.33</v>
@@ -24651,7 +24651,7 @@
         <v>1.43</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT119" t="n">
         <v>1.27</v>
@@ -25057,10 +25057,10 @@
         <v>1.86</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU121" t="n">
         <v>1.55</v>
@@ -25263,7 +25263,7 @@
         <v>1.73</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU122" t="n">
         <v>1.88</v>
@@ -25466,7 +25466,7 @@
         <v>1.55</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU123" t="n">
         <v>1.37</v>
@@ -25669,7 +25669,7 @@
         <v>1.3</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU124" t="n">
         <v>1.49</v>
@@ -25869,7 +25869,7 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT125" t="n">
         <v>1.64</v>
@@ -26275,10 +26275,10 @@
         <v>1.57</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU127" t="n">
         <v>2.08</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT128" t="n">
         <v>0.82</v>
@@ -26681,10 +26681,10 @@
         <v>0.86</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU129" t="n">
         <v>1.75</v>
@@ -27090,7 +27090,7 @@
         <v>1.82</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU131" t="n">
         <v>1.44</v>
@@ -27290,7 +27290,7 @@
         <v>1.75</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT132" t="n">
         <v>1.27</v>
@@ -27493,7 +27493,7 @@
         <v>1</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT133" t="n">
         <v>1.27</v>
@@ -27902,7 +27902,7 @@
         <v>1</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU135" t="n">
         <v>1.27</v>
@@ -28511,7 +28511,7 @@
         <v>1.09</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU138" t="n">
         <v>1.76</v>
@@ -28714,7 +28714,7 @@
         <v>1.55</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU139" t="n">
         <v>1.55</v>
@@ -28914,10 +28914,10 @@
         <v>1.25</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU140" t="n">
         <v>1.49</v>
@@ -29117,7 +29117,7 @@
         <v>1.75</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT141" t="n">
         <v>1.64</v>
@@ -29320,7 +29320,7 @@
         <v>0.63</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT142" t="n">
         <v>0.82</v>
@@ -29726,10 +29726,10 @@
         <v>0.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU144" t="n">
         <v>1.69</v>
@@ -29932,7 +29932,7 @@
         <v>1.73</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU145" t="n">
         <v>1.87</v>
@@ -31756,10 +31756,10 @@
         <v>0.67</v>
       </c>
       <c r="AS154" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU154" t="n">
         <v>1.63</v>
@@ -31962,7 +31962,7 @@
         <v>1</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU155" t="n">
         <v>1.34</v>
@@ -32162,7 +32162,7 @@
         <v>0.78</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AT156" t="n">
         <v>0.7</v>
@@ -32365,10 +32365,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU157" t="n">
         <v>1.5</v>
@@ -32571,7 +32571,7 @@
         <v>1.3</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU158" t="n">
         <v>1.61</v>
@@ -32771,10 +32771,10 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.6</v>
+        <v>0.82</v>
       </c>
       <c r="AU159" t="n">
         <v>1.67</v>
@@ -32974,10 +32974,10 @@
         <v>1.56</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU160" t="n">
         <v>1.74</v>
@@ -33177,10 +33177,10 @@
         <v>1.44</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU161" t="n">
         <v>2.14</v>
@@ -34856,6 +34856,1427 @@
       </c>
       <c r="BK169" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2593454</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45023.54861111111</v>
+      </c>
+      <c r="F170" t="n">
+        <v>22</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2</v>
+      </c>
+      <c r="K170" t="n">
+        <v>3</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['7', '14']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>5</v>
+      </c>
+      <c r="R170" t="n">
+        <v>7</v>
+      </c>
+      <c r="S170" t="n">
+        <v>12</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2593455</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45023.54861111111</v>
+      </c>
+      <c r="F171" t="n">
+        <v>22</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['6', '32']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>12</v>
+      </c>
+      <c r="R171" t="n">
+        <v>4</v>
+      </c>
+      <c r="S171" t="n">
+        <v>16</v>
+      </c>
+      <c r="T171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V171" t="n">
+        <v>5</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2593457</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45023.54861111111</v>
+      </c>
+      <c r="F172" t="n">
+        <v>22</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Amstetten</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>2</v>
+      </c>
+      <c r="R172" t="n">
+        <v>4</v>
+      </c>
+      <c r="S172" t="n">
+        <v>6</v>
+      </c>
+      <c r="T172" t="n">
+        <v>3</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2593458</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45023.54861111111</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>4</v>
+      </c>
+      <c r="N173" t="n">
+        <v>4</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['13', '15', '81', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>7</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2</v>
+      </c>
+      <c r="S173" t="n">
+        <v>9</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X173" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2593459</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45023.54861111111</v>
+      </c>
+      <c r="F174" t="n">
+        <v>22</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>3</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="n">
+        <v>4</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['80', '81', '90+4']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>12</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2</v>
+      </c>
+      <c r="S174" t="n">
+        <v>14</v>
+      </c>
+      <c r="T174" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V174" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2593452</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45024.39583333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>22</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>3</v>
+      </c>
+      <c r="L175" t="n">
+        <v>3</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>4</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['28', '40', '78']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>11</v>
+      </c>
+      <c r="R175" t="n">
+        <v>6</v>
+      </c>
+      <c r="S175" t="n">
+        <v>17</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V175" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2593456</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45024.39583333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>22</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Vorwärts Steyr</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>2</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>3</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" t="n">
+        <v>5</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['2', '13', '53']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['12', '60']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>3</v>
+      </c>
+      <c r="R176" t="n">
+        <v>5</v>
+      </c>
+      <c r="S176" t="n">
+        <v>8</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V176" t="n">
+        <v>6</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.09</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT11" t="n">
         <v>1.27</v>
@@ -5369,7 +5369,7 @@
         <v>2.64</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU24" t="n">
         <v>1.45</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT30" t="n">
         <v>1.64</v>
@@ -7602,7 +7602,7 @@
         <v>1.55</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU35" t="n">
         <v>1.69</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT47" t="n">
         <v>1.36</v>
@@ -10850,7 +10850,7 @@
         <v>1.82</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU51" t="n">
         <v>1.59</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT58" t="n">
         <v>0.82</v>
@@ -15719,7 +15719,7 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT75" t="n">
         <v>0.82</v>
@@ -16737,7 +16737,7 @@
         <v>1.82</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU80" t="n">
         <v>1.37</v>
@@ -17952,7 +17952,7 @@
         <v>0.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT86" t="n">
         <v>1.45</v>
@@ -19376,7 +19376,7 @@
         <v>1.55</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU93" t="n">
         <v>1.5</v>
@@ -20997,7 +20997,7 @@
         <v>1.4</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT101" t="n">
         <v>1.45</v>
@@ -22624,7 +22624,7 @@
         <v>2.55</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU109" t="n">
         <v>2.04</v>
@@ -24857,7 +24857,7 @@
         <v>1</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU120" t="n">
         <v>1.28</v>
@@ -25666,7 +25666,7 @@
         <v>0.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT124" t="n">
         <v>0.64</v>
@@ -26887,7 +26887,7 @@
         <v>1.64</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU130" t="n">
         <v>1.49</v>
@@ -29523,7 +29523,7 @@
         <v>0.88</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT143" t="n">
         <v>1</v>
@@ -32165,7 +32165,7 @@
         <v>1.73</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -32568,7 +32568,7 @@
         <v>1.33</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT158" t="n">
         <v>1.36</v>
@@ -36277,6 +36277,209 @@
       </c>
       <c r="BK176" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2593453</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45025.22916666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>22</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>2</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['26', '36']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>7</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2</v>
+      </c>
+      <c r="S177" t="n">
+        <v>9</v>
+      </c>
+      <c r="T177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.36</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT9" t="n">
         <v>0.55</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT17" t="n">
         <v>0.64</v>
@@ -4557,7 +4557,7 @@
         <v>1.82</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU20" t="n">
         <v>1.86</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT22" t="n">
         <v>1.27</v>
@@ -5572,7 +5572,7 @@
         <v>0.73</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU25" t="n">
         <v>2.6</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT29" t="n">
         <v>1.36</v>
@@ -7399,7 +7399,7 @@
         <v>1.09</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU34" t="n">
         <v>2.04</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT39" t="n">
         <v>1.27</v>
@@ -8617,7 +8617,7 @@
         <v>0.73</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU40" t="n">
         <v>2.12</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT42" t="n">
         <v>1.45</v>
@@ -10444,7 +10444,7 @@
         <v>2.55</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU49" t="n">
         <v>1.79</v>
@@ -10644,7 +10644,7 @@
         <v>1.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT50" t="n">
         <v>1.36</v>
@@ -11256,7 +11256,7 @@
         <v>1.55</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU53" t="n">
         <v>1.9</v>
@@ -13083,7 +13083,7 @@
         <v>1.27</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT63" t="n">
         <v>2.36</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT66" t="n">
         <v>0.82</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT72" t="n">
         <v>1.27</v>
@@ -16940,7 +16940,7 @@
         <v>1.27</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU81" t="n">
         <v>1.65</v>
@@ -17752,7 +17752,7 @@
         <v>1</v>
       </c>
       <c r="AT85" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU85" t="n">
         <v>1.39</v>
@@ -17955,7 +17955,7 @@
         <v>1.18</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU86" t="n">
         <v>1.66</v>
@@ -18155,7 +18155,7 @@
         <v>1.8</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT87" t="n">
         <v>1.27</v>
@@ -19373,7 +19373,7 @@
         <v>0.2</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT93" t="n">
         <v>0.91</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU98" t="n">
         <v>1.91</v>
@@ -21406,7 +21406,7 @@
         <v>1</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -23230,7 +23230,7 @@
         <v>2.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT112" t="n">
         <v>1.64</v>
@@ -23842,7 +23842,7 @@
         <v>1.64</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU115" t="n">
         <v>1.49</v>
@@ -24248,7 +24248,7 @@
         <v>1.82</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU117" t="n">
         <v>1.53</v>
@@ -25260,7 +25260,7 @@
         <v>0.71</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT122" t="n">
         <v>0.55</v>
@@ -25463,7 +25463,7 @@
         <v>1.43</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT123" t="n">
         <v>1.45</v>
@@ -27699,7 +27699,7 @@
         <v>1.36</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU134" t="n">
         <v>1.35</v>
@@ -28711,7 +28711,7 @@
         <v>0.63</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT139" t="n">
         <v>0.64</v>
@@ -29526,7 +29526,7 @@
         <v>1.18</v>
       </c>
       <c r="AT143" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU143" t="n">
         <v>1.56</v>
@@ -29929,7 +29929,7 @@
         <v>1.63</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT145" t="n">
         <v>1.27</v>
@@ -30132,10 +30132,10 @@
         <v>1.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU146" t="n">
         <v>1.5</v>
@@ -30741,7 +30741,7 @@
         <v>1.89</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT149" t="n">
         <v>1.64</v>
@@ -31353,7 +31353,7 @@
         <v>1.82</v>
       </c>
       <c r="AT152" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU152" t="n">
         <v>1.42</v>
@@ -33789,7 +33789,7 @@
         <v>1.55</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU164" t="n">
         <v>1.49</v>
@@ -33992,7 +33992,7 @@
         <v>1.09</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU165" t="n">
         <v>1.62</v>
@@ -34192,7 +34192,7 @@
         <v>2.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AT166" t="n">
         <v>2.36</v>
@@ -34395,7 +34395,7 @@
         <v>0.6</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT167" t="n">
         <v>0.82</v>
@@ -36479,6 +36479,412 @@
         <v>18</v>
       </c>
       <c r="BK177" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2593463</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45030.54861111111</v>
+      </c>
+      <c r="F178" t="n">
+        <v>23</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Lafnitz</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Rapid Wien II</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>2</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>['66', '79']</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>9</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2</v>
+      </c>
+      <c r="S178" t="n">
+        <v>11</v>
+      </c>
+      <c r="T178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>4</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>2593460</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45030.54861111111</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Liefering</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Blau-Weiß Linz</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['58', '90']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['20', '87']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>3</v>
+      </c>
+      <c r="R179" t="n">
+        <v>8</v>
+      </c>
+      <c r="S179" t="n">
+        <v>11</v>
+      </c>
+      <c r="T179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V179" t="n">
+        <v>2</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK179" t="n">
         <v>15</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT2" t="n">
         <v>1.42</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>0.91</v>
@@ -1918,7 +1918,7 @@
         <v>1.73</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.27</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT16" t="n">
         <v>1.36</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT18" t="n">
         <v>0.82</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU21" t="n">
         <v>0.8100000000000001</v>
@@ -4963,7 +4963,7 @@
         <v>1.67</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU22" t="n">
         <v>1.96</v>
@@ -5166,7 +5166,7 @@
         <v>1.36</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU23" t="n">
         <v>1.4</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT24" t="n">
         <v>0.91</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT25" t="n">
         <v>0.92</v>
@@ -6587,7 +6587,7 @@
         <v>1.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU30" t="n">
         <v>0.91</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>0.92</v>
@@ -8008,7 +8008,7 @@
         <v>1.82</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU37" t="n">
         <v>1.52</v>
@@ -8208,7 +8208,7 @@
         <v>0.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT38" t="n">
         <v>0.55</v>
@@ -8414,7 +8414,7 @@
         <v>1.67</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU39" t="n">
         <v>1.49</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT40" t="n">
         <v>1.42</v>
@@ -9223,10 +9223,10 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU43" t="n">
         <v>2.14</v>
@@ -9835,7 +9835,7 @@
         <v>1.82</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU46" t="n">
         <v>1.71</v>
@@ -10238,7 +10238,7 @@
         <v>1.5</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT48" t="n">
         <v>1.36</v>
@@ -11459,7 +11459,7 @@
         <v>1.27</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU54" t="n">
         <v>1.09</v>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT55" t="n">
         <v>0.82</v>
@@ -11865,7 +11865,7 @@
         <v>1.73</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU56" t="n">
         <v>2.16</v>
@@ -12674,7 +12674,7 @@
         <v>0.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT60" t="n">
         <v>0.64</v>
@@ -13286,7 +13286,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU63" t="n">
         <v>1.81</v>
@@ -13486,10 +13486,10 @@
         <v>2.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU64" t="n">
         <v>1.72</v>
@@ -13689,7 +13689,7 @@
         <v>2.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT65" t="n">
         <v>1.27</v>
@@ -14098,7 +14098,7 @@
         <v>2.55</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU67" t="n">
         <v>1.83</v>
@@ -15113,7 +15113,7 @@
         <v>1.67</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU72" t="n">
         <v>1.86</v>
@@ -15313,10 +15313,10 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU73" t="n">
         <v>2.03</v>
@@ -15516,7 +15516,7 @@
         <v>0.25</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>0.82</v>
@@ -15925,7 +15925,7 @@
         <v>1.36</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU76" t="n">
         <v>1.34</v>
@@ -16328,7 +16328,7 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT78" t="n">
         <v>1.45</v>
@@ -17140,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT82" t="n">
         <v>1.27</v>
@@ -17549,7 +17549,7 @@
         <v>1.36</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU84" t="n">
         <v>1.27</v>
@@ -18158,7 +18158,7 @@
         <v>1.67</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU87" t="n">
         <v>1.87</v>
@@ -18358,7 +18358,7 @@
         <v>1.6</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT88" t="n">
         <v>1.36</v>
@@ -19173,7 +19173,7 @@
         <v>1.27</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU92" t="n">
         <v>1.65</v>
@@ -19782,7 +19782,7 @@
         <v>1.82</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU95" t="n">
         <v>1.34</v>
@@ -19982,7 +19982,7 @@
         <v>0.6</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>0.82</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT97" t="n">
         <v>1.27</v>
@@ -20591,7 +20591,7 @@
         <v>1.67</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT99" t="n">
         <v>1.27</v>
@@ -21203,7 +21203,7 @@
         <v>1.82</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU102" t="n">
         <v>1.58</v>
@@ -21606,7 +21606,7 @@
         <v>1.83</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT104" t="n">
         <v>1.36</v>
@@ -21812,7 +21812,7 @@
         <v>1.82</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU105" t="n">
         <v>1.46</v>
@@ -22418,7 +22418,7 @@
         <v>0.33</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT108" t="n">
         <v>0.64</v>
@@ -22827,7 +22827,7 @@
         <v>1.27</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU110" t="n">
         <v>1.48</v>
@@ -23233,7 +23233,7 @@
         <v>1.67</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU112" t="n">
         <v>1.39</v>
@@ -23433,7 +23433,7 @@
         <v>0.33</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT113" t="n">
         <v>0.82</v>
@@ -23839,7 +23839,7 @@
         <v>0.86</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
         <v>0.92</v>
@@ -24042,10 +24042,10 @@
         <v>1.86</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU116" t="n">
         <v>1.81</v>
@@ -24651,10 +24651,10 @@
         <v>1.43</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU119" t="n">
         <v>1.54</v>
@@ -25872,7 +25872,7 @@
         <v>1.27</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU125" t="n">
         <v>1.5</v>
@@ -26075,7 +26075,7 @@
         <v>1.55</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU126" t="n">
         <v>1.54</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT128" t="n">
         <v>0.82</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT130" t="n">
         <v>0.91</v>
@@ -27293,7 +27293,7 @@
         <v>1.27</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU132" t="n">
         <v>1.74</v>
@@ -28105,7 +28105,7 @@
         <v>1.55</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU136" t="n">
         <v>1.45</v>
@@ -28305,10 +28305,10 @@
         <v>2.38</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU137" t="n">
         <v>2.04</v>
@@ -28508,7 +28508,7 @@
         <v>1.38</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT138" t="n">
         <v>1.36</v>
@@ -29120,7 +29120,7 @@
         <v>1.73</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU141" t="n">
         <v>1.73</v>
@@ -29726,7 +29726,7 @@
         <v>0.63</v>
       </c>
       <c r="AS144" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT144" t="n">
         <v>0.55</v>
@@ -29991,7 +29991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>2593432</v>
+        <v>2593431</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -30011,22 +30011,22 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>Vorwärts Steyr</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Blau-Weiß Linz</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>1</v>
@@ -30039,151 +30039,151 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>['90+2']</t>
         </is>
       </c>
       <c r="Q146" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S146" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T146" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="U146" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V146" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="W146" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="X146" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="Y146" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z146" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA146" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="AB146" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AC146" t="n">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="AD146" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="AE146" t="n">
-        <v>1.53</v>
+        <v>3.4</v>
       </c>
       <c r="AF146" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AG146" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH146" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AI146" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AJ146" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AK146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC146" t="n">
         <v>2.1</v>
       </c>
-      <c r="AL146" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM146" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN146" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AO146" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AP146" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AQ146" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR146" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AS146" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AT146" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AU146" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AV146" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AW146" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX146" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AY146" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AZ146" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BA146" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BB146" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BC146" t="n">
-        <v>2</v>
-      </c>
       <c r="BD146" t="n">
-        <v>2.54</v>
+        <v>2.18</v>
       </c>
       <c r="BE146" t="n">
-        <v>3.48</v>
+        <v>2.88</v>
       </c>
       <c r="BF146" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG146" t="n">
         <v>2</v>
       </c>
       <c r="BH146" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI146" t="n">
         <v>4</v>
       </c>
       <c r="BJ146" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BK146" t="n">
         <v>6</v>
@@ -30194,7 +30194,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>2593431</v>
+        <v>2593430</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -30214,12 +30214,12 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Vorwärts Steyr</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -30235,161 +30235,161 @@
         <v>1</v>
       </c>
       <c r="M147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q147" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R147" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S147" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T147" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="U147" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V147" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="W147" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X147" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="Y147" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AA147" t="n">
         <v>6</v>
       </c>
       <c r="AB147" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AC147" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="AD147" t="n">
         <v>3.5</v>
       </c>
       <c r="AE147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI147" t="n">
         <v>3.4</v>
       </c>
-      <c r="AF147" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>3.75</v>
-      </c>
       <c r="AJ147" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AK147" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AL147" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AM147" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AN147" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AO147" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AR147" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.82</v>
+        <v>1.42</v>
       </c>
       <c r="AU147" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="AV147" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AW147" t="n">
-        <v>2.51</v>
+        <v>2.79</v>
       </c>
       <c r="AX147" t="n">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="AY147" t="n">
         <v>6</v>
       </c>
       <c r="AZ147" t="n">
-        <v>2.85</v>
+        <v>1.83</v>
       </c>
       <c r="BA147" t="n">
         <v>1.19</v>
       </c>
       <c r="BB147" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BC147" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BD147" t="n">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="BE147" t="n">
-        <v>2.88</v>
+        <v>2.71</v>
       </c>
       <c r="BF147" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG147" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ147" t="n">
         <v>10</v>
       </c>
-      <c r="BI147" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ147" t="n">
-        <v>16</v>
-      </c>
       <c r="BK147" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -30397,7 +30397,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>2593429</v>
+        <v>2593432</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -30417,12 +30417,12 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Austria Wien II</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>St. Pölten</t>
+          <t>Blau-Weiß Linz</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -30435,164 +30435,164 @@
         <v>1</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N148" t="n">
         <v>2</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>['45', '81']</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="Q148" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S148" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T148" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U148" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="V148" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W148" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X148" t="n">
-        <v>3.44</v>
+        <v>3.2</v>
       </c>
       <c r="Y148" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Z148" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AA148" t="n">
-        <v>5.4</v>
+        <v>5.25</v>
       </c>
       <c r="AB148" t="n">
         <v>1.13</v>
       </c>
       <c r="AC148" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD148" t="n">
         <v>4.2</v>
       </c>
       <c r="AE148" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AF148" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AG148" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP148" t="n">
         <v>1.18</v>
       </c>
-      <c r="AI148" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AJ148" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AK148" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AL148" t="n">
+      <c r="AQ148" t="n">
         <v>1.67</v>
       </c>
-      <c r="AM148" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN148" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AO148" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP148" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AQ148" t="n">
-        <v>1</v>
-      </c>
       <c r="AR148" t="n">
-        <v>2.44</v>
+        <v>1.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.09</v>
+        <v>1.67</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.36</v>
+        <v>1.42</v>
       </c>
       <c r="AU148" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="AV148" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="AW148" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AX148" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="AY148" t="n">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="AZ148" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="BA148" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="BB148" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="BC148" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BD148" t="n">
-        <v>2.23</v>
+        <v>2.54</v>
       </c>
       <c r="BE148" t="n">
-        <v>2.93</v>
+        <v>3.48</v>
       </c>
       <c r="BF148" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK148" t="n">
         <v>6</v>
-      </c>
-      <c r="BH148" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI148" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ148" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK148" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="149">
@@ -30744,7 +30744,7 @@
         <v>1.67</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU149" t="n">
         <v>1.91</v>
@@ -30803,7 +30803,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>2593430</v>
+        <v>2593429</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -30823,182 +30823,182 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Austria Wien II</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>St. Pölten</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45', '81']</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R150" t="n">
         <v>3</v>
       </c>
       <c r="S150" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T150" t="n">
+        <v>6</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V150" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X150" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW150" t="n">
         <v>3.4</v>
       </c>
-      <c r="U150" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V150" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="W150" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X150" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y150" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Z150" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA150" t="n">
+      <c r="AX150" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG150" t="n">
         <v>6</v>
       </c>
-      <c r="AB150" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC150" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD150" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE150" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AF150" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG150" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH150" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI150" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM150" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN150" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AO150" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP150" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AQ150" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AR150" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AS150" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AT150" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AU150" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AV150" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AW150" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AX150" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AY150" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ150" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BA150" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB150" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="BC150" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="BD150" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="BE150" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="BF150" t="n">
+      <c r="BH150" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI150" t="n">
         <v>5</v>
       </c>
-      <c r="BG150" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH150" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI150" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK150" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151">
@@ -31147,7 +31147,7 @@
         <v>0.89</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT151" t="n">
         <v>1.27</v>
@@ -31553,10 +31553,10 @@
         <v>1.22</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU153" t="n">
         <v>1.93</v>
@@ -32771,7 +32771,7 @@
         <v>0.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT159" t="n">
         <v>0.82</v>
@@ -33380,7 +33380,7 @@
         <v>1.1</v>
       </c>
       <c r="AS162" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AT162" t="n">
         <v>1.27</v>
@@ -33586,7 +33586,7 @@
         <v>1.36</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AU163" t="n">
         <v>1.38</v>
@@ -33989,7 +33989,7 @@
         <v>1.6</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT165" t="n">
         <v>1.42</v>
@@ -34195,7 +34195,7 @@
         <v>1.67</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AU166" t="n">
         <v>1.44</v>
@@ -34254,7 +34254,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>2593444</v>
+        <v>2593450</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -34274,179 +34274,179 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Liefering</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Dornbirn</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="n">
         <v>2</v>
       </c>
       <c r="K167" t="n">
+        <v>4</v>
+      </c>
+      <c r="L167" t="n">
         <v>3</v>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
       <c r="M167" t="n">
+        <v>2</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['22', '41', '48']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['23', '39']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
         <v>3</v>
       </c>
-      <c r="N167" t="n">
+      <c r="R167" t="n">
+        <v>9</v>
+      </c>
+      <c r="S167" t="n">
+        <v>12</v>
+      </c>
+      <c r="T167" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V167" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI167" t="n">
         <v>4</v>
       </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>['22']</t>
-        </is>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t>['28', '43', '90+5']</t>
-        </is>
-      </c>
-      <c r="Q167" t="n">
+      <c r="AJ167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG167" t="n">
         <v>7</v>
       </c>
-      <c r="R167" t="n">
-        <v>4</v>
-      </c>
-      <c r="S167" t="n">
-        <v>11</v>
-      </c>
-      <c r="T167" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U167" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V167" t="n">
-        <v>5</v>
-      </c>
-      <c r="W167" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X167" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y167" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z167" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA167" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AB167" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AC167" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AD167" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AE167" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF167" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AG167" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH167" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AI167" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AJ167" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AK167" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AL167" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AM167" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AN167" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AO167" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AP167" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AQ167" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AR167" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AS167" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AT167" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AU167" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AV167" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AW167" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX167" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AY167" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AZ167" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="BA167" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB167" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="BC167" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BD167" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="BE167" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="BF167" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG167" t="n">
-        <v>8</v>
-      </c>
       <c r="BH167" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BI167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ167" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BK167" t="n">
         <v>10</v>
@@ -34457,7 +34457,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>2593450</v>
+        <v>2593444</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -34477,179 +34477,179 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Liefering</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Dornbirn</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
         <v>2</v>
       </c>
       <c r="K168" t="n">
+        <v>3</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>3</v>
+      </c>
+      <c r="N168" t="n">
         <v>4</v>
       </c>
-      <c r="L168" t="n">
-        <v>3</v>
-      </c>
-      <c r="M168" t="n">
-        <v>2</v>
-      </c>
-      <c r="N168" t="n">
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['28', '43', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>7</v>
+      </c>
+      <c r="R168" t="n">
+        <v>4</v>
+      </c>
+      <c r="S168" t="n">
+        <v>11</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V168" t="n">
         <v>5</v>
       </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>['22', '41', '48']</t>
-        </is>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>['23', '39']</t>
-        </is>
-      </c>
-      <c r="Q168" t="n">
-        <v>3</v>
-      </c>
-      <c r="R168" t="n">
+      <c r="W168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X168" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH168" t="n">
         <v>9</v>
       </c>
-      <c r="S168" t="n">
-        <v>12</v>
-      </c>
-      <c r="T168" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U168" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V168" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W168" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X168" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z168" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AA168" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB168" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC168" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AD168" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE168" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AF168" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG168" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH168" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI168" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ168" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK168" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AL168" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM168" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN168" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AO168" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AP168" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ168" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR168" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AS168" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AT168" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AU168" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AV168" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AW168" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX168" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AY168" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AZ168" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BA168" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB168" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BC168" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="BD168" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BE168" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="BF168" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG168" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH168" t="n">
-        <v>1</v>
-      </c>
       <c r="BI168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ168" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BK168" t="n">
         <v>10</v>
@@ -34804,7 +34804,7 @@
         <v>1.82</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU169" t="n">
         <v>1.41</v>
@@ -34863,7 +34863,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>2593454</v>
+        <v>2593459</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -34883,182 +34883,182 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Horn</t>
+          <t>St. Pölten</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Lafnitz</t>
+          <t>First Vienna</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
         <v>3</v>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
       <c r="M170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>['80', '81', '90+4']</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>['7', '14']</t>
+          <t>['49']</t>
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R170" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S170" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T170" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U170" t="n">
         <v>2.1</v>
       </c>
       <c r="V170" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="W170" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X170" t="n">
         <v>2.8</v>
       </c>
       <c r="Y170" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z170" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AA170" t="n">
-        <v>6.95</v>
+        <v>6</v>
       </c>
       <c r="AB170" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AC170" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AD170" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AE170" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="AF170" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AG170" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AH170" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AI170" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AJ170" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AK170" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AL170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS170" t="n">
         <v>1.73</v>
-      </c>
-      <c r="AM170" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN170" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AO170" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP170" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AQ170" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR170" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AS170" t="n">
-        <v>1.82</v>
       </c>
       <c r="AT170" t="n">
         <v>1.36</v>
       </c>
       <c r="AU170" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="AV170" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="AW170" t="n">
-        <v>3.24</v>
+        <v>2.91</v>
       </c>
       <c r="AX170" t="n">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="AY170" t="n">
-        <v>5.5</v>
+        <v>9.4</v>
       </c>
       <c r="AZ170" t="n">
-        <v>2.3</v>
+        <v>2.89</v>
       </c>
       <c r="BA170" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="BB170" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="BC170" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="BD170" t="n">
-        <v>2.51</v>
+        <v>2.15</v>
       </c>
       <c r="BE170" t="n">
-        <v>3.48</v>
+        <v>2.79</v>
       </c>
       <c r="BF170" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG170" t="n">
         <v>4</v>
       </c>
-      <c r="BG170" t="n">
-        <v>9</v>
-      </c>
       <c r="BH170" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI170" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BJ170" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="BK170" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171">
@@ -35066,7 +35066,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>2593455</v>
+        <v>2593454</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -35086,22 +35086,22 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Austria Wien II</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="n">
         <v>2</v>
       </c>
       <c r="K171" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L171" t="n">
         <v>1</v>
@@ -35114,154 +35114,154 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>['6', '32']</t>
+          <t>['7', '14']</t>
         </is>
       </c>
       <c r="Q171" t="n">
+        <v>5</v>
+      </c>
+      <c r="R171" t="n">
+        <v>7</v>
+      </c>
+      <c r="S171" t="n">
         <v>12</v>
       </c>
-      <c r="R171" t="n">
-        <v>4</v>
-      </c>
-      <c r="S171" t="n">
-        <v>16</v>
-      </c>
       <c r="T171" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="U171" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V171" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="W171" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X171" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="Y171" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="Z171" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA171" t="n">
-        <v>6.45</v>
+        <v>6.95</v>
       </c>
       <c r="AB171" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AC171" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="AD171" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AE171" t="n">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="AF171" t="n">
         <v>1.01</v>
       </c>
       <c r="AG171" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="AH171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO171" t="n">
         <v>1.25</v>
       </c>
-      <c r="AI171" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AJ171" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AK171" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AL171" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM171" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN171" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AO171" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AP171" t="n">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AR171" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.27</v>
+        <v>1.82</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.82</v>
+        <v>1.36</v>
       </c>
       <c r="AU171" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AV171" t="n">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="AW171" t="n">
-        <v>2.82</v>
+        <v>3.24</v>
       </c>
       <c r="AX171" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA171" t="n">
         <v>1.29</v>
       </c>
-      <c r="AY171" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ171" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="BA171" t="n">
-        <v>1.21</v>
-      </c>
       <c r="BB171" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="BC171" t="n">
-        <v>2.38</v>
+        <v>1.99</v>
       </c>
       <c r="BD171" t="n">
-        <v>2.2</v>
+        <v>2.51</v>
       </c>
       <c r="BE171" t="n">
-        <v>2.88</v>
+        <v>3.48</v>
       </c>
       <c r="BF171" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG171" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BH171" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BI171" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BJ171" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK171" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172">
@@ -35269,7 +35269,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>2593457</v>
+        <v>2593455</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -35289,182 +35289,182 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Kapfenberger SV</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Amstetten</t>
+          <t>Austria Wien II</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
       <c r="M172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N172" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>['39']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>['6', '32']</t>
         </is>
       </c>
       <c r="Q172" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="R172" t="n">
         <v>4</v>
       </c>
       <c r="S172" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="T172" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="U172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V172" t="n">
+        <v>5</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X172" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC172" t="n">
         <v>2.38</v>
       </c>
-      <c r="V172" t="n">
+      <c r="BD172" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE172" t="n">
         <v>2.88</v>
       </c>
-      <c r="W172" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X172" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Y172" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z172" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA172" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AB172" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AC172" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AD172" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE172" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AF172" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG172" t="n">
+      <c r="BF172" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH172" t="n">
         <v>11</v>
       </c>
-      <c r="AH172" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AJ172" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK172" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AL172" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM172" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AN172" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AO172" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP172" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AQ172" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR172" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AS172" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT172" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AU172" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AV172" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AW172" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AX172" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AY172" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AZ172" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BA172" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB172" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BC172" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BD172" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="BE172" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="BF172" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG172" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH172" t="n">
-        <v>5</v>
-      </c>
       <c r="BI172" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BJ172" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BK172" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
@@ -35472,7 +35472,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>2593458</v>
+        <v>2593457</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -35492,92 +35492,92 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Rapid Wien II</t>
+          <t>Kapfenberger SV</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Sturm Graz II</t>
+          <t>Amstetten</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>2</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>2</v>
+      </c>
+      <c r="R173" t="n">
         <v>4</v>
       </c>
-      <c r="N173" t="n">
-        <v>4</v>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P173" t="inlineStr">
-        <is>
-          <t>['13', '15', '81', '90+1']</t>
-        </is>
-      </c>
-      <c r="Q173" t="n">
-        <v>7</v>
-      </c>
-      <c r="R173" t="n">
-        <v>2</v>
-      </c>
       <c r="S173" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T173" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U173" t="n">
         <v>2.38</v>
       </c>
       <c r="V173" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="W173" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X173" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="Y173" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="Z173" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AA173" t="n">
-        <v>5.65</v>
+        <v>4.75</v>
       </c>
       <c r="AB173" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AC173" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="AD173" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AE173" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="AF173" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AG173" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH173" t="n">
         <v>1.18</v>
@@ -35586,88 +35586,88 @@
         <v>4.33</v>
       </c>
       <c r="AJ173" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AK173" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="AL173" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AM173" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AN173" t="n">
-        <v>1.36</v>
+        <v>1.65</v>
       </c>
       <c r="AO173" t="n">
         <v>1.25</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AR173" t="n">
         <v>1.3</v>
       </c>
       <c r="AS173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT173" t="n">
         <v>1.27</v>
       </c>
-      <c r="AT173" t="n">
-        <v>1.45</v>
-      </c>
       <c r="AU173" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="AV173" t="n">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="AW173" t="n">
-        <v>3.44</v>
+        <v>2.91</v>
       </c>
       <c r="AX173" t="n">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="AY173" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK173" t="n">
         <v>6</v>
-      </c>
-      <c r="AZ173" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BA173" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BB173" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BC173" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD173" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="BE173" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="BF173" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG173" t="n">
-        <v>10</v>
-      </c>
-      <c r="BH173" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI173" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ173" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK173" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="174">
@@ -35675,7 +35675,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>2593459</v>
+        <v>2593458</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -35695,182 +35695,182 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>St. Pölten</t>
+          <t>Rapid Wien II</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>First Vienna</t>
+          <t>Sturm Graz II</t>
         </is>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M174" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N174" t="n">
         <v>4</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>['80', '81', '90+4']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>['49']</t>
+          <t>['13', '15', '81', '90+1']</t>
         </is>
       </c>
       <c r="Q174" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R174" t="n">
         <v>2</v>
       </c>
       <c r="S174" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T174" t="n">
         <v>2.38</v>
       </c>
       <c r="U174" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V174" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="W174" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="X174" t="n">
-        <v>2.8</v>
+        <v>3.28</v>
       </c>
       <c r="Y174" t="n">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="Z174" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="AA174" t="n">
-        <v>6</v>
+        <v>5.65</v>
       </c>
       <c r="AB174" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AC174" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AD174" t="n">
         <v>3.75</v>
       </c>
       <c r="AE174" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AF174" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH174" t="n">
         <v>8</v>
       </c>
-      <c r="AH174" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI174" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ174" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK174" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL174" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM174" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN174" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO174" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP174" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ174" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AR174" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AS174" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AT174" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AU174" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AV174" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AW174" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AX174" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AY174" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AZ174" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="BA174" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB174" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="BC174" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD174" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BE174" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="BF174" t="n">
-        <v>12</v>
-      </c>
-      <c r="BG174" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH174" t="n">
-        <v>13</v>
-      </c>
       <c r="BI174" t="n">
         <v>1</v>
       </c>
       <c r="BJ174" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="BK174" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175">
@@ -36222,7 +36222,7 @@
         <v>0.7</v>
       </c>
       <c r="AS176" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT176" t="n">
         <v>0.64</v>
@@ -36886,6 +36886,818 @@
       </c>
       <c r="BK179" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>2593464</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45030.64583333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>23</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Grazer AK</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>St. Pölten</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>2</v>
+      </c>
+      <c r="R180" t="n">
+        <v>4</v>
+      </c>
+      <c r="S180" t="n">
+        <v>6</v>
+      </c>
+      <c r="T180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2593461</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45031.39583333334</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Austria Wien II</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Dornbirn</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2</v>
+      </c>
+      <c r="K181" t="n">
+        <v>4</v>
+      </c>
+      <c r="L181" t="n">
+        <v>2</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3</v>
+      </c>
+      <c r="N181" t="n">
+        <v>5</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['1', '27']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['5', '21', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>11</v>
+      </c>
+      <c r="R181" t="n">
+        <v>3</v>
+      </c>
+      <c r="S181" t="n">
+        <v>14</v>
+      </c>
+      <c r="T181" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2593466</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45032.22916666666</v>
+      </c>
+      <c r="F182" t="n">
+        <v>23</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>First Vienna</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Floridsdorfer AC</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>3</v>
+      </c>
+      <c r="N182" t="n">
+        <v>3</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['45+4', '64', '80']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>7</v>
+      </c>
+      <c r="R182" t="n">
+        <v>4</v>
+      </c>
+      <c r="S182" t="n">
+        <v>11</v>
+      </c>
+      <c r="T182" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X182" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2593467</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45032.22916666666</v>
+      </c>
+      <c r="F183" t="n">
+        <v>23</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Sturm Graz II</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Horn</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2</v>
+      </c>
+      <c r="L183" t="n">
+        <v>2</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>4</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['2', '83']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['7', '81']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>10</v>
+      </c>
+      <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>12</v>
+      </c>
+      <c r="T183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V183" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X183" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Austria 2. Liga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK183"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1.55</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT14" t="n">
         <v>1.27</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.74</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
         <v>0.82</v>
@@ -7805,7 +7805,7 @@
         <v>1.73</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU36" t="n">
         <v>2.23</v>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT46" t="n">
         <v>2.25</v>
@@ -12271,7 +12271,7 @@
         <v>1.18</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU58" t="n">
         <v>1.21</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT59" t="n">
         <v>1.45</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU74" t="n">
         <v>1.43</v>
@@ -16734,7 +16734,7 @@
         <v>0.25</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT80" t="n">
         <v>0.91</v>
@@ -18767,7 +18767,7 @@
         <v>1.27</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.49</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT95" t="n">
         <v>1.42</v>
@@ -21809,7 +21809,7 @@
         <v>2</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT105" t="n">
         <v>1.42</v>
@@ -23436,7 +23436,7 @@
         <v>0.75</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU113" t="n">
         <v>1.99</v>
@@ -24245,7 +24245,7 @@
         <v>1.29</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT117" t="n">
         <v>1.42</v>
@@ -26481,7 +26481,7 @@
         <v>2.5</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU128" t="n">
         <v>1.61</v>
@@ -27087,7 +27087,7 @@
         <v>1.13</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT131" t="n">
         <v>1.36</v>
@@ -29323,7 +29323,7 @@
         <v>2.55</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU142" t="n">
         <v>2.08</v>
@@ -30135,7 +30135,7 @@
         <v>1.36</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU146" t="n">
         <v>1.33</v>
@@ -31350,7 +31350,7 @@
         <v>1.11</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT152" t="n">
         <v>0.92</v>
@@ -34601,7 +34601,7 @@
         <v>1.67</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AU168" t="n">
         <v>1.91</v>
@@ -34801,7 +34801,7 @@
         <v>1.7</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT169" t="n">
         <v>1.58</v>
@@ -37698,6 +37698,209 @@
       </c>
       <c r="BK183" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2593465</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Austria 2. Liga</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45034.5625</v>
+      </c>
+      <c r="F184" t="n">
+        <v>23</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Admira</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Kapfenberger SV</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['52', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>6</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2</v>
+      </c>
+      <c r="S184" t="n">
+        <v>8</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V184" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
